--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">java.lang.Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT</t>
   </si>
 </sst>
 </file>
@@ -388,11 +391,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -878,7 +883,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">java.time.LocalDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMESTAMPZ</t>
+    <t xml:space="preserve">java.time.OffsetDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">java.time.OffsetDateTime</t>
+    <t xml:space="preserve">TIMESTAMPZ</t>
   </si>
   <si>
     <t xml:space="preserve">java.time.ZonedDateTime</t>
@@ -459,7 +459,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -473,7 +473,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -495,27 +495,27 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -523,7 +523,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -537,13 +537,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -557,7 +557,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -565,13 +565,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">java.time.OffsetDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">TIMESTAMPZ</t>
+    <t xml:space="preserve">TIMESTAMP WITH TIME ZONE</t>
   </si>
   <si>
     <t xml:space="preserve">java.time.ZonedDateTime</t>
@@ -391,13 +391,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -40,16 +40,19 @@
     <t xml:space="preserve">JdbcType</t>
   </si>
   <si>
+    <t xml:space="preserve">SqlType</t>
+  </si>
+  <si>
     <t xml:space="preserve">java.util.Date</t>
   </si>
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
-    <t xml:space="preserve">java.sql.Date</t>
+    <t xml:space="preserve">java.time.LocalDate</t>
   </si>
   <si>
-    <t xml:space="preserve">java.time.LocalDate</t>
+    <t xml:space="preserve">java.sql.Date</t>
   </si>
   <si>
     <t xml:space="preserve">org.joda.time.LocalDate</t>
@@ -163,13 +166,13 @@
     <t xml:space="preserve">UUID</t>
   </si>
   <si>
+    <t xml:space="preserve">java.util.UUID</t>
+  </si>
+  <si>
     <t xml:space="preserve">java.sql.Blob</t>
   </si>
   <si>
     <t xml:space="preserve">java.sql.Clob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">java.util.UUID</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.Object</t>
@@ -385,17 +388,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1019"/>
+  <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="26.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -417,33 +420,42 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -451,245 +463,296 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>2014</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="n">
@@ -699,71 +762,86 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G25" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="n">
@@ -773,15 +851,18 @@
         <v>20</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>255</v>
@@ -789,71 +870,86 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="G27" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>1111</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="G31" s="4" t="n">
+        <v>1111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -861,33 +957,42 @@
       <c r="F32" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="G32" s="4" t="n">
+        <v>1111</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="G33" s="4" t="n">
+        <v>1111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -897,6 +1002,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
@@ -905,6 +1011,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
@@ -913,6 +1020,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
@@ -921,6 +1029,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
@@ -929,6 +1038,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
@@ -937,6 +1047,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
@@ -945,6 +1056,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
@@ -953,6 +1065,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
@@ -961,6 +1074,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
@@ -969,6 +1083,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
@@ -977,6 +1092,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
@@ -985,6 +1101,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
@@ -993,6 +1110,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
@@ -1001,6 +1119,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
@@ -1009,6 +1128,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
@@ -1017,6 +1137,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
@@ -1025,6 +1146,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
@@ -1033,6 +1155,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
@@ -1041,6 +1164,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
@@ -1049,6 +1173,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
@@ -1057,6 +1182,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
@@ -1065,6 +1191,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
@@ -1073,6 +1200,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
@@ -1081,6 +1209,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
@@ -1089,6 +1218,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
@@ -1097,6 +1227,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
@@ -1105,6 +1236,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
@@ -1113,6 +1245,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
@@ -1121,6 +1254,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
@@ -1129,6 +1263,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
@@ -1137,6 +1272,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
@@ -1145,6 +1281,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
@@ -1153,6 +1290,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
@@ -1161,6 +1299,7 @@
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
@@ -1169,6 +1308,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
@@ -1177,6 +1317,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
@@ -1185,6 +1326,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
@@ -1193,6 +1335,7 @@
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
@@ -1201,6 +1344,7 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
@@ -1209,6 +1353,7 @@
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
@@ -1217,6 +1362,7 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
@@ -1225,6 +1371,7 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
@@ -1233,6 +1380,7 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
@@ -1241,6 +1389,7 @@
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
@@ -1249,6 +1398,7 @@
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
@@ -1257,6 +1407,7 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
@@ -1265,6 +1416,7 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
@@ -1273,6 +1425,7 @@
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
@@ -1281,6 +1434,7 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
@@ -1289,6 +1443,7 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
@@ -1297,6 +1452,7 @@
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
@@ -1305,6 +1461,7 @@
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
@@ -1313,6 +1470,7 @@
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
@@ -1321,6 +1479,7 @@
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
@@ -1329,6 +1488,7 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
@@ -1337,6 +1497,7 @@
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
@@ -1345,6 +1506,7 @@
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
@@ -1353,6 +1515,7 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
@@ -1361,6 +1524,7 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
@@ -1369,6 +1533,7 @@
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
@@ -1377,6 +1542,7 @@
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
@@ -1385,6 +1551,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
@@ -1393,6 +1560,7 @@
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
@@ -1401,6 +1569,7 @@
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
@@ -1409,6 +1578,7 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
@@ -1417,6 +1587,7 @@
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
@@ -1425,6 +1596,7 @@
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
@@ -1433,6 +1605,7 @@
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
@@ -1441,6 +1614,7 @@
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
@@ -1449,6 +1623,7 @@
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
@@ -1457,6 +1632,7 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="5"/>
@@ -1465,6 +1641,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5"/>
@@ -1473,6 +1650,7 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5"/>
@@ -1481,6 +1659,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5"/>
@@ -1489,6 +1668,7 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5"/>
@@ -1497,6 +1677,7 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5"/>
@@ -1505,6 +1686,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
@@ -1513,6 +1695,7 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
@@ -1521,6 +1704,7 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
@@ -1529,6 +1713,7 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5"/>
@@ -1537,6 +1722,7 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="5"/>
@@ -1545,6 +1731,7 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
@@ -1553,6 +1740,7 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="5"/>
@@ -1561,6 +1749,7 @@
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5"/>
@@ -1569,6 +1758,7 @@
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="5"/>
@@ -1577,6 +1767,7 @@
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="5"/>
@@ -1585,6 +1776,7 @@
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="5"/>
@@ -1593,6 +1785,7 @@
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="5"/>
@@ -1601,6 +1794,7 @@
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="5"/>
@@ -1609,6 +1803,7 @@
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5"/>
@@ -1617,6 +1812,7 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5"/>
@@ -1625,6 +1821,7 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5"/>
@@ -1633,6 +1830,7 @@
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5"/>
@@ -1641,6 +1839,7 @@
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
@@ -1649,6 +1848,7 @@
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5"/>
@@ -1657,6 +1857,7 @@
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
@@ -1665,6 +1866,7 @@
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5"/>
@@ -1673,6 +1875,7 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
@@ -1681,6 +1884,7 @@
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5"/>
@@ -1689,6 +1893,7 @@
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5"/>
@@ -1697,6 +1902,7 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5"/>
@@ -1705,6 +1911,7 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5"/>
@@ -1713,6 +1920,7 @@
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5"/>
@@ -1721,6 +1929,7 @@
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
@@ -1729,6 +1938,7 @@
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
@@ -1737,6 +1947,7 @@
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5"/>
@@ -1745,6 +1956,7 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
@@ -1753,6 +1965,7 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
@@ -1761,6 +1974,7 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
@@ -1769,6 +1983,7 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
@@ -1777,6 +1992,7 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
@@ -1785,6 +2001,7 @@
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
@@ -1793,6 +2010,7 @@
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
@@ -1801,6 +2019,7 @@
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
@@ -1809,6 +2028,7 @@
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="5"/>
@@ -1817,6 +2037,7 @@
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5"/>
@@ -1825,6 +2046,7 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5"/>
@@ -1833,6 +2055,7 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="5"/>
@@ -1841,6 +2064,7 @@
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5"/>
@@ -1849,6 +2073,7 @@
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="5"/>
@@ -1857,6 +2082,7 @@
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="5"/>
@@ -1865,6 +2091,7 @@
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="5"/>
@@ -1873,6 +2100,7 @@
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="5"/>
@@ -1881,6 +2109,7 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5"/>
@@ -1889,6 +2118,7 @@
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5"/>
@@ -1897,6 +2127,7 @@
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5"/>
@@ -1905,6 +2136,7 @@
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5"/>
@@ -1913,6 +2145,7 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5"/>
@@ -1921,6 +2154,7 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5"/>
@@ -1929,6 +2163,7 @@
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5"/>
@@ -1937,6 +2172,7 @@
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5"/>
@@ -1945,6 +2181,7 @@
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5"/>
@@ -1953,6 +2190,7 @@
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5"/>
@@ -1961,6 +2199,7 @@
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5"/>
@@ -1969,6 +2208,7 @@
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5"/>
@@ -1977,6 +2217,7 @@
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5"/>
@@ -1985,6 +2226,7 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5"/>
@@ -1993,6 +2235,7 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5"/>
@@ -2001,6 +2244,7 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5"/>
@@ -2009,6 +2253,7 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5"/>
@@ -2017,6 +2262,7 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5"/>
@@ -2025,6 +2271,7 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5"/>
@@ -2033,6 +2280,7 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5"/>
@@ -2041,6 +2289,7 @@
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5"/>
@@ -2049,6 +2298,7 @@
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5"/>
@@ -2057,6 +2307,7 @@
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5"/>
@@ -2065,6 +2316,7 @@
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5"/>
@@ -2073,6 +2325,7 @@
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5"/>
@@ -2081,6 +2334,7 @@
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5"/>
@@ -2089,6 +2343,7 @@
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5"/>
@@ -2097,6 +2352,7 @@
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5"/>
@@ -2105,6 +2361,7 @@
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5"/>
@@ -2113,6 +2370,7 @@
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5"/>
@@ -2121,6 +2379,7 @@
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5"/>
@@ -2129,6 +2388,7 @@
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5"/>
@@ -2137,6 +2397,7 @@
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5"/>
@@ -2145,6 +2406,7 @@
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5"/>
@@ -2153,6 +2415,7 @@
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5"/>
@@ -2161,6 +2424,7 @@
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5"/>
@@ -2169,6 +2433,7 @@
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5"/>
@@ -2177,6 +2442,7 @@
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5"/>
@@ -2185,6 +2451,7 @@
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5"/>
@@ -2193,6 +2460,7 @@
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5"/>
@@ -2201,6 +2469,7 @@
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5"/>
@@ -2209,6 +2478,7 @@
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5"/>
@@ -2217,6 +2487,7 @@
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5"/>
@@ -2225,6 +2496,7 @@
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5"/>
@@ -2233,6 +2505,7 @@
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5"/>
@@ -2241,6 +2514,7 @@
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5"/>
@@ -2249,6 +2523,7 @@
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5"/>
@@ -2257,6 +2532,7 @@
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5"/>
@@ -2265,6 +2541,7 @@
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="5"/>
@@ -2273,6 +2550,7 @@
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="5"/>
@@ -2281,6 +2559,7 @@
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="5"/>
@@ -2289,6 +2568,7 @@
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="5"/>
@@ -2297,6 +2577,7 @@
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5"/>
@@ -2305,6 +2586,7 @@
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5"/>
@@ -2313,6 +2595,7 @@
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5"/>
@@ -2321,6 +2604,7 @@
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="5"/>
@@ -2329,6 +2613,7 @@
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="5"/>
@@ -2337,6 +2622,7 @@
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="5"/>
@@ -2345,6 +2631,7 @@
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="5"/>
@@ -2353,6 +2640,7 @@
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="5"/>
@@ -2361,6 +2649,7 @@
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="5"/>
@@ -2369,6 +2658,7 @@
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="5"/>
@@ -2377,6 +2667,7 @@
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5"/>
@@ -2385,6 +2676,7 @@
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="5"/>
@@ -2393,6 +2685,7 @@
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="5"/>
@@ -2401,6 +2694,7 @@
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="5"/>
@@ -2409,6 +2703,7 @@
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="5"/>
@@ -2417,6 +2712,7 @@
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
@@ -2425,6 +2721,7 @@
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="5"/>
@@ -2433,6 +2730,7 @@
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="5"/>
@@ -2441,6 +2739,7 @@
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="5"/>
@@ -2449,6 +2748,7 @@
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="5"/>
@@ -2457,6 +2757,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5"/>
@@ -2465,6 +2766,7 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
@@ -2473,6 +2775,7 @@
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5"/>
@@ -2481,6 +2784,7 @@
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="5"/>
@@ -2489,6 +2793,7 @@
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5"/>
@@ -2497,6 +2802,7 @@
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="5"/>
@@ -2505,6 +2811,7 @@
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="5"/>
@@ -2513,6 +2820,7 @@
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="5"/>
@@ -2521,6 +2829,7 @@
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5"/>
@@ -2529,6 +2838,7 @@
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="5"/>
@@ -2537,6 +2847,7 @@
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5"/>
@@ -2545,6 +2856,7 @@
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5"/>
@@ -2553,6 +2865,7 @@
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="5"/>
@@ -2561,6 +2874,7 @@
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="5"/>
@@ -2569,6 +2883,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="5"/>
@@ -2577,6 +2892,7 @@
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="5"/>
@@ -2585,6 +2901,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="5"/>
@@ -2593,6 +2910,7 @@
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="5"/>
@@ -2601,6 +2919,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="5"/>
@@ -2609,6 +2928,7 @@
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="5"/>
@@ -2617,6 +2937,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5"/>
@@ -2625,6 +2946,7 @@
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5"/>
@@ -2633,6 +2955,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5"/>
@@ -2641,6 +2964,7 @@
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5"/>
@@ -2649,6 +2973,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="5"/>
@@ -2657,6 +2982,7 @@
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5"/>
@@ -2665,6 +2991,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5"/>
@@ -2673,6 +3000,7 @@
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5"/>
@@ -2681,6 +3009,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="5"/>
@@ -2689,6 +3018,7 @@
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="5"/>
@@ -2697,6 +3027,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="5"/>
@@ -2705,6 +3036,7 @@
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5"/>
@@ -2713,6 +3045,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5"/>
@@ -2721,6 +3054,7 @@
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="5"/>
@@ -2729,6 +3063,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5"/>
@@ -2737,6 +3072,7 @@
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5"/>
@@ -2745,6 +3081,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="5"/>
@@ -2753,6 +3090,7 @@
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="5"/>
@@ -2761,6 +3099,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="5"/>
@@ -2769,6 +3108,7 @@
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="5"/>
@@ -2777,6 +3117,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="5"/>
@@ -2785,6 +3126,7 @@
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="5"/>
@@ -2793,6 +3135,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="5"/>
@@ -2801,6 +3144,7 @@
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="5"/>
@@ -2809,6 +3153,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="5"/>
@@ -2817,6 +3162,7 @@
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="5"/>
@@ -2825,6 +3171,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="5"/>
@@ -2833,6 +3180,7 @@
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="5"/>
@@ -2841,6 +3189,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="5"/>
@@ -2849,6 +3198,7 @@
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="5"/>
@@ -2857,6 +3207,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5"/>
@@ -2865,6 +3216,7 @@
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5"/>
@@ -2873,6 +3225,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5"/>
@@ -2881,6 +3234,7 @@
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="5"/>
@@ -2889,6 +3243,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5"/>
@@ -2897,6 +3252,7 @@
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="5"/>
@@ -2905,6 +3261,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="5"/>
@@ -2913,6 +3270,7 @@
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5"/>
@@ -2921,6 +3279,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="5"/>
@@ -2929,6 +3288,7 @@
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5"/>
@@ -2937,6 +3297,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="5"/>
@@ -2945,6 +3306,7 @@
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="5"/>
@@ -2953,6 +3315,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="5"/>
@@ -2961,6 +3324,7 @@
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="5"/>
@@ -2969,6 +3333,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5"/>
@@ -2977,6 +3342,7 @@
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="5"/>
@@ -2985,6 +3351,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="5"/>
@@ -2993,6 +3360,7 @@
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="5"/>
@@ -3001,6 +3369,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="5"/>
@@ -3009,6 +3378,7 @@
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="5"/>
@@ -3017,6 +3387,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="5"/>
@@ -3025,6 +3396,7 @@
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="5"/>
@@ -3033,6 +3405,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="5"/>
@@ -3041,6 +3414,7 @@
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="5"/>
@@ -3049,6 +3423,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="5"/>
@@ -3057,6 +3432,7 @@
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="5"/>
@@ -3065,6 +3441,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="5"/>
@@ -3073,6 +3450,7 @@
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="5"/>
@@ -3081,6 +3459,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="5"/>
@@ -3089,6 +3468,7 @@
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5"/>
@@ -3097,6 +3477,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="5"/>
@@ -3105,6 +3486,7 @@
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5"/>
@@ -3113,6 +3495,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="5"/>
@@ -3121,6 +3504,7 @@
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="5"/>
@@ -3129,6 +3513,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="5"/>
@@ -3137,6 +3522,7 @@
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="5"/>
@@ -3145,6 +3531,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="5"/>
@@ -3153,6 +3540,7 @@
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="5"/>
@@ -3161,6 +3549,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="5"/>
@@ -3169,6 +3558,7 @@
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="5"/>
@@ -3177,6 +3567,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="5"/>
@@ -3185,6 +3576,7 @@
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="5"/>
@@ -3193,6 +3585,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="5"/>
@@ -3201,6 +3594,7 @@
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="5"/>
@@ -3209,6 +3603,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5"/>
@@ -3217,6 +3612,7 @@
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5"/>
@@ -3225,6 +3621,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5"/>
@@ -3233,6 +3630,7 @@
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="5"/>
@@ -3241,6 +3639,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5"/>
@@ -3249,6 +3648,7 @@
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="5"/>
@@ -3257,6 +3657,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="5"/>
@@ -3265,6 +3666,7 @@
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="5"/>
@@ -3273,6 +3675,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5"/>
@@ -3281,6 +3684,7 @@
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5"/>
@@ -3289,6 +3693,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="5"/>
@@ -3297,6 +3702,7 @@
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="5"/>
@@ -3305,6 +3711,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5"/>
@@ -3313,6 +3720,7 @@
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="5"/>
@@ -3321,6 +3729,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="5"/>
@@ -3329,6 +3738,7 @@
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="5"/>
@@ -3337,6 +3747,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="5"/>
@@ -3345,6 +3756,7 @@
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="5"/>
@@ -3353,6 +3765,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5"/>
@@ -3361,6 +3774,7 @@
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="5"/>
@@ -3369,6 +3783,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="5"/>
@@ -3377,6 +3792,7 @@
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="5"/>
@@ -3385,6 +3801,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="5"/>
@@ -3393,6 +3810,7 @@
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="5"/>
@@ -3401,6 +3819,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="5"/>
@@ -3409,6 +3828,7 @@
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="5"/>
@@ -3417,6 +3837,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="5"/>
@@ -3425,6 +3846,7 @@
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="5"/>
@@ -3433,6 +3855,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="5"/>
@@ -3441,6 +3864,7 @@
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="5"/>
@@ -3449,6 +3873,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5"/>
@@ -3457,6 +3882,7 @@
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="5"/>
@@ -3465,6 +3891,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="5"/>
@@ -3473,6 +3900,7 @@
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="5"/>
@@ -3481,6 +3909,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="5"/>
@@ -3489,6 +3918,7 @@
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="5"/>
@@ -3497,6 +3927,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="5"/>
@@ -3505,6 +3936,7 @@
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="5"/>
@@ -3513,6 +3945,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="5"/>
@@ -3521,6 +3954,7 @@
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="5"/>
@@ -3529,6 +3963,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="5"/>
@@ -3537,6 +3972,7 @@
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="5"/>
@@ -3545,6 +3981,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="5"/>
@@ -3553,6 +3990,7 @@
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="5"/>
@@ -3561,6 +3999,7 @@
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="5"/>
@@ -3569,6 +4008,7 @@
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="5"/>
@@ -3577,6 +4017,7 @@
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="5"/>
@@ -3585,6 +4026,7 @@
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="5"/>
@@ -3593,6 +4035,7 @@
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="5"/>
@@ -3601,6 +4044,7 @@
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="5"/>
@@ -3609,6 +4053,7 @@
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="5"/>
@@ -3617,6 +4062,7 @@
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="5"/>
@@ -3625,6 +4071,7 @@
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="5"/>
@@ -3633,6 +4080,7 @@
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="5"/>
@@ -3641,6 +4089,7 @@
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="5"/>
@@ -3649,6 +4098,7 @@
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="5"/>
@@ -3657,6 +4107,7 @@
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="5"/>
@@ -3665,6 +4116,7 @@
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="5"/>
@@ -3673,6 +4125,7 @@
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
+      <c r="G382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="5"/>
@@ -3681,6 +4134,7 @@
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
+      <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="5"/>
@@ -3689,6 +4143,7 @@
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
+      <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="5"/>
@@ -3697,6 +4152,7 @@
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="5"/>
@@ -3705,6 +4161,7 @@
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="5"/>
@@ -3713,6 +4170,7 @@
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="5"/>
@@ -3721,6 +4179,7 @@
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="5"/>
@@ -3729,6 +4188,7 @@
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="5"/>
@@ -3737,6 +4197,7 @@
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="5"/>
@@ -3745,6 +4206,7 @@
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="5"/>
@@ -3753,6 +4215,7 @@
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="5"/>
@@ -3761,6 +4224,7 @@
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="5"/>
@@ -3769,6 +4233,7 @@
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="5"/>
@@ -3777,6 +4242,7 @@
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="5"/>
@@ -3785,6 +4251,7 @@
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="5"/>
@@ -3793,6 +4260,7 @@
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="5"/>
@@ -3801,6 +4269,7 @@
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="5"/>
@@ -3809,6 +4278,7 @@
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="5"/>
@@ -3817,6 +4287,7 @@
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="5"/>
@@ -3825,6 +4296,7 @@
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="5"/>
@@ -3833,6 +4305,7 @@
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="5"/>
@@ -3841,6 +4314,7 @@
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="5"/>
@@ -3849,6 +4323,7 @@
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="5"/>
@@ -3857,6 +4332,7 @@
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="5"/>
@@ -3865,6 +4341,7 @@
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="5"/>
@@ -3873,6 +4350,7 @@
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="5"/>
@@ -3881,6 +4359,7 @@
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="5"/>
@@ -3889,6 +4368,7 @@
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="5"/>
@@ -3897,6 +4377,7 @@
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="5"/>
@@ -3905,6 +4386,7 @@
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="5"/>
@@ -3913,6 +4395,7 @@
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="5"/>
@@ -3921,6 +4404,7 @@
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="5"/>
@@ -3929,6 +4413,7 @@
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="5"/>
@@ -3937,6 +4422,7 @@
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="5"/>
@@ -3945,6 +4431,7 @@
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="5"/>
@@ -3953,6 +4440,7 @@
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="5"/>
@@ -3961,6 +4449,7 @@
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="5"/>
@@ -3969,6 +4458,7 @@
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="5"/>
@@ -3977,6 +4467,7 @@
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="5"/>
@@ -3985,6 +4476,7 @@
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="5"/>
@@ -3993,6 +4485,7 @@
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="5"/>
@@ -4001,6 +4494,7 @@
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="5"/>
@@ -4009,6 +4503,7 @@
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="5"/>
@@ -4017,6 +4512,7 @@
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="5"/>
@@ -4025,6 +4521,7 @@
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="5"/>
@@ -4033,6 +4530,7 @@
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="5"/>
@@ -4041,6 +4539,7 @@
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="5"/>
@@ -4049,6 +4548,7 @@
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="5"/>
@@ -4057,6 +4557,7 @@
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="5"/>
@@ -4065,6 +4566,7 @@
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="5"/>
@@ -4073,6 +4575,7 @@
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="5"/>
@@ -4081,6 +4584,7 @@
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="5"/>
@@ -4089,6 +4593,7 @@
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="5"/>
@@ -4097,6 +4602,7 @@
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="5"/>
@@ -4105,6 +4611,7 @@
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="5"/>
@@ -4113,6 +4620,7 @@
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="5"/>
@@ -4121,6 +4629,7 @@
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="5"/>
@@ -4129,6 +4638,7 @@
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="5"/>
@@ -4137,6 +4647,7 @@
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="5"/>
@@ -4145,6 +4656,7 @@
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="5"/>
@@ -4153,6 +4665,7 @@
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="5"/>
@@ -4161,6 +4674,7 @@
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="5"/>
@@ -4169,6 +4683,7 @@
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="5"/>
@@ -4177,6 +4692,7 @@
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="5"/>
@@ -4185,6 +4701,7 @@
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="5"/>
@@ -4193,6 +4710,7 @@
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="5"/>
@@ -4201,6 +4719,7 @@
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="5"/>
@@ -4209,6 +4728,7 @@
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="5"/>
@@ -4217,6 +4737,7 @@
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="5"/>
@@ -4225,6 +4746,7 @@
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="5"/>
@@ -4233,6 +4755,7 @@
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="5"/>
@@ -4241,6 +4764,7 @@
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="5"/>
@@ -4249,6 +4773,7 @@
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="5"/>
@@ -4257,6 +4782,7 @@
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="5"/>
@@ -4265,6 +4791,7 @@
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="5"/>
@@ -4273,6 +4800,7 @@
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="5"/>
@@ -4281,6 +4809,7 @@
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="5"/>
@@ -4289,6 +4818,7 @@
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="5"/>
@@ -4297,6 +4827,7 @@
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="5"/>
@@ -4305,6 +4836,7 @@
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="5"/>
@@ -4313,6 +4845,7 @@
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="5"/>
@@ -4321,6 +4854,7 @@
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="5"/>
@@ -4329,6 +4863,7 @@
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="5"/>
@@ -4337,6 +4872,7 @@
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="5"/>
@@ -4345,6 +4881,7 @@
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="5"/>
@@ -4353,6 +4890,7 @@
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="5"/>
@@ -4361,6 +4899,7 @@
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="5"/>
@@ -4369,6 +4908,7 @@
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="5"/>
@@ -4377,6 +4917,7 @@
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="5"/>
@@ -4385,6 +4926,7 @@
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="5"/>
@@ -4393,6 +4935,7 @@
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="5"/>
@@ -4401,6 +4944,7 @@
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="5"/>
@@ -4409,6 +4953,7 @@
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="5"/>
@@ -4417,6 +4962,7 @@
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="5"/>
@@ -4425,6 +4971,7 @@
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="5"/>
@@ -4433,6 +4980,7 @@
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="5"/>
@@ -4441,6 +4989,7 @@
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="5"/>
@@ -4449,6 +4998,7 @@
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="5"/>
@@ -4457,6 +5007,7 @@
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="5"/>
@@ -4465,6 +5016,7 @@
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="5"/>
@@ -4473,6 +5025,7 @@
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="5"/>
@@ -4481,6 +5034,7 @@
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="5"/>
@@ -4489,6 +5043,7 @@
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="5"/>
@@ -4497,6 +5052,7 @@
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="5"/>
@@ -4505,6 +5061,7 @@
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="5"/>
@@ -4513,6 +5070,7 @@
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="5"/>
@@ -4521,6 +5079,7 @@
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="5"/>
@@ -4529,6 +5088,7 @@
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="5"/>
@@ -4537,6 +5097,7 @@
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="5"/>
@@ -4545,6 +5106,7 @@
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="5"/>
@@ -4553,6 +5115,7 @@
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="5"/>
@@ -4561,6 +5124,7 @@
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="5"/>
@@ -4569,6 +5133,7 @@
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="5"/>
@@ -4577,6 +5142,7 @@
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="5"/>
@@ -4585,6 +5151,7 @@
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="5"/>
@@ -4593,6 +5160,7 @@
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="5"/>
@@ -4601,6 +5169,7 @@
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="5"/>
@@ -4609,6 +5178,7 @@
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="5"/>
@@ -4617,6 +5187,7 @@
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="5"/>
@@ -4625,6 +5196,7 @@
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="5"/>
@@ -4633,6 +5205,7 @@
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="5"/>
@@ -4641,6 +5214,7 @@
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="5"/>
@@ -4649,6 +5223,7 @@
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="5"/>
@@ -4657,6 +5232,7 @@
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="5"/>
@@ -4665,6 +5241,7 @@
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="5"/>
@@ -4673,6 +5250,7 @@
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="5"/>
@@ -4681,6 +5259,7 @@
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="5"/>
@@ -4689,6 +5268,7 @@
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="5"/>
@@ -4697,6 +5277,7 @@
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="5"/>
@@ -4705,6 +5286,7 @@
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="5"/>
@@ -4713,6 +5295,7 @@
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="5"/>
@@ -4721,6 +5304,7 @@
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="5"/>
@@ -4729,6 +5313,7 @@
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="5"/>
@@ -4737,6 +5322,7 @@
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="5"/>
@@ -4745,6 +5331,7 @@
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="5"/>
@@ -4753,6 +5340,7 @@
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="5"/>
@@ -4761,6 +5349,7 @@
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="5"/>
@@ -4769,6 +5358,7 @@
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="5"/>
@@ -4777,6 +5367,7 @@
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="5"/>
@@ -4785,6 +5376,7 @@
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="5"/>
@@ -4793,6 +5385,7 @@
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="5"/>
@@ -4801,6 +5394,7 @@
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="5"/>
@@ -4809,6 +5403,7 @@
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="5"/>
@@ -4817,6 +5412,7 @@
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="5"/>
@@ -4825,6 +5421,7 @@
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="5"/>
@@ -4833,6 +5430,7 @@
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="5"/>
@@ -4841,6 +5439,7 @@
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="5"/>
@@ -4849,6 +5448,7 @@
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="5"/>
@@ -4857,6 +5457,7 @@
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="5"/>
@@ -4865,6 +5466,7 @@
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="5"/>
@@ -4873,6 +5475,7 @@
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="5"/>
@@ -4881,6 +5484,7 @@
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="5"/>
@@ -4889,6 +5493,7 @@
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="5"/>
@@ -4897,6 +5502,7 @@
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="5"/>
@@ -4905,6 +5511,7 @@
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="5"/>
@@ -4913,6 +5520,7 @@
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="5"/>
@@ -4921,6 +5529,7 @@
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="5"/>
@@ -4929,6 +5538,7 @@
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="5"/>
@@ -4937,6 +5547,7 @@
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="5"/>
@@ -4945,6 +5556,7 @@
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="5"/>
@@ -4953,6 +5565,7 @@
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="5"/>
@@ -4961,6 +5574,7 @@
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="5"/>
@@ -4969,6 +5583,7 @@
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="5"/>
@@ -4977,6 +5592,7 @@
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="5"/>
@@ -4985,6 +5601,7 @@
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="5"/>
@@ -4993,6 +5610,7 @@
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="5"/>
@@ -5001,6 +5619,7 @@
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="5"/>
@@ -5009,6 +5628,7 @@
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="5"/>
@@ -5017,6 +5637,7 @@
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="5"/>
@@ -5025,6 +5646,7 @@
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="5"/>
@@ -5033,6 +5655,7 @@
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="5"/>
@@ -5041,6 +5664,7 @@
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="5"/>
@@ -5049,6 +5673,7 @@
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="5"/>
@@ -5057,6 +5682,7 @@
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="5"/>
@@ -5065,6 +5691,7 @@
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="5"/>
@@ -5073,6 +5700,7 @@
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="5"/>
@@ -5081,6 +5709,7 @@
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="5"/>
@@ -5089,6 +5718,7 @@
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="5"/>
@@ -5097,6 +5727,7 @@
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="5"/>
@@ -5105,6 +5736,7 @@
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="5"/>
@@ -5113,6 +5745,7 @@
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="5"/>
@@ -5121,6 +5754,7 @@
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="5"/>
@@ -5129,6 +5763,7 @@
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="5"/>
@@ -5137,6 +5772,7 @@
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="5"/>
@@ -5145,6 +5781,7 @@
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5"/>
@@ -5153,6 +5790,7 @@
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="5"/>
@@ -5161,6 +5799,7 @@
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="5"/>
@@ -5169,6 +5808,7 @@
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="5"/>
@@ -5177,6 +5817,7 @@
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5"/>
@@ -5185,6 +5826,7 @@
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5"/>
@@ -5193,6 +5835,7 @@
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="5"/>
@@ -5201,6 +5844,7 @@
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5"/>
@@ -5209,6 +5853,7 @@
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="5"/>
@@ -5217,6 +5862,7 @@
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="5"/>
@@ -5225,6 +5871,7 @@
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5"/>
@@ -5233,6 +5880,7 @@
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5"/>
@@ -5241,6 +5889,7 @@
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5"/>
@@ -5249,6 +5898,7 @@
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="5"/>
@@ -5257,6 +5907,7 @@
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5"/>
@@ -5265,6 +5916,7 @@
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5"/>
@@ -5273,6 +5925,7 @@
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5"/>
@@ -5281,6 +5934,7 @@
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5"/>
@@ -5289,6 +5943,7 @@
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5"/>
@@ -5297,6 +5952,7 @@
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="5"/>
@@ -5305,6 +5961,7 @@
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="5"/>
@@ -5313,6 +5970,7 @@
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5"/>
@@ -5321,6 +5979,7 @@
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5"/>
@@ -5329,6 +5988,7 @@
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5"/>
@@ -5337,6 +5997,7 @@
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5"/>
@@ -5345,6 +6006,7 @@
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5"/>
@@ -5353,6 +6015,7 @@
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5"/>
@@ -5361,6 +6024,7 @@
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5"/>
@@ -5369,6 +6033,7 @@
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="5"/>
@@ -5377,6 +6042,7 @@
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5"/>
@@ -5385,6 +6051,7 @@
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5"/>
@@ -5393,6 +6060,7 @@
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5"/>
@@ -5401,6 +6069,7 @@
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5"/>
@@ -5409,6 +6078,7 @@
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5"/>
@@ -5417,6 +6087,7 @@
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5"/>
@@ -5425,6 +6096,7 @@
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="5"/>
@@ -5433,6 +6105,7 @@
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5"/>
@@ -5441,6 +6114,7 @@
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="5"/>
@@ -5449,6 +6123,7 @@
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="5"/>
@@ -5457,6 +6132,7 @@
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5"/>
@@ -5465,6 +6141,7 @@
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5"/>
@@ -5473,6 +6150,7 @@
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5"/>
@@ -5481,6 +6159,7 @@
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5"/>
@@ -5489,6 +6168,7 @@
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5"/>
@@ -5497,6 +6177,7 @@
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5"/>
@@ -5505,6 +6186,7 @@
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5"/>
@@ -5513,6 +6195,7 @@
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5"/>
@@ -5521,6 +6204,7 @@
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5"/>
@@ -5529,6 +6213,7 @@
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5"/>
@@ -5537,6 +6222,7 @@
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5"/>
@@ -5545,6 +6231,7 @@
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5"/>
@@ -5553,6 +6240,7 @@
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5"/>
@@ -5561,6 +6249,7 @@
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5"/>
@@ -5569,6 +6258,7 @@
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5"/>
@@ -5577,6 +6267,7 @@
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5"/>
@@ -5585,6 +6276,7 @@
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5"/>
@@ -5593,6 +6285,7 @@
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5"/>
@@ -5601,6 +6294,7 @@
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5"/>
@@ -5609,6 +6303,7 @@
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5"/>
@@ -5617,6 +6312,7 @@
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5"/>
@@ -5625,6 +6321,7 @@
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5"/>
@@ -5633,6 +6330,7 @@
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5"/>
@@ -5641,6 +6339,7 @@
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="5"/>
@@ -5649,6 +6348,7 @@
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5"/>
@@ -5657,6 +6357,7 @@
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="5"/>
@@ -5665,6 +6366,7 @@
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5"/>
@@ -5673,6 +6375,7 @@
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="5"/>
@@ -5681,6 +6384,7 @@
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5"/>
@@ -5689,6 +6393,7 @@
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5"/>
@@ -5697,6 +6402,7 @@
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="5"/>
@@ -5705,6 +6411,7 @@
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="5"/>
@@ -5713,6 +6420,7 @@
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5"/>
@@ -5721,6 +6429,7 @@
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5"/>
@@ -5729,6 +6438,7 @@
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5"/>
@@ -5737,6 +6447,7 @@
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5"/>
@@ -5745,6 +6456,7 @@
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5"/>
@@ -5753,6 +6465,7 @@
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5"/>
@@ -5761,6 +6474,7 @@
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="5"/>
@@ -5769,6 +6483,7 @@
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="5"/>
@@ -5777,6 +6492,7 @@
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5"/>
@@ -5785,6 +6501,7 @@
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5"/>
@@ -5793,6 +6510,7 @@
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5"/>
@@ -5801,6 +6519,7 @@
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5"/>
@@ -5809,6 +6528,7 @@
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5"/>
@@ -5817,6 +6537,7 @@
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="5"/>
@@ -5825,6 +6546,7 @@
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5"/>
@@ -5833,6 +6555,7 @@
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="5"/>
@@ -5841,6 +6564,7 @@
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="5"/>
@@ -5849,6 +6573,7 @@
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="5"/>
@@ -5857,6 +6582,7 @@
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="5"/>
@@ -5865,6 +6591,7 @@
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="5"/>
@@ -5873,6 +6600,7 @@
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="5"/>
@@ -5881,6 +6609,7 @@
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="5"/>
@@ -5889,6 +6618,7 @@
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="5"/>
@@ -5897,6 +6627,7 @@
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="5"/>
@@ -5905,6 +6636,7 @@
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="5"/>
@@ -5913,6 +6645,7 @@
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="5"/>
@@ -5921,6 +6654,7 @@
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5"/>
@@ -5929,6 +6663,7 @@
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="5"/>
@@ -5937,6 +6672,7 @@
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="5"/>
@@ -5945,6 +6681,7 @@
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="5"/>
@@ -5953,6 +6690,7 @@
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5"/>
@@ -5961,6 +6699,7 @@
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="5"/>
@@ -5969,6 +6708,7 @@
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="5"/>
@@ -5977,6 +6717,7 @@
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="5"/>
@@ -5985,6 +6726,7 @@
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="5"/>
@@ -5993,6 +6735,7 @@
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="5"/>
@@ -6001,6 +6744,7 @@
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="5"/>
@@ -6009,6 +6753,7 @@
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="5"/>
@@ -6017,6 +6762,7 @@
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="5"/>
@@ -6025,6 +6771,7 @@
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="5"/>
@@ -6033,6 +6780,7 @@
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="5"/>
@@ -6041,6 +6789,7 @@
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="5"/>
@@ -6049,6 +6798,7 @@
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="5"/>
@@ -6057,6 +6807,7 @@
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="5"/>
@@ -6065,6 +6816,7 @@
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="5"/>
@@ -6073,6 +6825,7 @@
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="5"/>
@@ -6081,6 +6834,7 @@
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="5"/>
@@ -6089,6 +6843,7 @@
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="5"/>
@@ -6097,6 +6852,7 @@
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="5"/>
@@ -6105,6 +6861,7 @@
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="5"/>
@@ -6113,6 +6870,7 @@
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="5"/>
@@ -6121,6 +6879,7 @@
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="5"/>
@@ -6129,6 +6888,7 @@
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="5"/>
@@ -6137,6 +6897,7 @@
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="5"/>
@@ -6145,6 +6906,7 @@
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="5"/>
@@ -6153,6 +6915,7 @@
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="5"/>
@@ -6161,6 +6924,7 @@
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="5"/>
@@ -6169,6 +6933,7 @@
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="5"/>
@@ -6177,6 +6942,7 @@
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="5"/>
@@ -6185,6 +6951,7 @@
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="5"/>
@@ -6193,6 +6960,7 @@
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="5"/>
@@ -6201,6 +6969,7 @@
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="5"/>
@@ -6209,6 +6978,7 @@
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="5"/>
@@ -6217,6 +6987,7 @@
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="5"/>
@@ -6225,6 +6996,7 @@
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="5"/>
@@ -6233,6 +7005,7 @@
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="5"/>
@@ -6241,6 +7014,7 @@
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="5"/>
@@ -6249,6 +7023,7 @@
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="5"/>
@@ -6257,6 +7032,7 @@
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="5"/>
@@ -6265,6 +7041,7 @@
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="5"/>
@@ -6273,6 +7050,7 @@
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="5"/>
@@ -6281,6 +7059,7 @@
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="5"/>
@@ -6289,6 +7068,7 @@
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="5"/>
@@ -6297,6 +7077,7 @@
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="5"/>
@@ -6305,6 +7086,7 @@
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="5"/>
@@ -6313,6 +7095,7 @@
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="5"/>
@@ -6321,6 +7104,7 @@
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="5"/>
@@ -6329,6 +7113,7 @@
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="5"/>
@@ -6337,6 +7122,7 @@
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="5"/>
@@ -6345,6 +7131,7 @@
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="5"/>
@@ -6353,6 +7140,7 @@
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="5"/>
@@ -6361,6 +7149,7 @@
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="5"/>
@@ -6369,6 +7158,7 @@
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="5"/>
@@ -6377,6 +7167,7 @@
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="5"/>
@@ -6385,6 +7176,7 @@
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
+      <c r="G721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="5"/>
@@ -6393,6 +7185,7 @@
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
+      <c r="G722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="5"/>
@@ -6401,6 +7194,7 @@
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
+      <c r="G723" s="4"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="5"/>
@@ -6409,6 +7203,7 @@
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
+      <c r="G724" s="4"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="5"/>
@@ -6417,6 +7212,7 @@
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
+      <c r="G725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5"/>
@@ -6425,6 +7221,7 @@
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
+      <c r="G726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="5"/>
@@ -6433,6 +7230,7 @@
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
+      <c r="G727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="5"/>
@@ -6441,6 +7239,7 @@
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
+      <c r="G728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="5"/>
@@ -6449,6 +7248,7 @@
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
+      <c r="G729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="5"/>
@@ -6457,6 +7257,7 @@
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
+      <c r="G730" s="4"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="5"/>
@@ -6465,6 +7266,7 @@
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
+      <c r="G731" s="4"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="5"/>
@@ -6473,6 +7275,7 @@
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
+      <c r="G732" s="4"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="5"/>
@@ -6481,6 +7284,7 @@
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
+      <c r="G733" s="4"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="5"/>
@@ -6489,6 +7293,7 @@
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
+      <c r="G734" s="4"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5"/>
@@ -6497,6 +7302,7 @@
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
+      <c r="G735" s="4"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="5"/>
@@ -6505,6 +7311,7 @@
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
+      <c r="G736" s="4"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="5"/>
@@ -6513,6 +7320,7 @@
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="5"/>
@@ -6521,6 +7329,7 @@
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="5"/>
@@ -6529,6 +7338,7 @@
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="5"/>
@@ -6537,6 +7347,7 @@
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="5"/>
@@ -6545,6 +7356,7 @@
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
+      <c r="G741" s="4"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="5"/>
@@ -6553,6 +7365,7 @@
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
+      <c r="G742" s="4"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="5"/>
@@ -6561,6 +7374,7 @@
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
+      <c r="G743" s="4"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="5"/>
@@ -6569,6 +7383,7 @@
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
+      <c r="G744" s="4"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="5"/>
@@ -6577,6 +7392,7 @@
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
+      <c r="G745" s="4"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="5"/>
@@ -6585,6 +7401,7 @@
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
+      <c r="G746" s="4"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="5"/>
@@ -6593,6 +7410,7 @@
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
+      <c r="G747" s="4"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="5"/>
@@ -6601,6 +7419,7 @@
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
+      <c r="G748" s="4"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="5"/>
@@ -6609,6 +7428,7 @@
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="5"/>
@@ -6617,6 +7437,7 @@
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="5"/>
@@ -6625,6 +7446,7 @@
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="5"/>
@@ -6633,6 +7455,7 @@
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="5"/>
@@ -6641,6 +7464,7 @@
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="5"/>
@@ -6649,6 +7473,7 @@
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="5"/>
@@ -6657,6 +7482,7 @@
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
+      <c r="G755" s="4"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="5"/>
@@ -6665,6 +7491,7 @@
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="5"/>
@@ -6673,6 +7500,7 @@
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="5"/>
@@ -6681,6 +7509,7 @@
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="5"/>
@@ -6689,6 +7518,7 @@
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="5"/>
@@ -6697,6 +7527,7 @@
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="5"/>
@@ -6705,6 +7536,7 @@
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="5"/>
@@ -6713,6 +7545,7 @@
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="5"/>
@@ -6721,6 +7554,7 @@
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="5"/>
@@ -6729,6 +7563,7 @@
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="5"/>
@@ -6737,6 +7572,7 @@
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="5"/>
@@ -6745,6 +7581,7 @@
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="5"/>
@@ -6753,6 +7590,7 @@
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="5"/>
@@ -6761,6 +7599,7 @@
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="5"/>
@@ -6769,6 +7608,7 @@
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="5"/>
@@ -6777,6 +7617,7 @@
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="5"/>
@@ -6785,6 +7626,7 @@
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="5"/>
@@ -6793,6 +7635,7 @@
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="5"/>
@@ -6801,6 +7644,7 @@
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="5"/>
@@ -6809,6 +7653,7 @@
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="5"/>
@@ -6817,6 +7662,7 @@
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="5"/>
@@ -6825,6 +7671,7 @@
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="5"/>
@@ -6833,6 +7680,7 @@
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="5"/>
@@ -6841,6 +7689,7 @@
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="5"/>
@@ -6849,6 +7698,7 @@
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="5"/>
@@ -6857,6 +7707,7 @@
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="5"/>
@@ -6865,6 +7716,7 @@
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="5"/>
@@ -6873,6 +7725,7 @@
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="5"/>
@@ -6881,6 +7734,7 @@
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="5"/>
@@ -6889,6 +7743,7 @@
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="5"/>
@@ -6897,6 +7752,7 @@
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="5"/>
@@ -6905,6 +7761,7 @@
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="5"/>
@@ -6913,6 +7770,7 @@
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="5"/>
@@ -6921,6 +7779,7 @@
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="5"/>
@@ -6929,6 +7788,7 @@
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="5"/>
@@ -6937,6 +7797,7 @@
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="5"/>
@@ -6945,6 +7806,7 @@
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="5"/>
@@ -6953,6 +7815,7 @@
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
+      <c r="G792" s="4"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="5"/>
@@ -6961,6 +7824,7 @@
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
+      <c r="G793" s="4"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="5"/>
@@ -6969,6 +7833,7 @@
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
+      <c r="G794" s="4"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="5"/>
@@ -6977,6 +7842,7 @@
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
+      <c r="G795" s="4"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="5"/>
@@ -6985,6 +7851,7 @@
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
+      <c r="G796" s="4"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="5"/>
@@ -6993,6 +7860,7 @@
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
+      <c r="G797" s="4"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="5"/>
@@ -7001,6 +7869,7 @@
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
+      <c r="G798" s="4"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="5"/>
@@ -7009,6 +7878,7 @@
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="5"/>
@@ -7017,6 +7887,7 @@
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="5"/>
@@ -7025,6 +7896,7 @@
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="5"/>
@@ -7033,6 +7905,7 @@
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="5"/>
@@ -7041,6 +7914,7 @@
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="5"/>
@@ -7049,6 +7923,7 @@
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
+      <c r="G804" s="4"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="5"/>
@@ -7057,6 +7932,7 @@
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
+      <c r="G805" s="4"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="5"/>
@@ -7065,6 +7941,7 @@
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
+      <c r="G806" s="4"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="5"/>
@@ -7073,6 +7950,7 @@
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
+      <c r="G807" s="4"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="5"/>
@@ -7081,6 +7959,7 @@
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
+      <c r="G808" s="4"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="5"/>
@@ -7089,6 +7968,7 @@
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
+      <c r="G809" s="4"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="5"/>
@@ -7097,6 +7977,7 @@
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
+      <c r="G810" s="4"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="5"/>
@@ -7105,6 +7986,7 @@
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
+      <c r="G811" s="4"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="5"/>
@@ -7113,6 +7995,7 @@
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
+      <c r="G812" s="4"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="5"/>
@@ -7121,6 +8004,7 @@
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
+      <c r="G813" s="4"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="5"/>
@@ -7129,6 +8013,7 @@
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
+      <c r="G814" s="4"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="5"/>
@@ -7137,6 +8022,7 @@
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
+      <c r="G815" s="4"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="5"/>
@@ -7145,6 +8031,7 @@
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
+      <c r="G816" s="4"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="5"/>
@@ -7153,6 +8040,7 @@
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
+      <c r="G817" s="4"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="5"/>
@@ -7161,6 +8049,7 @@
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
+      <c r="G818" s="4"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="5"/>
@@ -7169,6 +8058,7 @@
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
+      <c r="G819" s="4"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="5"/>
@@ -7177,6 +8067,7 @@
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
+      <c r="G820" s="4"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="5"/>
@@ -7185,6 +8076,7 @@
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
+      <c r="G821" s="4"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="5"/>
@@ -7193,6 +8085,7 @@
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
+      <c r="G822" s="4"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="5"/>
@@ -7201,6 +8094,7 @@
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
+      <c r="G823" s="4"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="5"/>
@@ -7209,6 +8103,7 @@
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
+      <c r="G824" s="4"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="5"/>
@@ -7217,6 +8112,7 @@
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
+      <c r="G825" s="4"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="5"/>
@@ -7225,6 +8121,7 @@
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
+      <c r="G826" s="4"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="5"/>
@@ -7233,6 +8130,7 @@
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
+      <c r="G827" s="4"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="5"/>
@@ -7241,6 +8139,7 @@
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
+      <c r="G828" s="4"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="5"/>
@@ -7249,6 +8148,7 @@
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
+      <c r="G829" s="4"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="5"/>
@@ -7257,6 +8157,7 @@
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
+      <c r="G830" s="4"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="5"/>
@@ -7265,6 +8166,7 @@
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
+      <c r="G831" s="4"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="5"/>
@@ -7273,6 +8175,7 @@
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
+      <c r="G832" s="4"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="5"/>
@@ -7281,6 +8184,7 @@
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
+      <c r="G833" s="4"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="5"/>
@@ -7289,6 +8193,7 @@
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
+      <c r="G834" s="4"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="5"/>
@@ -7297,6 +8202,7 @@
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
+      <c r="G835" s="4"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="5"/>
@@ -7305,6 +8211,7 @@
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
+      <c r="G836" s="4"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="5"/>
@@ -7313,6 +8220,7 @@
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
+      <c r="G837" s="4"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="5"/>
@@ -7321,6 +8229,7 @@
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
+      <c r="G838" s="4"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="5"/>
@@ -7329,6 +8238,7 @@
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
+      <c r="G839" s="4"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="5"/>
@@ -7337,6 +8247,7 @@
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
+      <c r="G840" s="4"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="5"/>
@@ -7345,6 +8256,7 @@
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
+      <c r="G841" s="4"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="5"/>
@@ -7353,6 +8265,7 @@
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
+      <c r="G842" s="4"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="5"/>
@@ -7361,6 +8274,7 @@
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
+      <c r="G843" s="4"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="5"/>
@@ -7369,6 +8283,7 @@
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
+      <c r="G844" s="4"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="5"/>
@@ -7377,6 +8292,7 @@
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
+      <c r="G845" s="4"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="5"/>
@@ -7385,6 +8301,7 @@
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
+      <c r="G846" s="4"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="5"/>
@@ -7393,6 +8310,7 @@
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
+      <c r="G847" s="4"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="5"/>
@@ -7401,6 +8319,7 @@
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
+      <c r="G848" s="4"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="5"/>
@@ -7409,6 +8328,7 @@
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
+      <c r="G849" s="4"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="5"/>
@@ -7417,6 +8337,7 @@
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
+      <c r="G850" s="4"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="5"/>
@@ -7425,6 +8346,7 @@
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
+      <c r="G851" s="4"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="5"/>
@@ -7433,6 +8355,7 @@
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
+      <c r="G852" s="4"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="5"/>
@@ -7441,6 +8364,7 @@
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
+      <c r="G853" s="4"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="5"/>
@@ -7449,6 +8373,7 @@
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
+      <c r="G854" s="4"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="5"/>
@@ -7457,6 +8382,7 @@
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
+      <c r="G855" s="4"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="5"/>
@@ -7465,6 +8391,7 @@
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
+      <c r="G856" s="4"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="5"/>
@@ -7473,6 +8400,7 @@
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
+      <c r="G857" s="4"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="5"/>
@@ -7481,6 +8409,7 @@
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
+      <c r="G858" s="4"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="5"/>
@@ -7489,6 +8418,7 @@
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
+      <c r="G859" s="4"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="5"/>
@@ -7497,6 +8427,7 @@
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
+      <c r="G860" s="4"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="5"/>
@@ -7505,6 +8436,7 @@
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
+      <c r="G861" s="4"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="5"/>
@@ -7513,6 +8445,7 @@
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
+      <c r="G862" s="4"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="5"/>
@@ -7521,6 +8454,7 @@
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
+      <c r="G863" s="4"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="5"/>
@@ -7529,6 +8463,7 @@
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
+      <c r="G864" s="4"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="5"/>
@@ -7537,6 +8472,7 @@
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
+      <c r="G865" s="4"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="5"/>
@@ -7545,6 +8481,7 @@
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
+      <c r="G866" s="4"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="5"/>
@@ -7553,6 +8490,7 @@
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
+      <c r="G867" s="4"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="5"/>
@@ -7561,6 +8499,7 @@
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
+      <c r="G868" s="4"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="5"/>
@@ -7569,6 +8508,7 @@
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
+      <c r="G869" s="4"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="5"/>
@@ -7577,6 +8517,7 @@
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
+      <c r="G870" s="4"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="5"/>
@@ -7585,6 +8526,7 @@
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
+      <c r="G871" s="4"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="5"/>
@@ -7593,6 +8535,7 @@
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
+      <c r="G872" s="4"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="5"/>
@@ -7601,6 +8544,7 @@
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
+      <c r="G873" s="4"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="5"/>
@@ -7609,6 +8553,7 @@
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
+      <c r="G874" s="4"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="5"/>
@@ -7617,6 +8562,7 @@
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
+      <c r="G875" s="4"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="5"/>
@@ -7625,6 +8571,7 @@
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
+      <c r="G876" s="4"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="5"/>
@@ -7633,6 +8580,7 @@
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
+      <c r="G877" s="4"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="5"/>
@@ -7641,6 +8589,7 @@
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
+      <c r="G878" s="4"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="5"/>
@@ -7649,6 +8598,7 @@
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
+      <c r="G879" s="4"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="5"/>
@@ -7657,6 +8607,7 @@
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
+      <c r="G880" s="4"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="5"/>
@@ -7665,6 +8616,7 @@
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
+      <c r="G881" s="4"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="5"/>
@@ -7673,6 +8625,7 @@
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
+      <c r="G882" s="4"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="5"/>
@@ -7681,6 +8634,7 @@
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
+      <c r="G883" s="4"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="5"/>
@@ -7689,6 +8643,7 @@
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
+      <c r="G884" s="4"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="5"/>
@@ -7697,6 +8652,7 @@
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
+      <c r="G885" s="4"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="5"/>
@@ -7705,6 +8661,7 @@
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
+      <c r="G886" s="4"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="5"/>
@@ -7713,6 +8670,7 @@
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
+      <c r="G887" s="4"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="5"/>
@@ -7721,6 +8679,7 @@
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
+      <c r="G888" s="4"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="5"/>
@@ -7729,6 +8688,7 @@
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
+      <c r="G889" s="4"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="5"/>
@@ -7737,6 +8697,7 @@
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
+      <c r="G890" s="4"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="5"/>
@@ -7745,6 +8706,7 @@
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
+      <c r="G891" s="4"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="5"/>
@@ -7753,6 +8715,7 @@
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
+      <c r="G892" s="4"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="5"/>
@@ -7761,6 +8724,7 @@
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
+      <c r="G893" s="4"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="5"/>
@@ -7769,6 +8733,7 @@
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
+      <c r="G894" s="4"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="5"/>
@@ -7777,6 +8742,7 @@
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
+      <c r="G895" s="4"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="5"/>
@@ -7785,6 +8751,7 @@
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
+      <c r="G896" s="4"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="5"/>
@@ -7793,6 +8760,7 @@
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
+      <c r="G897" s="4"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="5"/>
@@ -7801,6 +8769,7 @@
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
+      <c r="G898" s="4"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="5"/>
@@ -7809,6 +8778,7 @@
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
+      <c r="G899" s="4"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="5"/>
@@ -7817,6 +8787,7 @@
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
+      <c r="G900" s="4"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="5"/>
@@ -7825,6 +8796,7 @@
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
+      <c r="G901" s="4"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="5"/>
@@ -7833,6 +8805,7 @@
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
+      <c r="G902" s="4"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="5"/>
@@ -7841,6 +8814,7 @@
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
+      <c r="G903" s="4"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="5"/>
@@ -7849,6 +8823,7 @@
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
+      <c r="G904" s="4"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="5"/>
@@ -7857,6 +8832,7 @@
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
+      <c r="G905" s="4"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="5"/>
@@ -7865,6 +8841,7 @@
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
+      <c r="G906" s="4"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="5"/>
@@ -7873,6 +8850,7 @@
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
+      <c r="G907" s="4"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="5"/>
@@ -7881,6 +8859,7 @@
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
+      <c r="G908" s="4"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="5"/>
@@ -7889,6 +8868,7 @@
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
+      <c r="G909" s="4"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="5"/>
@@ -7897,6 +8877,7 @@
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
+      <c r="G910" s="4"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="5"/>
@@ -7905,6 +8886,7 @@
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
+      <c r="G911" s="4"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="5"/>
@@ -7913,6 +8895,7 @@
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
+      <c r="G912" s="4"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="5"/>
@@ -7921,6 +8904,7 @@
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
+      <c r="G913" s="4"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="5"/>
@@ -7929,6 +8913,7 @@
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="5"/>
@@ -7937,6 +8922,7 @@
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="5"/>
@@ -7945,6 +8931,7 @@
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="5"/>
@@ -7953,6 +8940,7 @@
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="5"/>
@@ -7961,6 +8949,7 @@
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="5"/>
@@ -7969,6 +8958,7 @@
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
+      <c r="G919" s="4"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="5"/>
@@ -7977,6 +8967,7 @@
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
+      <c r="G920" s="4"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="5"/>
@@ -7985,6 +8976,7 @@
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
+      <c r="G921" s="4"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="5"/>
@@ -7993,6 +8985,7 @@
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
+      <c r="G922" s="4"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="5"/>
@@ -8001,6 +8994,7 @@
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
+      <c r="G923" s="4"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="5"/>
@@ -8009,6 +9003,7 @@
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
+      <c r="G924" s="4"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="5"/>
@@ -8017,6 +9012,7 @@
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
+      <c r="G925" s="4"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="5"/>
@@ -8025,6 +9021,7 @@
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
+      <c r="G926" s="4"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="5"/>
@@ -8033,6 +9030,7 @@
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
+      <c r="G927" s="4"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="5"/>
@@ -8041,6 +9039,7 @@
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
+      <c r="G928" s="4"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="5"/>
@@ -8049,6 +9048,7 @@
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
+      <c r="G929" s="4"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="5"/>
@@ -8057,6 +9057,7 @@
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
+      <c r="G930" s="4"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="5"/>
@@ -8065,6 +9066,7 @@
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
+      <c r="G931" s="4"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="5"/>
@@ -8073,6 +9075,7 @@
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
+      <c r="G932" s="4"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="5"/>
@@ -8081,6 +9084,7 @@
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
+      <c r="G933" s="4"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="5"/>
@@ -8089,6 +9093,7 @@
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
+      <c r="G934" s="4"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="5"/>
@@ -8097,6 +9102,7 @@
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
+      <c r="G935" s="4"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="5"/>
@@ -8105,6 +9111,7 @@
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
+      <c r="G936" s="4"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="5"/>
@@ -8113,6 +9120,7 @@
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
+      <c r="G937" s="4"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="5"/>
@@ -8121,6 +9129,7 @@
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
+      <c r="G938" s="4"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="5"/>
@@ -8129,6 +9138,7 @@
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
+      <c r="G939" s="4"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="5"/>
@@ -8137,6 +9147,7 @@
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
+      <c r="G940" s="4"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="5"/>
@@ -8145,6 +9156,7 @@
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
+      <c r="G941" s="4"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="5"/>
@@ -8153,6 +9165,7 @@
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
+      <c r="G942" s="4"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="5"/>
@@ -8161,6 +9174,7 @@
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
+      <c r="G943" s="4"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="5"/>
@@ -8169,6 +9183,7 @@
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
+      <c r="G944" s="4"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="5"/>
@@ -8177,6 +9192,7 @@
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
+      <c r="G945" s="4"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="5"/>
@@ -8185,6 +9201,7 @@
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
+      <c r="G946" s="4"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="5"/>
@@ -8193,6 +9210,7 @@
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
+      <c r="G947" s="4"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="5"/>
@@ -8201,6 +9219,7 @@
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
+      <c r="G948" s="4"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="5"/>
@@ -8209,6 +9228,7 @@
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
+      <c r="G949" s="4"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="5"/>
@@ -8217,6 +9237,7 @@
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
+      <c r="G950" s="4"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="5"/>
@@ -8225,6 +9246,7 @@
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
+      <c r="G951" s="4"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="5"/>
@@ -8233,6 +9255,7 @@
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
+      <c r="G952" s="4"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="5"/>
@@ -8241,6 +9264,7 @@
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
+      <c r="G953" s="4"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="5"/>
@@ -8249,6 +9273,7 @@
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
+      <c r="G954" s="4"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="5"/>
@@ -8257,6 +9282,7 @@
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
+      <c r="G955" s="4"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="5"/>
@@ -8265,6 +9291,7 @@
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
+      <c r="G956" s="4"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="5"/>
@@ -8273,6 +9300,7 @@
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
+      <c r="G957" s="4"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="5"/>
@@ -8281,6 +9309,7 @@
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
+      <c r="G958" s="4"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="5"/>
@@ -8289,6 +9318,7 @@
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
+      <c r="G959" s="4"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="5"/>
@@ -8297,6 +9327,7 @@
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
+      <c r="G960" s="4"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="5"/>
@@ -8305,6 +9336,7 @@
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="5"/>
@@ -8313,6 +9345,7 @@
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="5"/>
@@ -8321,6 +9354,7 @@
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="5"/>
@@ -8329,6 +9363,7 @@
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="5"/>
@@ -8337,6 +9372,7 @@
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="5"/>
@@ -8345,6 +9381,7 @@
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="5"/>
@@ -8353,6 +9390,7 @@
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="5"/>
@@ -8361,6 +9399,7 @@
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="5"/>
@@ -8369,6 +9408,7 @@
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="5"/>
@@ -8377,6 +9417,7 @@
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="5"/>
@@ -8385,6 +9426,7 @@
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="5"/>
@@ -8393,6 +9435,7 @@
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="5"/>
@@ -8401,6 +9444,7 @@
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="5"/>
@@ -8409,6 +9453,7 @@
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="5"/>
@@ -8417,6 +9462,7 @@
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="5"/>
@@ -8425,6 +9471,7 @@
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="5"/>
@@ -8433,6 +9480,7 @@
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="5"/>
@@ -8441,6 +9489,7 @@
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="5"/>
@@ -8449,6 +9498,7 @@
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="5"/>
@@ -8457,6 +9507,7 @@
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="5"/>
@@ -8465,6 +9516,7 @@
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
+      <c r="G981" s="4"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="5"/>
@@ -8473,6 +9525,7 @@
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
+      <c r="G982" s="4"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="5"/>
@@ -8481,6 +9534,7 @@
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="5"/>
@@ -8489,6 +9543,7 @@
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
+      <c r="G984" s="4"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="5"/>
@@ -8497,6 +9552,7 @@
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
+      <c r="G985" s="4"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="5"/>
@@ -8505,6 +9561,7 @@
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="5"/>
@@ -8513,6 +9570,7 @@
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
+      <c r="G987" s="4"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="5"/>
@@ -8521,6 +9579,7 @@
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="5"/>
@@ -8529,6 +9588,7 @@
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="5"/>
@@ -8537,6 +9597,7 @@
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="5"/>
@@ -8545,6 +9606,7 @@
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="5"/>
@@ -8553,6 +9615,7 @@
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="5"/>
@@ -8561,6 +9624,7 @@
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="5"/>
@@ -8569,6 +9633,7 @@
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
+      <c r="G994" s="4"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="5"/>
@@ -8577,6 +9642,7 @@
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
+      <c r="G995" s="4"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="5"/>
@@ -8585,6 +9651,7 @@
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="5"/>
@@ -8593,6 +9660,7 @@
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="5"/>
@@ -8601,6 +9669,7 @@
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="5"/>
@@ -8609,6 +9678,7 @@
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="5"/>
@@ -8617,6 +9687,7 @@
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="5"/>
@@ -8625,6 +9696,7 @@
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="5"/>
@@ -8633,6 +9705,7 @@
       <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="5"/>
@@ -8641,6 +9714,7 @@
       <c r="D1003" s="4"/>
       <c r="E1003" s="4"/>
       <c r="F1003" s="4"/>
+      <c r="G1003" s="4"/>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="5"/>
@@ -8649,6 +9723,7 @@
       <c r="D1004" s="4"/>
       <c r="E1004" s="4"/>
       <c r="F1004" s="4"/>
+      <c r="G1004" s="4"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="5"/>
@@ -8657,6 +9732,7 @@
       <c r="D1005" s="4"/>
       <c r="E1005" s="4"/>
       <c r="F1005" s="4"/>
+      <c r="G1005" s="4"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="5"/>
@@ -8665,6 +9741,7 @@
       <c r="D1006" s="4"/>
       <c r="E1006" s="4"/>
       <c r="F1006" s="4"/>
+      <c r="G1006" s="4"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="5"/>
@@ -8673,6 +9750,7 @@
       <c r="D1007" s="4"/>
       <c r="E1007" s="4"/>
       <c r="F1007" s="4"/>
+      <c r="G1007" s="4"/>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="5"/>
@@ -8681,6 +9759,7 @@
       <c r="D1008" s="4"/>
       <c r="E1008" s="4"/>
       <c r="F1008" s="4"/>
+      <c r="G1008" s="4"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="5"/>
@@ -8689,6 +9768,7 @@
       <c r="D1009" s="4"/>
       <c r="E1009" s="4"/>
       <c r="F1009" s="4"/>
+      <c r="G1009" s="4"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="5"/>
@@ -8697,6 +9777,7 @@
       <c r="D1010" s="4"/>
       <c r="E1010" s="4"/>
       <c r="F1010" s="4"/>
+      <c r="G1010" s="4"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="5"/>
@@ -8705,6 +9786,7 @@
       <c r="D1011" s="4"/>
       <c r="E1011" s="4"/>
       <c r="F1011" s="4"/>
+      <c r="G1011" s="4"/>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="5"/>
@@ -8713,6 +9795,7 @@
       <c r="D1012" s="4"/>
       <c r="E1012" s="4"/>
       <c r="F1012" s="4"/>
+      <c r="G1012" s="4"/>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="5"/>
@@ -8721,6 +9804,7 @@
       <c r="D1013" s="4"/>
       <c r="E1013" s="4"/>
       <c r="F1013" s="4"/>
+      <c r="G1013" s="4"/>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="5"/>
@@ -8729,6 +9813,7 @@
       <c r="D1014" s="4"/>
       <c r="E1014" s="4"/>
       <c r="F1014" s="4"/>
+      <c r="G1014" s="4"/>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="5"/>
@@ -8737,6 +9822,7 @@
       <c r="D1015" s="4"/>
       <c r="E1015" s="4"/>
       <c r="F1015" s="4"/>
+      <c r="G1015" s="4"/>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="5"/>
@@ -8745,6 +9831,7 @@
       <c r="D1016" s="4"/>
       <c r="E1016" s="4"/>
       <c r="F1016" s="4"/>
+      <c r="G1016" s="4"/>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="5"/>
@@ -8753,6 +9840,7 @@
       <c r="D1017" s="4"/>
       <c r="E1017" s="4"/>
       <c r="F1017" s="4"/>
+      <c r="G1017" s="4"/>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="5"/>
@@ -8761,6 +9849,7 @@
       <c r="D1018" s="4"/>
       <c r="E1018" s="4"/>
       <c r="F1018" s="4"/>
+      <c r="G1018" s="4"/>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="5"/>
@@ -8769,6 +9858,7 @@
       <c r="D1019" s="4"/>
       <c r="E1019" s="4"/>
       <c r="F1019" s="4"/>
+      <c r="G1019" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t xml:space="preserve">Judo</t>
   </si>
@@ -124,6 +124,9 @@
     <t xml:space="preserve">DECIMAL</t>
   </si>
   <si>
+    <t xml:space="preserve">#contraints:precision</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
@@ -145,10 +148,16 @@
     <t xml:space="preserve">java.math.BigDecimal</t>
   </si>
   <si>
+    <t xml:space="preserve">#contraints:scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">java.lang.String</t>
   </si>
   <si>
     <t xml:space="preserve">VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#contraints:maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">boolean</t>
@@ -286,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,6 +313,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,20 +397,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="26.86"/>
   </cols>
   <sheetData>
@@ -755,8 +769,8 @@
         <v>33</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="3" t="n">
-        <v>18</v>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
@@ -770,16 +784,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>6</v>
@@ -787,16 +801,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>6</v>
@@ -804,16 +818,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>8</v>
@@ -821,16 +835,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>8</v>
@@ -838,20 +852,20 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="3" t="n">
-        <v>64</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>20</v>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>3</v>
@@ -859,18 +873,18 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>255</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>12</v>
@@ -878,16 +892,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>16</v>
@@ -895,16 +909,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>16</v>
@@ -912,16 +926,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>1111</v>
@@ -929,16 +943,16 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>1111</v>
@@ -946,16 +960,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>1111</v>
@@ -963,40 +977,40 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>1111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>51</v>
+      <c r="A34" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1005,7 +1019,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1014,7 +1028,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1023,7 +1037,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1032,7 +1046,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1041,7 +1055,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1050,7 +1064,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1059,7 +1073,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1068,7 +1082,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1077,7 +1091,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1086,7 +1100,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1095,7 +1109,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1104,7 +1118,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1113,7 +1127,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5"/>
+      <c r="A48" s="6"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1122,7 +1136,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1131,7 +1145,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1140,7 +1154,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1149,7 +1163,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1158,7 +1172,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1167,7 +1181,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1176,7 +1190,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1185,7 +1199,7 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1194,7 +1208,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1203,7 +1217,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1212,7 +1226,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1221,7 +1235,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1230,7 +1244,7 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1239,7 +1253,7 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1248,7 +1262,7 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1257,7 +1271,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1266,7 +1280,7 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1275,7 +1289,7 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1284,7 +1298,7 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1293,7 +1307,7 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1302,7 +1316,7 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1311,7 +1325,7 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1320,7 +1334,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1329,7 +1343,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1338,7 +1352,7 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1347,7 +1361,7 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1356,7 +1370,7 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1365,7 +1379,7 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1374,7 +1388,7 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1383,7 +1397,7 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5"/>
+      <c r="A78" s="6"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1392,7 +1406,7 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1401,7 +1415,7 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -1410,7 +1424,7 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1419,7 +1433,7 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1428,7 +1442,7 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -1437,7 +1451,7 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -1446,7 +1460,7 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1455,7 +1469,7 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -1464,7 +1478,7 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5"/>
+      <c r="A87" s="6"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -1473,7 +1487,7 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1482,7 +1496,7 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -1491,7 +1505,7 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -1500,7 +1514,7 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -1509,7 +1523,7 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -1518,7 +1532,7 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5"/>
+      <c r="A93" s="6"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -1527,7 +1541,7 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5"/>
+      <c r="A94" s="6"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -1536,7 +1550,7 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5"/>
+      <c r="A95" s="6"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -1545,7 +1559,7 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -1554,7 +1568,7 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5"/>
+      <c r="A97" s="6"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -1563,7 +1577,7 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5"/>
+      <c r="A98" s="6"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -1572,7 +1586,7 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5"/>
+      <c r="A99" s="6"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -1581,7 +1595,7 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5"/>
+      <c r="A100" s="6"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -1590,7 +1604,7 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5"/>
+      <c r="A101" s="6"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -1599,7 +1613,7 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5"/>
+      <c r="A102" s="6"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -1608,7 +1622,7 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5"/>
+      <c r="A103" s="6"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -1617,7 +1631,7 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -1626,7 +1640,7 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5"/>
+      <c r="A105" s="6"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -1635,7 +1649,7 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5"/>
+      <c r="A106" s="6"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -1644,7 +1658,7 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5"/>
+      <c r="A107" s="6"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -1653,7 +1667,7 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5"/>
+      <c r="A108" s="6"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -1662,7 +1676,7 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5"/>
+      <c r="A109" s="6"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -1671,7 +1685,7 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5"/>
+      <c r="A110" s="6"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -1680,7 +1694,7 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5"/>
+      <c r="A111" s="6"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -1689,7 +1703,7 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5"/>
+      <c r="A112" s="6"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -1698,7 +1712,7 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5"/>
+      <c r="A113" s="6"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -1707,7 +1721,7 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5"/>
+      <c r="A114" s="6"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -1716,7 +1730,7 @@
       <c r="G114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5"/>
+      <c r="A115" s="6"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -1725,7 +1739,7 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5"/>
+      <c r="A116" s="6"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -1734,7 +1748,7 @@
       <c r="G116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5"/>
+      <c r="A117" s="6"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -1743,7 +1757,7 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5"/>
+      <c r="A118" s="6"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -1752,7 +1766,7 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5"/>
+      <c r="A119" s="6"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -1761,7 +1775,7 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5"/>
+      <c r="A120" s="6"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -1770,7 +1784,7 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5"/>
+      <c r="A121" s="6"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -1779,7 +1793,7 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5"/>
+      <c r="A122" s="6"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -1788,7 +1802,7 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5"/>
+      <c r="A123" s="6"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -1797,7 +1811,7 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5"/>
+      <c r="A124" s="6"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -1806,7 +1820,7 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5"/>
+      <c r="A125" s="6"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -1815,7 +1829,7 @@
       <c r="G125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5"/>
+      <c r="A126" s="6"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -1824,7 +1838,7 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5"/>
+      <c r="A127" s="6"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -1833,7 +1847,7 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5"/>
+      <c r="A128" s="6"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -1842,7 +1856,7 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5"/>
+      <c r="A129" s="6"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -1851,7 +1865,7 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5"/>
+      <c r="A130" s="6"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -1860,7 +1874,7 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5"/>
+      <c r="A131" s="6"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -1869,7 +1883,7 @@
       <c r="G131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5"/>
+      <c r="A132" s="6"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -1878,7 +1892,7 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5"/>
+      <c r="A133" s="6"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -1887,7 +1901,7 @@
       <c r="G133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5"/>
+      <c r="A134" s="6"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -1896,7 +1910,7 @@
       <c r="G134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -1905,7 +1919,7 @@
       <c r="G135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
+      <c r="A136" s="6"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -1914,7 +1928,7 @@
       <c r="G136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5"/>
+      <c r="A137" s="6"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -1923,7 +1937,7 @@
       <c r="G137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5"/>
+      <c r="A138" s="6"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -1932,7 +1946,7 @@
       <c r="G138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5"/>
+      <c r="A139" s="6"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -1941,7 +1955,7 @@
       <c r="G139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5"/>
+      <c r="A140" s="6"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -1950,7 +1964,7 @@
       <c r="G140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5"/>
+      <c r="A141" s="6"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -1959,7 +1973,7 @@
       <c r="G141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -1968,7 +1982,7 @@
       <c r="G142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5"/>
+      <c r="A143" s="6"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -1977,7 +1991,7 @@
       <c r="G143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5"/>
+      <c r="A144" s="6"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -1986,7 +2000,7 @@
       <c r="G144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
+      <c r="A145" s="6"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -1995,7 +2009,7 @@
       <c r="G145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5"/>
+      <c r="A146" s="6"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -2004,7 +2018,7 @@
       <c r="G146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5"/>
+      <c r="A147" s="6"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -2013,7 +2027,7 @@
       <c r="G147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5"/>
+      <c r="A148" s="6"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -2022,7 +2036,7 @@
       <c r="G148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5"/>
+      <c r="A149" s="6"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -2031,7 +2045,7 @@
       <c r="G149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5"/>
+      <c r="A150" s="6"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -2040,7 +2054,7 @@
       <c r="G150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
+      <c r="A151" s="6"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -2049,7 +2063,7 @@
       <c r="G151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5"/>
+      <c r="A152" s="6"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -2058,7 +2072,7 @@
       <c r="G152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="5"/>
+      <c r="A153" s="6"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -2067,7 +2081,7 @@
       <c r="G153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5"/>
+      <c r="A154" s="6"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -2076,7 +2090,7 @@
       <c r="G154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="5"/>
+      <c r="A155" s="6"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -2085,7 +2099,7 @@
       <c r="G155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="5"/>
+      <c r="A156" s="6"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -2094,7 +2108,7 @@
       <c r="G156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="5"/>
+      <c r="A157" s="6"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -2103,7 +2117,7 @@
       <c r="G157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="5"/>
+      <c r="A158" s="6"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -2112,7 +2126,7 @@
       <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="5"/>
+      <c r="A159" s="6"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -2121,7 +2135,7 @@
       <c r="G159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="5"/>
+      <c r="A160" s="6"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -2130,7 +2144,7 @@
       <c r="G160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="5"/>
+      <c r="A161" s="6"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -2139,7 +2153,7 @@
       <c r="G161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="5"/>
+      <c r="A162" s="6"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -2148,7 +2162,7 @@
       <c r="G162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="5"/>
+      <c r="A163" s="6"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -2157,7 +2171,7 @@
       <c r="G163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="5"/>
+      <c r="A164" s="6"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -2166,7 +2180,7 @@
       <c r="G164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="5"/>
+      <c r="A165" s="6"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -2175,7 +2189,7 @@
       <c r="G165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="5"/>
+      <c r="A166" s="6"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -2184,7 +2198,7 @@
       <c r="G166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="5"/>
+      <c r="A167" s="6"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -2193,7 +2207,7 @@
       <c r="G167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="5"/>
+      <c r="A168" s="6"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -2202,7 +2216,7 @@
       <c r="G168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="5"/>
+      <c r="A169" s="6"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -2211,7 +2225,7 @@
       <c r="G169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="5"/>
+      <c r="A170" s="6"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -2220,7 +2234,7 @@
       <c r="G170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="5"/>
+      <c r="A171" s="6"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -2229,7 +2243,7 @@
       <c r="G171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="5"/>
+      <c r="A172" s="6"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -2238,7 +2252,7 @@
       <c r="G172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="5"/>
+      <c r="A173" s="6"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -2247,7 +2261,7 @@
       <c r="G173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="5"/>
+      <c r="A174" s="6"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -2256,7 +2270,7 @@
       <c r="G174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="5"/>
+      <c r="A175" s="6"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -2265,7 +2279,7 @@
       <c r="G175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="5"/>
+      <c r="A176" s="6"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -2274,7 +2288,7 @@
       <c r="G176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="5"/>
+      <c r="A177" s="6"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -2283,7 +2297,7 @@
       <c r="G177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="5"/>
+      <c r="A178" s="6"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -2292,7 +2306,7 @@
       <c r="G178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="5"/>
+      <c r="A179" s="6"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -2301,7 +2315,7 @@
       <c r="G179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="5"/>
+      <c r="A180" s="6"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -2310,7 +2324,7 @@
       <c r="G180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="5"/>
+      <c r="A181" s="6"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -2319,7 +2333,7 @@
       <c r="G181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="5"/>
+      <c r="A182" s="6"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -2328,7 +2342,7 @@
       <c r="G182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="5"/>
+      <c r="A183" s="6"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -2337,7 +2351,7 @@
       <c r="G183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="5"/>
+      <c r="A184" s="6"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -2346,7 +2360,7 @@
       <c r="G184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="5"/>
+      <c r="A185" s="6"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -2355,7 +2369,7 @@
       <c r="G185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="5"/>
+      <c r="A186" s="6"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -2364,7 +2378,7 @@
       <c r="G186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="5"/>
+      <c r="A187" s="6"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -2373,7 +2387,7 @@
       <c r="G187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="5"/>
+      <c r="A188" s="6"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -2382,7 +2396,7 @@
       <c r="G188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="5"/>
+      <c r="A189" s="6"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -2391,7 +2405,7 @@
       <c r="G189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="5"/>
+      <c r="A190" s="6"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -2400,7 +2414,7 @@
       <c r="G190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="5"/>
+      <c r="A191" s="6"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -2409,7 +2423,7 @@
       <c r="G191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="5"/>
+      <c r="A192" s="6"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -2418,7 +2432,7 @@
       <c r="G192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="5"/>
+      <c r="A193" s="6"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -2427,7 +2441,7 @@
       <c r="G193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="5"/>
+      <c r="A194" s="6"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -2436,7 +2450,7 @@
       <c r="G194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="5"/>
+      <c r="A195" s="6"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -2445,7 +2459,7 @@
       <c r="G195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="5"/>
+      <c r="A196" s="6"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -2454,7 +2468,7 @@
       <c r="G196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="5"/>
+      <c r="A197" s="6"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -2463,7 +2477,7 @@
       <c r="G197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="5"/>
+      <c r="A198" s="6"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -2472,7 +2486,7 @@
       <c r="G198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="5"/>
+      <c r="A199" s="6"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -2481,7 +2495,7 @@
       <c r="G199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5"/>
+      <c r="A200" s="6"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -2490,7 +2504,7 @@
       <c r="G200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5"/>
+      <c r="A201" s="6"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -2499,7 +2513,7 @@
       <c r="G201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="5"/>
+      <c r="A202" s="6"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -2508,7 +2522,7 @@
       <c r="G202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="5"/>
+      <c r="A203" s="6"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -2517,7 +2531,7 @@
       <c r="G203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="5"/>
+      <c r="A204" s="6"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -2526,7 +2540,7 @@
       <c r="G204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="5"/>
+      <c r="A205" s="6"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -2535,7 +2549,7 @@
       <c r="G205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="5"/>
+      <c r="A206" s="6"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -2544,7 +2558,7 @@
       <c r="G206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5"/>
+      <c r="A207" s="6"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -2553,7 +2567,7 @@
       <c r="G207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="5"/>
+      <c r="A208" s="6"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -2562,7 +2576,7 @@
       <c r="G208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="5"/>
+      <c r="A209" s="6"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -2571,7 +2585,7 @@
       <c r="G209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="5"/>
+      <c r="A210" s="6"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -2580,7 +2594,7 @@
       <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="5"/>
+      <c r="A211" s="6"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -2589,7 +2603,7 @@
       <c r="G211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="5"/>
+      <c r="A212" s="6"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -2598,7 +2612,7 @@
       <c r="G212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="5"/>
+      <c r="A213" s="6"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -2607,7 +2621,7 @@
       <c r="G213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="5"/>
+      <c r="A214" s="6"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -2616,7 +2630,7 @@
       <c r="G214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="5"/>
+      <c r="A215" s="6"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -2625,7 +2639,7 @@
       <c r="G215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="5"/>
+      <c r="A216" s="6"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -2634,7 +2648,7 @@
       <c r="G216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="5"/>
+      <c r="A217" s="6"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -2643,7 +2657,7 @@
       <c r="G217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="5"/>
+      <c r="A218" s="6"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -2652,7 +2666,7 @@
       <c r="G218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="5"/>
+      <c r="A219" s="6"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -2661,7 +2675,7 @@
       <c r="G219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="5"/>
+      <c r="A220" s="6"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -2670,7 +2684,7 @@
       <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="5"/>
+      <c r="A221" s="6"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -2679,7 +2693,7 @@
       <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="5"/>
+      <c r="A222" s="6"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -2688,7 +2702,7 @@
       <c r="G222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="5"/>
+      <c r="A223" s="6"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -2697,7 +2711,7 @@
       <c r="G223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="5"/>
+      <c r="A224" s="6"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -2706,7 +2720,7 @@
       <c r="G224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="5"/>
+      <c r="A225" s="6"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -2715,7 +2729,7 @@
       <c r="G225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="5"/>
+      <c r="A226" s="6"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -2724,7 +2738,7 @@
       <c r="G226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="5"/>
+      <c r="A227" s="6"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -2733,7 +2747,7 @@
       <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="5"/>
+      <c r="A228" s="6"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -2742,7 +2756,7 @@
       <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="5"/>
+      <c r="A229" s="6"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -2751,7 +2765,7 @@
       <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="5"/>
+      <c r="A230" s="6"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2760,7 +2774,7 @@
       <c r="G230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="5"/>
+      <c r="A231" s="6"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2769,7 +2783,7 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="5"/>
+      <c r="A232" s="6"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2778,7 +2792,7 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="5"/>
+      <c r="A233" s="6"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2787,7 +2801,7 @@
       <c r="G233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="5"/>
+      <c r="A234" s="6"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2796,7 +2810,7 @@
       <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="5"/>
+      <c r="A235" s="6"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2805,7 +2819,7 @@
       <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="5"/>
+      <c r="A236" s="6"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2814,7 +2828,7 @@
       <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="5"/>
+      <c r="A237" s="6"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2823,7 +2837,7 @@
       <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="5"/>
+      <c r="A238" s="6"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2832,7 +2846,7 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="5"/>
+      <c r="A239" s="6"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2841,7 +2855,7 @@
       <c r="G239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="5"/>
+      <c r="A240" s="6"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2850,7 +2864,7 @@
       <c r="G240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="5"/>
+      <c r="A241" s="6"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2859,7 +2873,7 @@
       <c r="G241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="5"/>
+      <c r="A242" s="6"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -2868,7 +2882,7 @@
       <c r="G242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="5"/>
+      <c r="A243" s="6"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -2877,7 +2891,7 @@
       <c r="G243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="5"/>
+      <c r="A244" s="6"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -2886,7 +2900,7 @@
       <c r="G244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="5"/>
+      <c r="A245" s="6"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -2895,7 +2909,7 @@
       <c r="G245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="5"/>
+      <c r="A246" s="6"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -2904,7 +2918,7 @@
       <c r="G246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="5"/>
+      <c r="A247" s="6"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -2913,7 +2927,7 @@
       <c r="G247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="5"/>
+      <c r="A248" s="6"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -2922,7 +2936,7 @@
       <c r="G248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="5"/>
+      <c r="A249" s="6"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -2931,7 +2945,7 @@
       <c r="G249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="5"/>
+      <c r="A250" s="6"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -2940,7 +2954,7 @@
       <c r="G250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="5"/>
+      <c r="A251" s="6"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -2949,7 +2963,7 @@
       <c r="G251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="5"/>
+      <c r="A252" s="6"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -2958,7 +2972,7 @@
       <c r="G252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="5"/>
+      <c r="A253" s="6"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -2967,7 +2981,7 @@
       <c r="G253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="5"/>
+      <c r="A254" s="6"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -2976,7 +2990,7 @@
       <c r="G254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="5"/>
+      <c r="A255" s="6"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -2985,7 +2999,7 @@
       <c r="G255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="5"/>
+      <c r="A256" s="6"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -2994,7 +3008,7 @@
       <c r="G256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="5"/>
+      <c r="A257" s="6"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -3003,7 +3017,7 @@
       <c r="G257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="5"/>
+      <c r="A258" s="6"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -3012,7 +3026,7 @@
       <c r="G258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="5"/>
+      <c r="A259" s="6"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -3021,7 +3035,7 @@
       <c r="G259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="5"/>
+      <c r="A260" s="6"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -3030,7 +3044,7 @@
       <c r="G260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="5"/>
+      <c r="A261" s="6"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -3039,7 +3053,7 @@
       <c r="G261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="5"/>
+      <c r="A262" s="6"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -3048,7 +3062,7 @@
       <c r="G262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="5"/>
+      <c r="A263" s="6"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -3057,7 +3071,7 @@
       <c r="G263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="5"/>
+      <c r="A264" s="6"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -3066,7 +3080,7 @@
       <c r="G264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="5"/>
+      <c r="A265" s="6"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -3075,7 +3089,7 @@
       <c r="G265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="5"/>
+      <c r="A266" s="6"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -3084,7 +3098,7 @@
       <c r="G266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="5"/>
+      <c r="A267" s="6"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -3093,7 +3107,7 @@
       <c r="G267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5"/>
+      <c r="A268" s="6"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -3102,7 +3116,7 @@
       <c r="G268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="5"/>
+      <c r="A269" s="6"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -3111,7 +3125,7 @@
       <c r="G269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="5"/>
+      <c r="A270" s="6"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -3120,7 +3134,7 @@
       <c r="G270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="5"/>
+      <c r="A271" s="6"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -3129,7 +3143,7 @@
       <c r="G271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="5"/>
+      <c r="A272" s="6"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -3138,7 +3152,7 @@
       <c r="G272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="5"/>
+      <c r="A273" s="6"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -3147,7 +3161,7 @@
       <c r="G273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="5"/>
+      <c r="A274" s="6"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -3156,7 +3170,7 @@
       <c r="G274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="5"/>
+      <c r="A275" s="6"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -3165,7 +3179,7 @@
       <c r="G275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="5"/>
+      <c r="A276" s="6"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -3174,7 +3188,7 @@
       <c r="G276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="5"/>
+      <c r="A277" s="6"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -3183,7 +3197,7 @@
       <c r="G277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="5"/>
+      <c r="A278" s="6"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -3192,7 +3206,7 @@
       <c r="G278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="5"/>
+      <c r="A279" s="6"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -3201,7 +3215,7 @@
       <c r="G279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="5"/>
+      <c r="A280" s="6"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -3210,7 +3224,7 @@
       <c r="G280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="5"/>
+      <c r="A281" s="6"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -3219,7 +3233,7 @@
       <c r="G281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="5"/>
+      <c r="A282" s="6"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -3228,7 +3242,7 @@
       <c r="G282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="5"/>
+      <c r="A283" s="6"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -3237,7 +3251,7 @@
       <c r="G283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="5"/>
+      <c r="A284" s="6"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -3246,7 +3260,7 @@
       <c r="G284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="5"/>
+      <c r="A285" s="6"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -3255,7 +3269,7 @@
       <c r="G285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="5"/>
+      <c r="A286" s="6"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -3264,7 +3278,7 @@
       <c r="G286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="5"/>
+      <c r="A287" s="6"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -3273,7 +3287,7 @@
       <c r="G287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="5"/>
+      <c r="A288" s="6"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -3282,7 +3296,7 @@
       <c r="G288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="5"/>
+      <c r="A289" s="6"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -3291,7 +3305,7 @@
       <c r="G289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="5"/>
+      <c r="A290" s="6"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -3300,7 +3314,7 @@
       <c r="G290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="5"/>
+      <c r="A291" s="6"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -3309,7 +3323,7 @@
       <c r="G291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="5"/>
+      <c r="A292" s="6"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -3318,7 +3332,7 @@
       <c r="G292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="5"/>
+      <c r="A293" s="6"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -3327,7 +3341,7 @@
       <c r="G293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="5"/>
+      <c r="A294" s="6"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -3336,7 +3350,7 @@
       <c r="G294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="5"/>
+      <c r="A295" s="6"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -3345,7 +3359,7 @@
       <c r="G295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="5"/>
+      <c r="A296" s="6"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -3354,7 +3368,7 @@
       <c r="G296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="5"/>
+      <c r="A297" s="6"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -3363,7 +3377,7 @@
       <c r="G297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="5"/>
+      <c r="A298" s="6"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -3372,7 +3386,7 @@
       <c r="G298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="5"/>
+      <c r="A299" s="6"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -3381,7 +3395,7 @@
       <c r="G299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="5"/>
+      <c r="A300" s="6"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -3390,7 +3404,7 @@
       <c r="G300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="5"/>
+      <c r="A301" s="6"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -3399,7 +3413,7 @@
       <c r="G301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="5"/>
+      <c r="A302" s="6"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -3408,7 +3422,7 @@
       <c r="G302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="5"/>
+      <c r="A303" s="6"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -3417,7 +3431,7 @@
       <c r="G303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="5"/>
+      <c r="A304" s="6"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -3426,7 +3440,7 @@
       <c r="G304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="5"/>
+      <c r="A305" s="6"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -3435,7 +3449,7 @@
       <c r="G305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="5"/>
+      <c r="A306" s="6"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -3444,7 +3458,7 @@
       <c r="G306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="5"/>
+      <c r="A307" s="6"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -3453,7 +3467,7 @@
       <c r="G307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="5"/>
+      <c r="A308" s="6"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -3462,7 +3476,7 @@
       <c r="G308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="5"/>
+      <c r="A309" s="6"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -3471,7 +3485,7 @@
       <c r="G309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="5"/>
+      <c r="A310" s="6"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -3480,7 +3494,7 @@
       <c r="G310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="5"/>
+      <c r="A311" s="6"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -3489,7 +3503,7 @@
       <c r="G311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="5"/>
+      <c r="A312" s="6"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -3498,7 +3512,7 @@
       <c r="G312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="5"/>
+      <c r="A313" s="6"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -3507,7 +3521,7 @@
       <c r="G313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="5"/>
+      <c r="A314" s="6"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -3516,7 +3530,7 @@
       <c r="G314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="5"/>
+      <c r="A315" s="6"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -3525,7 +3539,7 @@
       <c r="G315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="5"/>
+      <c r="A316" s="6"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -3534,7 +3548,7 @@
       <c r="G316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="5"/>
+      <c r="A317" s="6"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -3543,7 +3557,7 @@
       <c r="G317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="5"/>
+      <c r="A318" s="6"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -3552,7 +3566,7 @@
       <c r="G318" s="4"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="5"/>
+      <c r="A319" s="6"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -3561,7 +3575,7 @@
       <c r="G319" s="4"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="5"/>
+      <c r="A320" s="6"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -3570,7 +3584,7 @@
       <c r="G320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="5"/>
+      <c r="A321" s="6"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -3579,7 +3593,7 @@
       <c r="G321" s="4"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="5"/>
+      <c r="A322" s="6"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -3588,7 +3602,7 @@
       <c r="G322" s="4"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="5"/>
+      <c r="A323" s="6"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -3597,7 +3611,7 @@
       <c r="G323" s="4"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="5"/>
+      <c r="A324" s="6"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -3606,7 +3620,7 @@
       <c r="G324" s="4"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="5"/>
+      <c r="A325" s="6"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -3615,7 +3629,7 @@
       <c r="G325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="5"/>
+      <c r="A326" s="6"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -3624,7 +3638,7 @@
       <c r="G326" s="4"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="5"/>
+      <c r="A327" s="6"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -3633,7 +3647,7 @@
       <c r="G327" s="4"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="5"/>
+      <c r="A328" s="6"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -3642,7 +3656,7 @@
       <c r="G328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="5"/>
+      <c r="A329" s="6"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -3651,7 +3665,7 @@
       <c r="G329" s="4"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="5"/>
+      <c r="A330" s="6"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -3660,7 +3674,7 @@
       <c r="G330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="5"/>
+      <c r="A331" s="6"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -3669,7 +3683,7 @@
       <c r="G331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="5"/>
+      <c r="A332" s="6"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -3678,7 +3692,7 @@
       <c r="G332" s="4"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="5"/>
+      <c r="A333" s="6"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -3687,7 +3701,7 @@
       <c r="G333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="5"/>
+      <c r="A334" s="6"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -3696,7 +3710,7 @@
       <c r="G334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="5"/>
+      <c r="A335" s="6"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -3705,7 +3719,7 @@
       <c r="G335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="5"/>
+      <c r="A336" s="6"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -3714,7 +3728,7 @@
       <c r="G336" s="4"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="5"/>
+      <c r="A337" s="6"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -3723,7 +3737,7 @@
       <c r="G337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="5"/>
+      <c r="A338" s="6"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -3732,7 +3746,7 @@
       <c r="G338" s="4"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="5"/>
+      <c r="A339" s="6"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -3741,7 +3755,7 @@
       <c r="G339" s="4"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="5"/>
+      <c r="A340" s="6"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -3750,7 +3764,7 @@
       <c r="G340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="5"/>
+      <c r="A341" s="6"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -3759,7 +3773,7 @@
       <c r="G341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="5"/>
+      <c r="A342" s="6"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -3768,7 +3782,7 @@
       <c r="G342" s="4"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="5"/>
+      <c r="A343" s="6"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -3777,7 +3791,7 @@
       <c r="G343" s="4"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="5"/>
+      <c r="A344" s="6"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -3786,7 +3800,7 @@
       <c r="G344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="5"/>
+      <c r="A345" s="6"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -3795,7 +3809,7 @@
       <c r="G345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="5"/>
+      <c r="A346" s="6"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -3804,7 +3818,7 @@
       <c r="G346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="5"/>
+      <c r="A347" s="6"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -3813,7 +3827,7 @@
       <c r="G347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="5"/>
+      <c r="A348" s="6"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -3822,7 +3836,7 @@
       <c r="G348" s="4"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="5"/>
+      <c r="A349" s="6"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -3831,7 +3845,7 @@
       <c r="G349" s="4"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="5"/>
+      <c r="A350" s="6"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -3840,7 +3854,7 @@
       <c r="G350" s="4"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="5"/>
+      <c r="A351" s="6"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -3849,7 +3863,7 @@
       <c r="G351" s="4"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="5"/>
+      <c r="A352" s="6"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -3858,7 +3872,7 @@
       <c r="G352" s="4"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="5"/>
+      <c r="A353" s="6"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -3867,7 +3881,7 @@
       <c r="G353" s="4"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="5"/>
+      <c r="A354" s="6"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -3876,7 +3890,7 @@
       <c r="G354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="5"/>
+      <c r="A355" s="6"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -3885,7 +3899,7 @@
       <c r="G355" s="4"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="5"/>
+      <c r="A356" s="6"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -3894,7 +3908,7 @@
       <c r="G356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="5"/>
+      <c r="A357" s="6"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -3903,7 +3917,7 @@
       <c r="G357" s="4"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="5"/>
+      <c r="A358" s="6"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -3912,7 +3926,7 @@
       <c r="G358" s="4"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="5"/>
+      <c r="A359" s="6"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -3921,7 +3935,7 @@
       <c r="G359" s="4"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="5"/>
+      <c r="A360" s="6"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -3930,7 +3944,7 @@
       <c r="G360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="5"/>
+      <c r="A361" s="6"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -3939,7 +3953,7 @@
       <c r="G361" s="4"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="5"/>
+      <c r="A362" s="6"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -3948,7 +3962,7 @@
       <c r="G362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="5"/>
+      <c r="A363" s="6"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -3957,7 +3971,7 @@
       <c r="G363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="5"/>
+      <c r="A364" s="6"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -3966,7 +3980,7 @@
       <c r="G364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="5"/>
+      <c r="A365" s="6"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -3975,7 +3989,7 @@
       <c r="G365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="5"/>
+      <c r="A366" s="6"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -3984,7 +3998,7 @@
       <c r="G366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="5"/>
+      <c r="A367" s="6"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -3993,7 +4007,7 @@
       <c r="G367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="5"/>
+      <c r="A368" s="6"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -4002,7 +4016,7 @@
       <c r="G368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="5"/>
+      <c r="A369" s="6"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -4011,7 +4025,7 @@
       <c r="G369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="5"/>
+      <c r="A370" s="6"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -4020,7 +4034,7 @@
       <c r="G370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="5"/>
+      <c r="A371" s="6"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -4029,7 +4043,7 @@
       <c r="G371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="5"/>
+      <c r="A372" s="6"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -4038,7 +4052,7 @@
       <c r="G372" s="4"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="5"/>
+      <c r="A373" s="6"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -4047,7 +4061,7 @@
       <c r="G373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="5"/>
+      <c r="A374" s="6"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -4056,7 +4070,7 @@
       <c r="G374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="5"/>
+      <c r="A375" s="6"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -4065,7 +4079,7 @@
       <c r="G375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="5"/>
+      <c r="A376" s="6"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -4074,7 +4088,7 @@
       <c r="G376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="5"/>
+      <c r="A377" s="6"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -4083,7 +4097,7 @@
       <c r="G377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="5"/>
+      <c r="A378" s="6"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -4092,7 +4106,7 @@
       <c r="G378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="5"/>
+      <c r="A379" s="6"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -4101,7 +4115,7 @@
       <c r="G379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="5"/>
+      <c r="A380" s="6"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -4110,7 +4124,7 @@
       <c r="G380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="5"/>
+      <c r="A381" s="6"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -4119,7 +4133,7 @@
       <c r="G381" s="4"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="5"/>
+      <c r="A382" s="6"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -4128,7 +4142,7 @@
       <c r="G382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="5"/>
+      <c r="A383" s="6"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -4137,7 +4151,7 @@
       <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="5"/>
+      <c r="A384" s="6"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -4146,7 +4160,7 @@
       <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="5"/>
+      <c r="A385" s="6"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -4155,7 +4169,7 @@
       <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="5"/>
+      <c r="A386" s="6"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -4164,7 +4178,7 @@
       <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="5"/>
+      <c r="A387" s="6"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -4173,7 +4187,7 @@
       <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="5"/>
+      <c r="A388" s="6"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -4182,7 +4196,7 @@
       <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="5"/>
+      <c r="A389" s="6"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -4191,7 +4205,7 @@
       <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="5"/>
+      <c r="A390" s="6"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -4200,7 +4214,7 @@
       <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="5"/>
+      <c r="A391" s="6"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -4209,7 +4223,7 @@
       <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="5"/>
+      <c r="A392" s="6"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -4218,7 +4232,7 @@
       <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="5"/>
+      <c r="A393" s="6"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -4227,7 +4241,7 @@
       <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="5"/>
+      <c r="A394" s="6"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -4236,7 +4250,7 @@
       <c r="G394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="5"/>
+      <c r="A395" s="6"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -4245,7 +4259,7 @@
       <c r="G395" s="4"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="5"/>
+      <c r="A396" s="6"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -4254,7 +4268,7 @@
       <c r="G396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="5"/>
+      <c r="A397" s="6"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -4263,7 +4277,7 @@
       <c r="G397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="5"/>
+      <c r="A398" s="6"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -4272,7 +4286,7 @@
       <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="5"/>
+      <c r="A399" s="6"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -4281,7 +4295,7 @@
       <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="5"/>
+      <c r="A400" s="6"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -4290,7 +4304,7 @@
       <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="5"/>
+      <c r="A401" s="6"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -4299,7 +4313,7 @@
       <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="5"/>
+      <c r="A402" s="6"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -4308,7 +4322,7 @@
       <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="5"/>
+      <c r="A403" s="6"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -4317,7 +4331,7 @@
       <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="5"/>
+      <c r="A404" s="6"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -4326,7 +4340,7 @@
       <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="5"/>
+      <c r="A405" s="6"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -4335,7 +4349,7 @@
       <c r="G405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="5"/>
+      <c r="A406" s="6"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -4344,7 +4358,7 @@
       <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="5"/>
+      <c r="A407" s="6"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -4353,7 +4367,7 @@
       <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="5"/>
+      <c r="A408" s="6"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -4362,7 +4376,7 @@
       <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="5"/>
+      <c r="A409" s="6"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -4371,7 +4385,7 @@
       <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="5"/>
+      <c r="A410" s="6"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -4380,7 +4394,7 @@
       <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="5"/>
+      <c r="A411" s="6"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -4389,7 +4403,7 @@
       <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="5"/>
+      <c r="A412" s="6"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -4398,7 +4412,7 @@
       <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="5"/>
+      <c r="A413" s="6"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -4407,7 +4421,7 @@
       <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="5"/>
+      <c r="A414" s="6"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -4416,7 +4430,7 @@
       <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="5"/>
+      <c r="A415" s="6"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -4425,7 +4439,7 @@
       <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="5"/>
+      <c r="A416" s="6"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -4434,7 +4448,7 @@
       <c r="G416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="5"/>
+      <c r="A417" s="6"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -4443,7 +4457,7 @@
       <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="5"/>
+      <c r="A418" s="6"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -4452,7 +4466,7 @@
       <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="5"/>
+      <c r="A419" s="6"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -4461,7 +4475,7 @@
       <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="5"/>
+      <c r="A420" s="6"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -4470,7 +4484,7 @@
       <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="5"/>
+      <c r="A421" s="6"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -4479,7 +4493,7 @@
       <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="5"/>
+      <c r="A422" s="6"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -4488,7 +4502,7 @@
       <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="5"/>
+      <c r="A423" s="6"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -4497,7 +4511,7 @@
       <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="5"/>
+      <c r="A424" s="6"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -4506,7 +4520,7 @@
       <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="5"/>
+      <c r="A425" s="6"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -4515,7 +4529,7 @@
       <c r="G425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="5"/>
+      <c r="A426" s="6"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -4524,7 +4538,7 @@
       <c r="G426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="5"/>
+      <c r="A427" s="6"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -4533,7 +4547,7 @@
       <c r="G427" s="4"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="5"/>
+      <c r="A428" s="6"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -4542,7 +4556,7 @@
       <c r="G428" s="4"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="5"/>
+      <c r="A429" s="6"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -4551,7 +4565,7 @@
       <c r="G429" s="4"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="5"/>
+      <c r="A430" s="6"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -4560,7 +4574,7 @@
       <c r="G430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="5"/>
+      <c r="A431" s="6"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -4569,7 +4583,7 @@
       <c r="G431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="5"/>
+      <c r="A432" s="6"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -4578,7 +4592,7 @@
       <c r="G432" s="4"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="5"/>
+      <c r="A433" s="6"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -4587,7 +4601,7 @@
       <c r="G433" s="4"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="5"/>
+      <c r="A434" s="6"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -4596,7 +4610,7 @@
       <c r="G434" s="4"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="5"/>
+      <c r="A435" s="6"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -4605,7 +4619,7 @@
       <c r="G435" s="4"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="5"/>
+      <c r="A436" s="6"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -4614,7 +4628,7 @@
       <c r="G436" s="4"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="5"/>
+      <c r="A437" s="6"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -4623,7 +4637,7 @@
       <c r="G437" s="4"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="5"/>
+      <c r="A438" s="6"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -4632,7 +4646,7 @@
       <c r="G438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="5"/>
+      <c r="A439" s="6"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -4641,7 +4655,7 @@
       <c r="G439" s="4"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="5"/>
+      <c r="A440" s="6"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -4650,7 +4664,7 @@
       <c r="G440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="5"/>
+      <c r="A441" s="6"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -4659,7 +4673,7 @@
       <c r="G441" s="4"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="5"/>
+      <c r="A442" s="6"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4668,7 +4682,7 @@
       <c r="G442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="5"/>
+      <c r="A443" s="6"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4677,7 +4691,7 @@
       <c r="G443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="5"/>
+      <c r="A444" s="6"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -4686,7 +4700,7 @@
       <c r="G444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="5"/>
+      <c r="A445" s="6"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4695,7 +4709,7 @@
       <c r="G445" s="4"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="5"/>
+      <c r="A446" s="6"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4704,7 +4718,7 @@
       <c r="G446" s="4"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="5"/>
+      <c r="A447" s="6"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -4713,7 +4727,7 @@
       <c r="G447" s="4"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="5"/>
+      <c r="A448" s="6"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -4722,7 +4736,7 @@
       <c r="G448" s="4"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="5"/>
+      <c r="A449" s="6"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -4731,7 +4745,7 @@
       <c r="G449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="5"/>
+      <c r="A450" s="6"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -4740,7 +4754,7 @@
       <c r="G450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="5"/>
+      <c r="A451" s="6"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -4749,7 +4763,7 @@
       <c r="G451" s="4"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="5"/>
+      <c r="A452" s="6"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -4758,7 +4772,7 @@
       <c r="G452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="5"/>
+      <c r="A453" s="6"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -4767,7 +4781,7 @@
       <c r="G453" s="4"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="5"/>
+      <c r="A454" s="6"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -4776,7 +4790,7 @@
       <c r="G454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="5"/>
+      <c r="A455" s="6"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -4785,7 +4799,7 @@
       <c r="G455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="5"/>
+      <c r="A456" s="6"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -4794,7 +4808,7 @@
       <c r="G456" s="4"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="5"/>
+      <c r="A457" s="6"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -4803,7 +4817,7 @@
       <c r="G457" s="4"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="5"/>
+      <c r="A458" s="6"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -4812,7 +4826,7 @@
       <c r="G458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="5"/>
+      <c r="A459" s="6"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -4821,7 +4835,7 @@
       <c r="G459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="5"/>
+      <c r="A460" s="6"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -4830,7 +4844,7 @@
       <c r="G460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="5"/>
+      <c r="A461" s="6"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -4839,7 +4853,7 @@
       <c r="G461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="5"/>
+      <c r="A462" s="6"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -4848,7 +4862,7 @@
       <c r="G462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="5"/>
+      <c r="A463" s="6"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -4857,7 +4871,7 @@
       <c r="G463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="5"/>
+      <c r="A464" s="6"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -4866,7 +4880,7 @@
       <c r="G464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="5"/>
+      <c r="A465" s="6"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -4875,7 +4889,7 @@
       <c r="G465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="5"/>
+      <c r="A466" s="6"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4884,7 +4898,7 @@
       <c r="G466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="5"/>
+      <c r="A467" s="6"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -4893,7 +4907,7 @@
       <c r="G467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="5"/>
+      <c r="A468" s="6"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -4902,7 +4916,7 @@
       <c r="G468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="5"/>
+      <c r="A469" s="6"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -4911,7 +4925,7 @@
       <c r="G469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="5"/>
+      <c r="A470" s="6"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -4920,7 +4934,7 @@
       <c r="G470" s="4"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="5"/>
+      <c r="A471" s="6"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -4929,7 +4943,7 @@
       <c r="G471" s="4"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="5"/>
+      <c r="A472" s="6"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -4938,7 +4952,7 @@
       <c r="G472" s="4"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="5"/>
+      <c r="A473" s="6"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -4947,7 +4961,7 @@
       <c r="G473" s="4"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="5"/>
+      <c r="A474" s="6"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -4956,7 +4970,7 @@
       <c r="G474" s="4"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="5"/>
+      <c r="A475" s="6"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -4965,7 +4979,7 @@
       <c r="G475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="5"/>
+      <c r="A476" s="6"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -4974,7 +4988,7 @@
       <c r="G476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="5"/>
+      <c r="A477" s="6"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -4983,7 +4997,7 @@
       <c r="G477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="5"/>
+      <c r="A478" s="6"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -4992,7 +5006,7 @@
       <c r="G478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="5"/>
+      <c r="A479" s="6"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -5001,7 +5015,7 @@
       <c r="G479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="5"/>
+      <c r="A480" s="6"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -5010,7 +5024,7 @@
       <c r="G480" s="4"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="5"/>
+      <c r="A481" s="6"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -5019,7 +5033,7 @@
       <c r="G481" s="4"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="5"/>
+      <c r="A482" s="6"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -5028,7 +5042,7 @@
       <c r="G482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="5"/>
+      <c r="A483" s="6"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -5037,7 +5051,7 @@
       <c r="G483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="5"/>
+      <c r="A484" s="6"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -5046,7 +5060,7 @@
       <c r="G484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="5"/>
+      <c r="A485" s="6"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -5055,7 +5069,7 @@
       <c r="G485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="5"/>
+      <c r="A486" s="6"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -5064,7 +5078,7 @@
       <c r="G486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="5"/>
+      <c r="A487" s="6"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -5073,7 +5087,7 @@
       <c r="G487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="5"/>
+      <c r="A488" s="6"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -5082,7 +5096,7 @@
       <c r="G488" s="4"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="5"/>
+      <c r="A489" s="6"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -5091,7 +5105,7 @@
       <c r="G489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="5"/>
+      <c r="A490" s="6"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -5100,7 +5114,7 @@
       <c r="G490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="5"/>
+      <c r="A491" s="6"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -5109,7 +5123,7 @@
       <c r="G491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="5"/>
+      <c r="A492" s="6"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -5118,7 +5132,7 @@
       <c r="G492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="5"/>
+      <c r="A493" s="6"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -5127,7 +5141,7 @@
       <c r="G493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="5"/>
+      <c r="A494" s="6"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -5136,7 +5150,7 @@
       <c r="G494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="5"/>
+      <c r="A495" s="6"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -5145,7 +5159,7 @@
       <c r="G495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="5"/>
+      <c r="A496" s="6"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -5154,7 +5168,7 @@
       <c r="G496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="5"/>
+      <c r="A497" s="6"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -5163,7 +5177,7 @@
       <c r="G497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="5"/>
+      <c r="A498" s="6"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -5172,7 +5186,7 @@
       <c r="G498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="5"/>
+      <c r="A499" s="6"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -5181,7 +5195,7 @@
       <c r="G499" s="4"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="5"/>
+      <c r="A500" s="6"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -5190,7 +5204,7 @@
       <c r="G500" s="4"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="5"/>
+      <c r="A501" s="6"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -5199,7 +5213,7 @@
       <c r="G501" s="4"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="5"/>
+      <c r="A502" s="6"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -5208,7 +5222,7 @@
       <c r="G502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="5"/>
+      <c r="A503" s="6"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -5217,7 +5231,7 @@
       <c r="G503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="5"/>
+      <c r="A504" s="6"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -5226,7 +5240,7 @@
       <c r="G504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="5"/>
+      <c r="A505" s="6"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -5235,7 +5249,7 @@
       <c r="G505" s="4"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="5"/>
+      <c r="A506" s="6"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -5244,7 +5258,7 @@
       <c r="G506" s="4"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="5"/>
+      <c r="A507" s="6"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -5253,7 +5267,7 @@
       <c r="G507" s="4"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="5"/>
+      <c r="A508" s="6"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -5262,7 +5276,7 @@
       <c r="G508" s="4"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="5"/>
+      <c r="A509" s="6"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -5271,7 +5285,7 @@
       <c r="G509" s="4"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="5"/>
+      <c r="A510" s="6"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -5280,7 +5294,7 @@
       <c r="G510" s="4"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="5"/>
+      <c r="A511" s="6"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -5289,7 +5303,7 @@
       <c r="G511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="5"/>
+      <c r="A512" s="6"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -5298,7 +5312,7 @@
       <c r="G512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="5"/>
+      <c r="A513" s="6"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -5307,7 +5321,7 @@
       <c r="G513" s="4"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="5"/>
+      <c r="A514" s="6"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -5316,7 +5330,7 @@
       <c r="G514" s="4"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="5"/>
+      <c r="A515" s="6"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -5325,7 +5339,7 @@
       <c r="G515" s="4"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="5"/>
+      <c r="A516" s="6"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -5334,7 +5348,7 @@
       <c r="G516" s="4"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="5"/>
+      <c r="A517" s="6"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -5343,7 +5357,7 @@
       <c r="G517" s="4"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="5"/>
+      <c r="A518" s="6"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -5352,7 +5366,7 @@
       <c r="G518" s="4"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="5"/>
+      <c r="A519" s="6"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -5361,7 +5375,7 @@
       <c r="G519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="5"/>
+      <c r="A520" s="6"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -5370,7 +5384,7 @@
       <c r="G520" s="4"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="5"/>
+      <c r="A521" s="6"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -5379,7 +5393,7 @@
       <c r="G521" s="4"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="5"/>
+      <c r="A522" s="6"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -5388,7 +5402,7 @@
       <c r="G522" s="4"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="5"/>
+      <c r="A523" s="6"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -5397,7 +5411,7 @@
       <c r="G523" s="4"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="5"/>
+      <c r="A524" s="6"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -5406,7 +5420,7 @@
       <c r="G524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="5"/>
+      <c r="A525" s="6"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -5415,7 +5429,7 @@
       <c r="G525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="5"/>
+      <c r="A526" s="6"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -5424,7 +5438,7 @@
       <c r="G526" s="4"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="5"/>
+      <c r="A527" s="6"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -5433,7 +5447,7 @@
       <c r="G527" s="4"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="5"/>
+      <c r="A528" s="6"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -5442,7 +5456,7 @@
       <c r="G528" s="4"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="5"/>
+      <c r="A529" s="6"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -5451,7 +5465,7 @@
       <c r="G529" s="4"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="5"/>
+      <c r="A530" s="6"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -5460,7 +5474,7 @@
       <c r="G530" s="4"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="5"/>
+      <c r="A531" s="6"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -5469,7 +5483,7 @@
       <c r="G531" s="4"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="5"/>
+      <c r="A532" s="6"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -5478,7 +5492,7 @@
       <c r="G532" s="4"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="5"/>
+      <c r="A533" s="6"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -5487,7 +5501,7 @@
       <c r="G533" s="4"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="5"/>
+      <c r="A534" s="6"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -5496,7 +5510,7 @@
       <c r="G534" s="4"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="5"/>
+      <c r="A535" s="6"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -5505,7 +5519,7 @@
       <c r="G535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="5"/>
+      <c r="A536" s="6"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -5514,7 +5528,7 @@
       <c r="G536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="5"/>
+      <c r="A537" s="6"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -5523,7 +5537,7 @@
       <c r="G537" s="4"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="5"/>
+      <c r="A538" s="6"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -5532,7 +5546,7 @@
       <c r="G538" s="4"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="5"/>
+      <c r="A539" s="6"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -5541,7 +5555,7 @@
       <c r="G539" s="4"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="5"/>
+      <c r="A540" s="6"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -5550,7 +5564,7 @@
       <c r="G540" s="4"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="5"/>
+      <c r="A541" s="6"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -5559,7 +5573,7 @@
       <c r="G541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="5"/>
+      <c r="A542" s="6"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -5568,7 +5582,7 @@
       <c r="G542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="5"/>
+      <c r="A543" s="6"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -5577,7 +5591,7 @@
       <c r="G543" s="4"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="5"/>
+      <c r="A544" s="6"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -5586,7 +5600,7 @@
       <c r="G544" s="4"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="5"/>
+      <c r="A545" s="6"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -5595,7 +5609,7 @@
       <c r="G545" s="4"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="5"/>
+      <c r="A546" s="6"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -5604,7 +5618,7 @@
       <c r="G546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="5"/>
+      <c r="A547" s="6"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -5613,7 +5627,7 @@
       <c r="G547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="5"/>
+      <c r="A548" s="6"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -5622,7 +5636,7 @@
       <c r="G548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="5"/>
+      <c r="A549" s="6"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -5631,7 +5645,7 @@
       <c r="G549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="5"/>
+      <c r="A550" s="6"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -5640,7 +5654,7 @@
       <c r="G550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="5"/>
+      <c r="A551" s="6"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -5649,7 +5663,7 @@
       <c r="G551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="5"/>
+      <c r="A552" s="6"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -5658,7 +5672,7 @@
       <c r="G552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="5"/>
+      <c r="A553" s="6"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -5667,7 +5681,7 @@
       <c r="G553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="5"/>
+      <c r="A554" s="6"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -5676,7 +5690,7 @@
       <c r="G554" s="4"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="5"/>
+      <c r="A555" s="6"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -5685,7 +5699,7 @@
       <c r="G555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="5"/>
+      <c r="A556" s="6"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -5694,7 +5708,7 @@
       <c r="G556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="5"/>
+      <c r="A557" s="6"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -5703,7 +5717,7 @@
       <c r="G557" s="4"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="5"/>
+      <c r="A558" s="6"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -5712,7 +5726,7 @@
       <c r="G558" s="4"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="5"/>
+      <c r="A559" s="6"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -5721,7 +5735,7 @@
       <c r="G559" s="4"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="5"/>
+      <c r="A560" s="6"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -5730,7 +5744,7 @@
       <c r="G560" s="4"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="5"/>
+      <c r="A561" s="6"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -5739,7 +5753,7 @@
       <c r="G561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="5"/>
+      <c r="A562" s="6"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -5748,7 +5762,7 @@
       <c r="G562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="5"/>
+      <c r="A563" s="6"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -5757,7 +5771,7 @@
       <c r="G563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="5"/>
+      <c r="A564" s="6"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -5766,7 +5780,7 @@
       <c r="G564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="5"/>
+      <c r="A565" s="6"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -5775,7 +5789,7 @@
       <c r="G565" s="4"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="5"/>
+      <c r="A566" s="6"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -5784,7 +5798,7 @@
       <c r="G566" s="4"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="5"/>
+      <c r="A567" s="6"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -5793,7 +5807,7 @@
       <c r="G567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="5"/>
+      <c r="A568" s="6"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -5802,7 +5816,7 @@
       <c r="G568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="5"/>
+      <c r="A569" s="6"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -5811,7 +5825,7 @@
       <c r="G569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="5"/>
+      <c r="A570" s="6"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -5820,7 +5834,7 @@
       <c r="G570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="5"/>
+      <c r="A571" s="6"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -5829,7 +5843,7 @@
       <c r="G571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="5"/>
+      <c r="A572" s="6"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -5838,7 +5852,7 @@
       <c r="G572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="5"/>
+      <c r="A573" s="6"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -5847,7 +5861,7 @@
       <c r="G573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="5"/>
+      <c r="A574" s="6"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -5856,7 +5870,7 @@
       <c r="G574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="5"/>
+      <c r="A575" s="6"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -5865,7 +5879,7 @@
       <c r="G575" s="4"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="5"/>
+      <c r="A576" s="6"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -5874,7 +5888,7 @@
       <c r="G576" s="4"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="5"/>
+      <c r="A577" s="6"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5883,7 +5897,7 @@
       <c r="G577" s="4"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="5"/>
+      <c r="A578" s="6"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -5892,7 +5906,7 @@
       <c r="G578" s="4"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="5"/>
+      <c r="A579" s="6"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5901,7 +5915,7 @@
       <c r="G579" s="4"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="5"/>
+      <c r="A580" s="6"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -5910,7 +5924,7 @@
       <c r="G580" s="4"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="5"/>
+      <c r="A581" s="6"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -5919,7 +5933,7 @@
       <c r="G581" s="4"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="5"/>
+      <c r="A582" s="6"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -5928,7 +5942,7 @@
       <c r="G582" s="4"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="5"/>
+      <c r="A583" s="6"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -5937,7 +5951,7 @@
       <c r="G583" s="4"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="5"/>
+      <c r="A584" s="6"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -5946,7 +5960,7 @@
       <c r="G584" s="4"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="5"/>
+      <c r="A585" s="6"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -5955,7 +5969,7 @@
       <c r="G585" s="4"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="5"/>
+      <c r="A586" s="6"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -5964,7 +5978,7 @@
       <c r="G586" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="5"/>
+      <c r="A587" s="6"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -5973,7 +5987,7 @@
       <c r="G587" s="4"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="5"/>
+      <c r="A588" s="6"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -5982,7 +5996,7 @@
       <c r="G588" s="4"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="5"/>
+      <c r="A589" s="6"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -5991,7 +6005,7 @@
       <c r="G589" s="4"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="5"/>
+      <c r="A590" s="6"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -6000,7 +6014,7 @@
       <c r="G590" s="4"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="5"/>
+      <c r="A591" s="6"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -6009,7 +6023,7 @@
       <c r="G591" s="4"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="5"/>
+      <c r="A592" s="6"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -6018,7 +6032,7 @@
       <c r="G592" s="4"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="5"/>
+      <c r="A593" s="6"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -6027,7 +6041,7 @@
       <c r="G593" s="4"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="5"/>
+      <c r="A594" s="6"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -6036,7 +6050,7 @@
       <c r="G594" s="4"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="5"/>
+      <c r="A595" s="6"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -6045,7 +6059,7 @@
       <c r="G595" s="4"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="5"/>
+      <c r="A596" s="6"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -6054,7 +6068,7 @@
       <c r="G596" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="5"/>
+      <c r="A597" s="6"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -6063,7 +6077,7 @@
       <c r="G597" s="4"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="5"/>
+      <c r="A598" s="6"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -6072,7 +6086,7 @@
       <c r="G598" s="4"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="5"/>
+      <c r="A599" s="6"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -6081,7 +6095,7 @@
       <c r="G599" s="4"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="5"/>
+      <c r="A600" s="6"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -6090,7 +6104,7 @@
       <c r="G600" s="4"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="5"/>
+      <c r="A601" s="6"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -6099,7 +6113,7 @@
       <c r="G601" s="4"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="5"/>
+      <c r="A602" s="6"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -6108,7 +6122,7 @@
       <c r="G602" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="5"/>
+      <c r="A603" s="6"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -6117,7 +6131,7 @@
       <c r="G603" s="4"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="5"/>
+      <c r="A604" s="6"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -6126,7 +6140,7 @@
       <c r="G604" s="4"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="5"/>
+      <c r="A605" s="6"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -6135,7 +6149,7 @@
       <c r="G605" s="4"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="5"/>
+      <c r="A606" s="6"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -6144,7 +6158,7 @@
       <c r="G606" s="4"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="5"/>
+      <c r="A607" s="6"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -6153,7 +6167,7 @@
       <c r="G607" s="4"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="5"/>
+      <c r="A608" s="6"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -6162,7 +6176,7 @@
       <c r="G608" s="4"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="5"/>
+      <c r="A609" s="6"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -6171,7 +6185,7 @@
       <c r="G609" s="4"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="5"/>
+      <c r="A610" s="6"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -6180,7 +6194,7 @@
       <c r="G610" s="4"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="5"/>
+      <c r="A611" s="6"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -6189,7 +6203,7 @@
       <c r="G611" s="4"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="5"/>
+      <c r="A612" s="6"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -6198,7 +6212,7 @@
       <c r="G612" s="4"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="5"/>
+      <c r="A613" s="6"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -6207,7 +6221,7 @@
       <c r="G613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="5"/>
+      <c r="A614" s="6"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -6216,7 +6230,7 @@
       <c r="G614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="5"/>
+      <c r="A615" s="6"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -6225,7 +6239,7 @@
       <c r="G615" s="4"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="5"/>
+      <c r="A616" s="6"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -6234,7 +6248,7 @@
       <c r="G616" s="4"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="5"/>
+      <c r="A617" s="6"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -6243,7 +6257,7 @@
       <c r="G617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="5"/>
+      <c r="A618" s="6"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -6252,7 +6266,7 @@
       <c r="G618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="5"/>
+      <c r="A619" s="6"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -6261,7 +6275,7 @@
       <c r="G619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="5"/>
+      <c r="A620" s="6"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -6270,7 +6284,7 @@
       <c r="G620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="5"/>
+      <c r="A621" s="6"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -6279,7 +6293,7 @@
       <c r="G621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="5"/>
+      <c r="A622" s="6"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -6288,7 +6302,7 @@
       <c r="G622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="5"/>
+      <c r="A623" s="6"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -6297,7 +6311,7 @@
       <c r="G623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="5"/>
+      <c r="A624" s="6"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -6306,7 +6320,7 @@
       <c r="G624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="5"/>
+      <c r="A625" s="6"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -6315,7 +6329,7 @@
       <c r="G625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="5"/>
+      <c r="A626" s="6"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -6324,7 +6338,7 @@
       <c r="G626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="5"/>
+      <c r="A627" s="6"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -6333,7 +6347,7 @@
       <c r="G627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="5"/>
+      <c r="A628" s="6"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -6342,7 +6356,7 @@
       <c r="G628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="5"/>
+      <c r="A629" s="6"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -6351,7 +6365,7 @@
       <c r="G629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="5"/>
+      <c r="A630" s="6"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -6360,7 +6374,7 @@
       <c r="G630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="5"/>
+      <c r="A631" s="6"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -6369,7 +6383,7 @@
       <c r="G631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="5"/>
+      <c r="A632" s="6"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -6378,7 +6392,7 @@
       <c r="G632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="5"/>
+      <c r="A633" s="6"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -6387,7 +6401,7 @@
       <c r="G633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="5"/>
+      <c r="A634" s="6"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -6396,7 +6410,7 @@
       <c r="G634" s="4"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="5"/>
+      <c r="A635" s="6"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -6405,7 +6419,7 @@
       <c r="G635" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="5"/>
+      <c r="A636" s="6"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -6414,7 +6428,7 @@
       <c r="G636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="5"/>
+      <c r="A637" s="6"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -6423,7 +6437,7 @@
       <c r="G637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="5"/>
+      <c r="A638" s="6"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -6432,7 +6446,7 @@
       <c r="G638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="5"/>
+      <c r="A639" s="6"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -6441,7 +6455,7 @@
       <c r="G639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="5"/>
+      <c r="A640" s="6"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -6450,7 +6464,7 @@
       <c r="G640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="5"/>
+      <c r="A641" s="6"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -6459,7 +6473,7 @@
       <c r="G641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="5"/>
+      <c r="A642" s="6"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -6468,7 +6482,7 @@
       <c r="G642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="5"/>
+      <c r="A643" s="6"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -6477,7 +6491,7 @@
       <c r="G643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="5"/>
+      <c r="A644" s="6"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -6486,7 +6500,7 @@
       <c r="G644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="5"/>
+      <c r="A645" s="6"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -6495,7 +6509,7 @@
       <c r="G645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="5"/>
+      <c r="A646" s="6"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -6504,7 +6518,7 @@
       <c r="G646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="5"/>
+      <c r="A647" s="6"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -6513,7 +6527,7 @@
       <c r="G647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="5"/>
+      <c r="A648" s="6"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -6522,7 +6536,7 @@
       <c r="G648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="5"/>
+      <c r="A649" s="6"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -6531,7 +6545,7 @@
       <c r="G649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="5"/>
+      <c r="A650" s="6"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -6540,7 +6554,7 @@
       <c r="G650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="5"/>
+      <c r="A651" s="6"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -6549,7 +6563,7 @@
       <c r="G651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="5"/>
+      <c r="A652" s="6"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -6558,7 +6572,7 @@
       <c r="G652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="5"/>
+      <c r="A653" s="6"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -6567,7 +6581,7 @@
       <c r="G653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="5"/>
+      <c r="A654" s="6"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -6576,7 +6590,7 @@
       <c r="G654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="5"/>
+      <c r="A655" s="6"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -6585,7 +6599,7 @@
       <c r="G655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="5"/>
+      <c r="A656" s="6"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -6594,7 +6608,7 @@
       <c r="G656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="5"/>
+      <c r="A657" s="6"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -6603,7 +6617,7 @@
       <c r="G657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="5"/>
+      <c r="A658" s="6"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -6612,7 +6626,7 @@
       <c r="G658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="5"/>
+      <c r="A659" s="6"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -6621,7 +6635,7 @@
       <c r="G659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="5"/>
+      <c r="A660" s="6"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -6630,7 +6644,7 @@
       <c r="G660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="5"/>
+      <c r="A661" s="6"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -6639,7 +6653,7 @@
       <c r="G661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="5"/>
+      <c r="A662" s="6"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -6648,7 +6662,7 @@
       <c r="G662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="5"/>
+      <c r="A663" s="6"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -6657,7 +6671,7 @@
       <c r="G663" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="5"/>
+      <c r="A664" s="6"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -6666,7 +6680,7 @@
       <c r="G664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="5"/>
+      <c r="A665" s="6"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -6675,7 +6689,7 @@
       <c r="G665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="5"/>
+      <c r="A666" s="6"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -6684,7 +6698,7 @@
       <c r="G666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="5"/>
+      <c r="A667" s="6"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -6693,7 +6707,7 @@
       <c r="G667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="5"/>
+      <c r="A668" s="6"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -6702,7 +6716,7 @@
       <c r="G668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="5"/>
+      <c r="A669" s="6"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -6711,7 +6725,7 @@
       <c r="G669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="5"/>
+      <c r="A670" s="6"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -6720,7 +6734,7 @@
       <c r="G670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="5"/>
+      <c r="A671" s="6"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -6729,7 +6743,7 @@
       <c r="G671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="5"/>
+      <c r="A672" s="6"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -6738,7 +6752,7 @@
       <c r="G672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="5"/>
+      <c r="A673" s="6"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -6747,7 +6761,7 @@
       <c r="G673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="5"/>
+      <c r="A674" s="6"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -6756,7 +6770,7 @@
       <c r="G674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="5"/>
+      <c r="A675" s="6"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -6765,7 +6779,7 @@
       <c r="G675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="5"/>
+      <c r="A676" s="6"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -6774,7 +6788,7 @@
       <c r="G676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="5"/>
+      <c r="A677" s="6"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -6783,7 +6797,7 @@
       <c r="G677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="5"/>
+      <c r="A678" s="6"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -6792,7 +6806,7 @@
       <c r="G678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="5"/>
+      <c r="A679" s="6"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -6801,7 +6815,7 @@
       <c r="G679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="5"/>
+      <c r="A680" s="6"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -6810,7 +6824,7 @@
       <c r="G680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="5"/>
+      <c r="A681" s="6"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -6819,7 +6833,7 @@
       <c r="G681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="5"/>
+      <c r="A682" s="6"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -6828,7 +6842,7 @@
       <c r="G682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="5"/>
+      <c r="A683" s="6"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -6837,7 +6851,7 @@
       <c r="G683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="5"/>
+      <c r="A684" s="6"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -6846,7 +6860,7 @@
       <c r="G684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="5"/>
+      <c r="A685" s="6"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -6855,7 +6869,7 @@
       <c r="G685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="5"/>
+      <c r="A686" s="6"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -6864,7 +6878,7 @@
       <c r="G686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="5"/>
+      <c r="A687" s="6"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -6873,7 +6887,7 @@
       <c r="G687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="5"/>
+      <c r="A688" s="6"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -6882,7 +6896,7 @@
       <c r="G688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="5"/>
+      <c r="A689" s="6"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -6891,7 +6905,7 @@
       <c r="G689" s="4"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="5"/>
+      <c r="A690" s="6"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -6900,7 +6914,7 @@
       <c r="G690" s="4"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="5"/>
+      <c r="A691" s="6"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -6909,7 +6923,7 @@
       <c r="G691" s="4"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="5"/>
+      <c r="A692" s="6"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -6918,7 +6932,7 @@
       <c r="G692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="5"/>
+      <c r="A693" s="6"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -6927,7 +6941,7 @@
       <c r="G693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="5"/>
+      <c r="A694" s="6"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -6936,7 +6950,7 @@
       <c r="G694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="5"/>
+      <c r="A695" s="6"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -6945,7 +6959,7 @@
       <c r="G695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="5"/>
+      <c r="A696" s="6"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -6954,7 +6968,7 @@
       <c r="G696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="5"/>
+      <c r="A697" s="6"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -6963,7 +6977,7 @@
       <c r="G697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="5"/>
+      <c r="A698" s="6"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -6972,7 +6986,7 @@
       <c r="G698" s="4"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="5"/>
+      <c r="A699" s="6"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -6981,7 +6995,7 @@
       <c r="G699" s="4"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="5"/>
+      <c r="A700" s="6"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -6990,7 +7004,7 @@
       <c r="G700" s="4"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="5"/>
+      <c r="A701" s="6"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -6999,7 +7013,7 @@
       <c r="G701" s="4"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="5"/>
+      <c r="A702" s="6"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -7008,7 +7022,7 @@
       <c r="G702" s="4"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="5"/>
+      <c r="A703" s="6"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -7017,7 +7031,7 @@
       <c r="G703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="5"/>
+      <c r="A704" s="6"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -7026,7 +7040,7 @@
       <c r="G704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="5"/>
+      <c r="A705" s="6"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -7035,7 +7049,7 @@
       <c r="G705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="5"/>
+      <c r="A706" s="6"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -7044,7 +7058,7 @@
       <c r="G706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="5"/>
+      <c r="A707" s="6"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -7053,7 +7067,7 @@
       <c r="G707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="5"/>
+      <c r="A708" s="6"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -7062,7 +7076,7 @@
       <c r="G708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="5"/>
+      <c r="A709" s="6"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -7071,7 +7085,7 @@
       <c r="G709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="5"/>
+      <c r="A710" s="6"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -7080,7 +7094,7 @@
       <c r="G710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="5"/>
+      <c r="A711" s="6"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -7089,7 +7103,7 @@
       <c r="G711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="5"/>
+      <c r="A712" s="6"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -7098,7 +7112,7 @@
       <c r="G712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="5"/>
+      <c r="A713" s="6"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -7107,7 +7121,7 @@
       <c r="G713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="5"/>
+      <c r="A714" s="6"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -7116,7 +7130,7 @@
       <c r="G714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="5"/>
+      <c r="A715" s="6"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -7125,7 +7139,7 @@
       <c r="G715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="5"/>
+      <c r="A716" s="6"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -7134,7 +7148,7 @@
       <c r="G716" s="4"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="5"/>
+      <c r="A717" s="6"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -7143,7 +7157,7 @@
       <c r="G717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="5"/>
+      <c r="A718" s="6"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -7152,7 +7166,7 @@
       <c r="G718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="5"/>
+      <c r="A719" s="6"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -7161,7 +7175,7 @@
       <c r="G719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="5"/>
+      <c r="A720" s="6"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -7170,7 +7184,7 @@
       <c r="G720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="5"/>
+      <c r="A721" s="6"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -7179,7 +7193,7 @@
       <c r="G721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="5"/>
+      <c r="A722" s="6"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -7188,7 +7202,7 @@
       <c r="G722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="5"/>
+      <c r="A723" s="6"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -7197,7 +7211,7 @@
       <c r="G723" s="4"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="5"/>
+      <c r="A724" s="6"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -7206,7 +7220,7 @@
       <c r="G724" s="4"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="5"/>
+      <c r="A725" s="6"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -7215,7 +7229,7 @@
       <c r="G725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="5"/>
+      <c r="A726" s="6"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -7224,7 +7238,7 @@
       <c r="G726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="5"/>
+      <c r="A727" s="6"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -7233,7 +7247,7 @@
       <c r="G727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="5"/>
+      <c r="A728" s="6"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -7242,7 +7256,7 @@
       <c r="G728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="5"/>
+      <c r="A729" s="6"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -7251,7 +7265,7 @@
       <c r="G729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="5"/>
+      <c r="A730" s="6"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -7260,7 +7274,7 @@
       <c r="G730" s="4"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="5"/>
+      <c r="A731" s="6"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -7269,7 +7283,7 @@
       <c r="G731" s="4"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="5"/>
+      <c r="A732" s="6"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -7278,7 +7292,7 @@
       <c r="G732" s="4"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="5"/>
+      <c r="A733" s="6"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -7287,7 +7301,7 @@
       <c r="G733" s="4"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="5"/>
+      <c r="A734" s="6"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -7296,7 +7310,7 @@
       <c r="G734" s="4"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="5"/>
+      <c r="A735" s="6"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -7305,7 +7319,7 @@
       <c r="G735" s="4"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="5"/>
+      <c r="A736" s="6"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -7314,7 +7328,7 @@
       <c r="G736" s="4"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="5"/>
+      <c r="A737" s="6"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -7323,7 +7337,7 @@
       <c r="G737" s="4"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="5"/>
+      <c r="A738" s="6"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -7332,7 +7346,7 @@
       <c r="G738" s="4"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="5"/>
+      <c r="A739" s="6"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -7341,7 +7355,7 @@
       <c r="G739" s="4"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="5"/>
+      <c r="A740" s="6"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -7350,7 +7364,7 @@
       <c r="G740" s="4"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="5"/>
+      <c r="A741" s="6"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -7359,7 +7373,7 @@
       <c r="G741" s="4"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="5"/>
+      <c r="A742" s="6"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -7368,7 +7382,7 @@
       <c r="G742" s="4"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="5"/>
+      <c r="A743" s="6"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -7377,7 +7391,7 @@
       <c r="G743" s="4"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="5"/>
+      <c r="A744" s="6"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -7386,7 +7400,7 @@
       <c r="G744" s="4"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="5"/>
+      <c r="A745" s="6"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -7395,7 +7409,7 @@
       <c r="G745" s="4"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="5"/>
+      <c r="A746" s="6"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -7404,7 +7418,7 @@
       <c r="G746" s="4"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="5"/>
+      <c r="A747" s="6"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -7413,7 +7427,7 @@
       <c r="G747" s="4"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="5"/>
+      <c r="A748" s="6"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -7422,7 +7436,7 @@
       <c r="G748" s="4"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="5"/>
+      <c r="A749" s="6"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -7431,7 +7445,7 @@
       <c r="G749" s="4"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="5"/>
+      <c r="A750" s="6"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -7440,7 +7454,7 @@
       <c r="G750" s="4"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="5"/>
+      <c r="A751" s="6"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -7449,7 +7463,7 @@
       <c r="G751" s="4"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="5"/>
+      <c r="A752" s="6"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -7458,7 +7472,7 @@
       <c r="G752" s="4"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="5"/>
+      <c r="A753" s="6"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -7467,7 +7481,7 @@
       <c r="G753" s="4"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="5"/>
+      <c r="A754" s="6"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -7476,7 +7490,7 @@
       <c r="G754" s="4"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="5"/>
+      <c r="A755" s="6"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -7485,7 +7499,7 @@
       <c r="G755" s="4"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="5"/>
+      <c r="A756" s="6"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -7494,7 +7508,7 @@
       <c r="G756" s="4"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="5"/>
+      <c r="A757" s="6"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -7503,7 +7517,7 @@
       <c r="G757" s="4"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="5"/>
+      <c r="A758" s="6"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -7512,7 +7526,7 @@
       <c r="G758" s="4"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="5"/>
+      <c r="A759" s="6"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -7521,7 +7535,7 @@
       <c r="G759" s="4"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="5"/>
+      <c r="A760" s="6"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -7530,7 +7544,7 @@
       <c r="G760" s="4"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="5"/>
+      <c r="A761" s="6"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -7539,7 +7553,7 @@
       <c r="G761" s="4"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="5"/>
+      <c r="A762" s="6"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -7548,7 +7562,7 @@
       <c r="G762" s="4"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="5"/>
+      <c r="A763" s="6"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -7557,7 +7571,7 @@
       <c r="G763" s="4"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="5"/>
+      <c r="A764" s="6"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -7566,7 +7580,7 @@
       <c r="G764" s="4"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="5"/>
+      <c r="A765" s="6"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -7575,7 +7589,7 @@
       <c r="G765" s="4"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="5"/>
+      <c r="A766" s="6"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -7584,7 +7598,7 @@
       <c r="G766" s="4"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="5"/>
+      <c r="A767" s="6"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -7593,7 +7607,7 @@
       <c r="G767" s="4"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="5"/>
+      <c r="A768" s="6"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -7602,7 +7616,7 @@
       <c r="G768" s="4"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="5"/>
+      <c r="A769" s="6"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -7611,7 +7625,7 @@
       <c r="G769" s="4"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="5"/>
+      <c r="A770" s="6"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -7620,7 +7634,7 @@
       <c r="G770" s="4"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="5"/>
+      <c r="A771" s="6"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -7629,7 +7643,7 @@
       <c r="G771" s="4"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="5"/>
+      <c r="A772" s="6"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -7638,7 +7652,7 @@
       <c r="G772" s="4"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="5"/>
+      <c r="A773" s="6"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -7647,7 +7661,7 @@
       <c r="G773" s="4"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="5"/>
+      <c r="A774" s="6"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -7656,7 +7670,7 @@
       <c r="G774" s="4"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="5"/>
+      <c r="A775" s="6"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -7665,7 +7679,7 @@
       <c r="G775" s="4"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="5"/>
+      <c r="A776" s="6"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -7674,7 +7688,7 @@
       <c r="G776" s="4"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="5"/>
+      <c r="A777" s="6"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -7683,7 +7697,7 @@
       <c r="G777" s="4"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="5"/>
+      <c r="A778" s="6"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -7692,7 +7706,7 @@
       <c r="G778" s="4"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="5"/>
+      <c r="A779" s="6"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -7701,7 +7715,7 @@
       <c r="G779" s="4"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="5"/>
+      <c r="A780" s="6"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -7710,7 +7724,7 @@
       <c r="G780" s="4"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="5"/>
+      <c r="A781" s="6"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -7719,7 +7733,7 @@
       <c r="G781" s="4"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="5"/>
+      <c r="A782" s="6"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -7728,7 +7742,7 @@
       <c r="G782" s="4"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="5"/>
+      <c r="A783" s="6"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -7737,7 +7751,7 @@
       <c r="G783" s="4"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="5"/>
+      <c r="A784" s="6"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -7746,7 +7760,7 @@
       <c r="G784" s="4"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="5"/>
+      <c r="A785" s="6"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -7755,7 +7769,7 @@
       <c r="G785" s="4"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="5"/>
+      <c r="A786" s="6"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -7764,7 +7778,7 @@
       <c r="G786" s="4"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="5"/>
+      <c r="A787" s="6"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -7773,7 +7787,7 @@
       <c r="G787" s="4"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="5"/>
+      <c r="A788" s="6"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -7782,7 +7796,7 @@
       <c r="G788" s="4"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="5"/>
+      <c r="A789" s="6"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -7791,7 +7805,7 @@
       <c r="G789" s="4"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="5"/>
+      <c r="A790" s="6"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -7800,7 +7814,7 @@
       <c r="G790" s="4"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="5"/>
+      <c r="A791" s="6"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -7809,7 +7823,7 @@
       <c r="G791" s="4"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="5"/>
+      <c r="A792" s="6"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -7818,7 +7832,7 @@
       <c r="G792" s="4"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="5"/>
+      <c r="A793" s="6"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -7827,7 +7841,7 @@
       <c r="G793" s="4"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="5"/>
+      <c r="A794" s="6"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -7836,7 +7850,7 @@
       <c r="G794" s="4"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="5"/>
+      <c r="A795" s="6"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -7845,7 +7859,7 @@
       <c r="G795" s="4"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="5"/>
+      <c r="A796" s="6"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -7854,7 +7868,7 @@
       <c r="G796" s="4"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="5"/>
+      <c r="A797" s="6"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -7863,7 +7877,7 @@
       <c r="G797" s="4"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="5"/>
+      <c r="A798" s="6"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -7872,7 +7886,7 @@
       <c r="G798" s="4"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="5"/>
+      <c r="A799" s="6"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -7881,7 +7895,7 @@
       <c r="G799" s="4"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="5"/>
+      <c r="A800" s="6"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -7890,7 +7904,7 @@
       <c r="G800" s="4"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="5"/>
+      <c r="A801" s="6"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -7899,7 +7913,7 @@
       <c r="G801" s="4"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="5"/>
+      <c r="A802" s="6"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -7908,7 +7922,7 @@
       <c r="G802" s="4"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="5"/>
+      <c r="A803" s="6"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -7917,7 +7931,7 @@
       <c r="G803" s="4"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="5"/>
+      <c r="A804" s="6"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -7926,7 +7940,7 @@
       <c r="G804" s="4"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="5"/>
+      <c r="A805" s="6"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -7935,7 +7949,7 @@
       <c r="G805" s="4"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="5"/>
+      <c r="A806" s="6"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -7944,7 +7958,7 @@
       <c r="G806" s="4"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="5"/>
+      <c r="A807" s="6"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -7953,7 +7967,7 @@
       <c r="G807" s="4"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="5"/>
+      <c r="A808" s="6"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -7962,7 +7976,7 @@
       <c r="G808" s="4"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="5"/>
+      <c r="A809" s="6"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -7971,7 +7985,7 @@
       <c r="G809" s="4"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="5"/>
+      <c r="A810" s="6"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -7980,7 +7994,7 @@
       <c r="G810" s="4"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="5"/>
+      <c r="A811" s="6"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -7989,7 +8003,7 @@
       <c r="G811" s="4"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="5"/>
+      <c r="A812" s="6"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -7998,7 +8012,7 @@
       <c r="G812" s="4"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="5"/>
+      <c r="A813" s="6"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -8007,7 +8021,7 @@
       <c r="G813" s="4"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="5"/>
+      <c r="A814" s="6"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -8016,7 +8030,7 @@
       <c r="G814" s="4"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="5"/>
+      <c r="A815" s="6"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -8025,7 +8039,7 @@
       <c r="G815" s="4"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="5"/>
+      <c r="A816" s="6"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -8034,7 +8048,7 @@
       <c r="G816" s="4"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="5"/>
+      <c r="A817" s="6"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -8043,7 +8057,7 @@
       <c r="G817" s="4"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="5"/>
+      <c r="A818" s="6"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -8052,7 +8066,7 @@
       <c r="G818" s="4"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="5"/>
+      <c r="A819" s="6"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -8061,7 +8075,7 @@
       <c r="G819" s="4"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="5"/>
+      <c r="A820" s="6"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -8070,7 +8084,7 @@
       <c r="G820" s="4"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="5"/>
+      <c r="A821" s="6"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -8079,7 +8093,7 @@
       <c r="G821" s="4"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="5"/>
+      <c r="A822" s="6"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -8088,7 +8102,7 @@
       <c r="G822" s="4"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="5"/>
+      <c r="A823" s="6"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -8097,7 +8111,7 @@
       <c r="G823" s="4"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="5"/>
+      <c r="A824" s="6"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -8106,7 +8120,7 @@
       <c r="G824" s="4"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="5"/>
+      <c r="A825" s="6"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -8115,7 +8129,7 @@
       <c r="G825" s="4"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="5"/>
+      <c r="A826" s="6"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -8124,7 +8138,7 @@
       <c r="G826" s="4"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="5"/>
+      <c r="A827" s="6"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -8133,7 +8147,7 @@
       <c r="G827" s="4"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="5"/>
+      <c r="A828" s="6"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -8142,7 +8156,7 @@
       <c r="G828" s="4"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="5"/>
+      <c r="A829" s="6"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -8151,7 +8165,7 @@
       <c r="G829" s="4"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="5"/>
+      <c r="A830" s="6"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -8160,7 +8174,7 @@
       <c r="G830" s="4"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="5"/>
+      <c r="A831" s="6"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -8169,7 +8183,7 @@
       <c r="G831" s="4"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="5"/>
+      <c r="A832" s="6"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -8178,7 +8192,7 @@
       <c r="G832" s="4"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="5"/>
+      <c r="A833" s="6"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -8187,7 +8201,7 @@
       <c r="G833" s="4"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="5"/>
+      <c r="A834" s="6"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -8196,7 +8210,7 @@
       <c r="G834" s="4"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="5"/>
+      <c r="A835" s="6"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -8205,7 +8219,7 @@
       <c r="G835" s="4"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="5"/>
+      <c r="A836" s="6"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -8214,7 +8228,7 @@
       <c r="G836" s="4"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="5"/>
+      <c r="A837" s="6"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -8223,7 +8237,7 @@
       <c r="G837" s="4"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="5"/>
+      <c r="A838" s="6"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -8232,7 +8246,7 @@
       <c r="G838" s="4"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="5"/>
+      <c r="A839" s="6"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -8241,7 +8255,7 @@
       <c r="G839" s="4"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="5"/>
+      <c r="A840" s="6"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -8250,7 +8264,7 @@
       <c r="G840" s="4"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="5"/>
+      <c r="A841" s="6"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -8259,7 +8273,7 @@
       <c r="G841" s="4"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="5"/>
+      <c r="A842" s="6"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -8268,7 +8282,7 @@
       <c r="G842" s="4"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="5"/>
+      <c r="A843" s="6"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -8277,7 +8291,7 @@
       <c r="G843" s="4"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="5"/>
+      <c r="A844" s="6"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -8286,7 +8300,7 @@
       <c r="G844" s="4"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="5"/>
+      <c r="A845" s="6"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -8295,7 +8309,7 @@
       <c r="G845" s="4"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="5"/>
+      <c r="A846" s="6"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -8304,7 +8318,7 @@
       <c r="G846" s="4"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="5"/>
+      <c r="A847" s="6"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -8313,7 +8327,7 @@
       <c r="G847" s="4"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="5"/>
+      <c r="A848" s="6"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -8322,7 +8336,7 @@
       <c r="G848" s="4"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="5"/>
+      <c r="A849" s="6"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -8331,7 +8345,7 @@
       <c r="G849" s="4"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="5"/>
+      <c r="A850" s="6"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -8340,7 +8354,7 @@
       <c r="G850" s="4"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="5"/>
+      <c r="A851" s="6"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -8349,7 +8363,7 @@
       <c r="G851" s="4"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="5"/>
+      <c r="A852" s="6"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -8358,7 +8372,7 @@
       <c r="G852" s="4"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="5"/>
+      <c r="A853" s="6"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -8367,7 +8381,7 @@
       <c r="G853" s="4"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="5"/>
+      <c r="A854" s="6"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -8376,7 +8390,7 @@
       <c r="G854" s="4"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="5"/>
+      <c r="A855" s="6"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -8385,7 +8399,7 @@
       <c r="G855" s="4"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="5"/>
+      <c r="A856" s="6"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -8394,7 +8408,7 @@
       <c r="G856" s="4"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="5"/>
+      <c r="A857" s="6"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -8403,7 +8417,7 @@
       <c r="G857" s="4"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="5"/>
+      <c r="A858" s="6"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -8412,7 +8426,7 @@
       <c r="G858" s="4"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="5"/>
+      <c r="A859" s="6"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -8421,7 +8435,7 @@
       <c r="G859" s="4"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="5"/>
+      <c r="A860" s="6"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -8430,7 +8444,7 @@
       <c r="G860" s="4"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="5"/>
+      <c r="A861" s="6"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -8439,7 +8453,7 @@
       <c r="G861" s="4"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="5"/>
+      <c r="A862" s="6"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -8448,7 +8462,7 @@
       <c r="G862" s="4"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="5"/>
+      <c r="A863" s="6"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -8457,7 +8471,7 @@
       <c r="G863" s="4"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="5"/>
+      <c r="A864" s="6"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -8466,7 +8480,7 @@
       <c r="G864" s="4"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="5"/>
+      <c r="A865" s="6"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -8475,7 +8489,7 @@
       <c r="G865" s="4"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="5"/>
+      <c r="A866" s="6"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -8484,7 +8498,7 @@
       <c r="G866" s="4"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="5"/>
+      <c r="A867" s="6"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -8493,7 +8507,7 @@
       <c r="G867" s="4"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="5"/>
+      <c r="A868" s="6"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -8502,7 +8516,7 @@
       <c r="G868" s="4"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="5"/>
+      <c r="A869" s="6"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -8511,7 +8525,7 @@
       <c r="G869" s="4"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="5"/>
+      <c r="A870" s="6"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -8520,7 +8534,7 @@
       <c r="G870" s="4"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="5"/>
+      <c r="A871" s="6"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -8529,7 +8543,7 @@
       <c r="G871" s="4"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="5"/>
+      <c r="A872" s="6"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -8538,7 +8552,7 @@
       <c r="G872" s="4"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="5"/>
+      <c r="A873" s="6"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -8547,7 +8561,7 @@
       <c r="G873" s="4"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="5"/>
+      <c r="A874" s="6"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -8556,7 +8570,7 @@
       <c r="G874" s="4"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="5"/>
+      <c r="A875" s="6"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -8565,7 +8579,7 @@
       <c r="G875" s="4"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="5"/>
+      <c r="A876" s="6"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -8574,7 +8588,7 @@
       <c r="G876" s="4"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="5"/>
+      <c r="A877" s="6"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -8583,7 +8597,7 @@
       <c r="G877" s="4"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="5"/>
+      <c r="A878" s="6"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -8592,7 +8606,7 @@
       <c r="G878" s="4"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="5"/>
+      <c r="A879" s="6"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -8601,7 +8615,7 @@
       <c r="G879" s="4"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="5"/>
+      <c r="A880" s="6"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -8610,7 +8624,7 @@
       <c r="G880" s="4"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="5"/>
+      <c r="A881" s="6"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -8619,7 +8633,7 @@
       <c r="G881" s="4"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="5"/>
+      <c r="A882" s="6"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -8628,7 +8642,7 @@
       <c r="G882" s="4"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="5"/>
+      <c r="A883" s="6"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -8637,7 +8651,7 @@
       <c r="G883" s="4"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="5"/>
+      <c r="A884" s="6"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -8646,7 +8660,7 @@
       <c r="G884" s="4"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="5"/>
+      <c r="A885" s="6"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -8655,7 +8669,7 @@
       <c r="G885" s="4"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="5"/>
+      <c r="A886" s="6"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -8664,7 +8678,7 @@
       <c r="G886" s="4"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="5"/>
+      <c r="A887" s="6"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -8673,7 +8687,7 @@
       <c r="G887" s="4"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="5"/>
+      <c r="A888" s="6"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -8682,7 +8696,7 @@
       <c r="G888" s="4"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="5"/>
+      <c r="A889" s="6"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -8691,7 +8705,7 @@
       <c r="G889" s="4"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="5"/>
+      <c r="A890" s="6"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -8700,7 +8714,7 @@
       <c r="G890" s="4"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="5"/>
+      <c r="A891" s="6"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -8709,7 +8723,7 @@
       <c r="G891" s="4"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="5"/>
+      <c r="A892" s="6"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -8718,7 +8732,7 @@
       <c r="G892" s="4"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="5"/>
+      <c r="A893" s="6"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -8727,7 +8741,7 @@
       <c r="G893" s="4"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="5"/>
+      <c r="A894" s="6"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -8736,7 +8750,7 @@
       <c r="G894" s="4"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="5"/>
+      <c r="A895" s="6"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -8745,7 +8759,7 @@
       <c r="G895" s="4"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="5"/>
+      <c r="A896" s="6"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -8754,7 +8768,7 @@
       <c r="G896" s="4"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="5"/>
+      <c r="A897" s="6"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -8763,7 +8777,7 @@
       <c r="G897" s="4"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="5"/>
+      <c r="A898" s="6"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -8772,7 +8786,7 @@
       <c r="G898" s="4"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="5"/>
+      <c r="A899" s="6"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -8781,7 +8795,7 @@
       <c r="G899" s="4"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="5"/>
+      <c r="A900" s="6"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -8790,7 +8804,7 @@
       <c r="G900" s="4"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="5"/>
+      <c r="A901" s="6"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -8799,7 +8813,7 @@
       <c r="G901" s="4"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="5"/>
+      <c r="A902" s="6"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -8808,7 +8822,7 @@
       <c r="G902" s="4"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="5"/>
+      <c r="A903" s="6"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -8817,7 +8831,7 @@
       <c r="G903" s="4"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="5"/>
+      <c r="A904" s="6"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -8826,7 +8840,7 @@
       <c r="G904" s="4"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="5"/>
+      <c r="A905" s="6"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -8835,7 +8849,7 @@
       <c r="G905" s="4"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="5"/>
+      <c r="A906" s="6"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -8844,7 +8858,7 @@
       <c r="G906" s="4"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="5"/>
+      <c r="A907" s="6"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -8853,7 +8867,7 @@
       <c r="G907" s="4"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="5"/>
+      <c r="A908" s="6"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -8862,7 +8876,7 @@
       <c r="G908" s="4"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="5"/>
+      <c r="A909" s="6"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -8871,7 +8885,7 @@
       <c r="G909" s="4"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="5"/>
+      <c r="A910" s="6"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -8880,7 +8894,7 @@
       <c r="G910" s="4"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="5"/>
+      <c r="A911" s="6"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -8889,7 +8903,7 @@
       <c r="G911" s="4"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="5"/>
+      <c r="A912" s="6"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -8898,7 +8912,7 @@
       <c r="G912" s="4"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="5"/>
+      <c r="A913" s="6"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -8907,7 +8921,7 @@
       <c r="G913" s="4"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="5"/>
+      <c r="A914" s="6"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -8916,7 +8930,7 @@
       <c r="G914" s="4"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="5"/>
+      <c r="A915" s="6"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -8925,7 +8939,7 @@
       <c r="G915" s="4"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="5"/>
+      <c r="A916" s="6"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -8934,7 +8948,7 @@
       <c r="G916" s="4"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="5"/>
+      <c r="A917" s="6"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -8943,7 +8957,7 @@
       <c r="G917" s="4"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="5"/>
+      <c r="A918" s="6"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -8952,7 +8966,7 @@
       <c r="G918" s="4"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="5"/>
+      <c r="A919" s="6"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -8961,7 +8975,7 @@
       <c r="G919" s="4"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="5"/>
+      <c r="A920" s="6"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -8970,7 +8984,7 @@
       <c r="G920" s="4"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="5"/>
+      <c r="A921" s="6"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -8979,7 +8993,7 @@
       <c r="G921" s="4"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="5"/>
+      <c r="A922" s="6"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -8988,7 +9002,7 @@
       <c r="G922" s="4"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="5"/>
+      <c r="A923" s="6"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -8997,7 +9011,7 @@
       <c r="G923" s="4"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="5"/>
+      <c r="A924" s="6"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -9006,7 +9020,7 @@
       <c r="G924" s="4"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="5"/>
+      <c r="A925" s="6"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -9015,7 +9029,7 @@
       <c r="G925" s="4"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="5"/>
+      <c r="A926" s="6"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -9024,7 +9038,7 @@
       <c r="G926" s="4"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="5"/>
+      <c r="A927" s="6"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -9033,7 +9047,7 @@
       <c r="G927" s="4"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="5"/>
+      <c r="A928" s="6"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -9042,7 +9056,7 @@
       <c r="G928" s="4"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="5"/>
+      <c r="A929" s="6"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -9051,7 +9065,7 @@
       <c r="G929" s="4"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="5"/>
+      <c r="A930" s="6"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -9060,7 +9074,7 @@
       <c r="G930" s="4"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="5"/>
+      <c r="A931" s="6"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -9069,7 +9083,7 @@
       <c r="G931" s="4"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="5"/>
+      <c r="A932" s="6"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -9078,7 +9092,7 @@
       <c r="G932" s="4"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="5"/>
+      <c r="A933" s="6"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -9087,7 +9101,7 @@
       <c r="G933" s="4"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="5"/>
+      <c r="A934" s="6"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -9096,7 +9110,7 @@
       <c r="G934" s="4"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="5"/>
+      <c r="A935" s="6"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -9105,7 +9119,7 @@
       <c r="G935" s="4"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="5"/>
+      <c r="A936" s="6"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -9114,7 +9128,7 @@
       <c r="G936" s="4"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="5"/>
+      <c r="A937" s="6"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
@@ -9123,7 +9137,7 @@
       <c r="G937" s="4"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="5"/>
+      <c r="A938" s="6"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
@@ -9132,7 +9146,7 @@
       <c r="G938" s="4"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="5"/>
+      <c r="A939" s="6"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
@@ -9141,7 +9155,7 @@
       <c r="G939" s="4"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="5"/>
+      <c r="A940" s="6"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
@@ -9150,7 +9164,7 @@
       <c r="G940" s="4"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="5"/>
+      <c r="A941" s="6"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
@@ -9159,7 +9173,7 @@
       <c r="G941" s="4"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="5"/>
+      <c r="A942" s="6"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
@@ -9168,7 +9182,7 @@
       <c r="G942" s="4"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="5"/>
+      <c r="A943" s="6"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
@@ -9177,7 +9191,7 @@
       <c r="G943" s="4"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="5"/>
+      <c r="A944" s="6"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
@@ -9186,7 +9200,7 @@
       <c r="G944" s="4"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="5"/>
+      <c r="A945" s="6"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
@@ -9195,7 +9209,7 @@
       <c r="G945" s="4"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="5"/>
+      <c r="A946" s="6"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
@@ -9204,7 +9218,7 @@
       <c r="G946" s="4"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="5"/>
+      <c r="A947" s="6"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
@@ -9213,7 +9227,7 @@
       <c r="G947" s="4"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="5"/>
+      <c r="A948" s="6"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
@@ -9222,7 +9236,7 @@
       <c r="G948" s="4"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="5"/>
+      <c r="A949" s="6"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
@@ -9231,7 +9245,7 @@
       <c r="G949" s="4"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="5"/>
+      <c r="A950" s="6"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
@@ -9240,7 +9254,7 @@
       <c r="G950" s="4"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="5"/>
+      <c r="A951" s="6"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
@@ -9249,7 +9263,7 @@
       <c r="G951" s="4"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="5"/>
+      <c r="A952" s="6"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
@@ -9258,7 +9272,7 @@
       <c r="G952" s="4"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="5"/>
+      <c r="A953" s="6"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
@@ -9267,7 +9281,7 @@
       <c r="G953" s="4"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="5"/>
+      <c r="A954" s="6"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
@@ -9276,7 +9290,7 @@
       <c r="G954" s="4"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="5"/>
+      <c r="A955" s="6"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -9285,7 +9299,7 @@
       <c r="G955" s="4"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="5"/>
+      <c r="A956" s="6"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
@@ -9294,7 +9308,7 @@
       <c r="G956" s="4"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="5"/>
+      <c r="A957" s="6"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -9303,7 +9317,7 @@
       <c r="G957" s="4"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="5"/>
+      <c r="A958" s="6"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
@@ -9312,7 +9326,7 @@
       <c r="G958" s="4"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="5"/>
+      <c r="A959" s="6"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
@@ -9321,7 +9335,7 @@
       <c r="G959" s="4"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="5"/>
+      <c r="A960" s="6"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
@@ -9330,7 +9344,7 @@
       <c r="G960" s="4"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="5"/>
+      <c r="A961" s="6"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
@@ -9339,7 +9353,7 @@
       <c r="G961" s="4"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="5"/>
+      <c r="A962" s="6"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
@@ -9348,7 +9362,7 @@
       <c r="G962" s="4"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="5"/>
+      <c r="A963" s="6"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
@@ -9357,7 +9371,7 @@
       <c r="G963" s="4"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="5"/>
+      <c r="A964" s="6"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
@@ -9366,7 +9380,7 @@
       <c r="G964" s="4"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="5"/>
+      <c r="A965" s="6"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
@@ -9375,7 +9389,7 @@
       <c r="G965" s="4"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="5"/>
+      <c r="A966" s="6"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
@@ -9384,7 +9398,7 @@
       <c r="G966" s="4"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="5"/>
+      <c r="A967" s="6"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
@@ -9393,7 +9407,7 @@
       <c r="G967" s="4"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="5"/>
+      <c r="A968" s="6"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
@@ -9402,7 +9416,7 @@
       <c r="G968" s="4"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="5"/>
+      <c r="A969" s="6"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
@@ -9411,7 +9425,7 @@
       <c r="G969" s="4"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="5"/>
+      <c r="A970" s="6"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
@@ -9420,7 +9434,7 @@
       <c r="G970" s="4"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="5"/>
+      <c r="A971" s="6"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
@@ -9429,7 +9443,7 @@
       <c r="G971" s="4"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="5"/>
+      <c r="A972" s="6"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
@@ -9438,7 +9452,7 @@
       <c r="G972" s="4"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="5"/>
+      <c r="A973" s="6"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
@@ -9447,7 +9461,7 @@
       <c r="G973" s="4"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="5"/>
+      <c r="A974" s="6"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
@@ -9456,7 +9470,7 @@
       <c r="G974" s="4"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="5"/>
+      <c r="A975" s="6"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
@@ -9465,7 +9479,7 @@
       <c r="G975" s="4"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="5"/>
+      <c r="A976" s="6"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
@@ -9474,7 +9488,7 @@
       <c r="G976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="5"/>
+      <c r="A977" s="6"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
@@ -9483,7 +9497,7 @@
       <c r="G977" s="4"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="5"/>
+      <c r="A978" s="6"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
@@ -9492,7 +9506,7 @@
       <c r="G978" s="4"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="5"/>
+      <c r="A979" s="6"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
@@ -9501,7 +9515,7 @@
       <c r="G979" s="4"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="5"/>
+      <c r="A980" s="6"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
@@ -9510,7 +9524,7 @@
       <c r="G980" s="4"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="5"/>
+      <c r="A981" s="6"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
@@ -9519,7 +9533,7 @@
       <c r="G981" s="4"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="5"/>
+      <c r="A982" s="6"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
@@ -9528,7 +9542,7 @@
       <c r="G982" s="4"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="5"/>
+      <c r="A983" s="6"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
@@ -9537,7 +9551,7 @@
       <c r="G983" s="4"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="5"/>
+      <c r="A984" s="6"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
@@ -9546,7 +9560,7 @@
       <c r="G984" s="4"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="5"/>
+      <c r="A985" s="6"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
@@ -9555,7 +9569,7 @@
       <c r="G985" s="4"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="5"/>
+      <c r="A986" s="6"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
@@ -9564,7 +9578,7 @@
       <c r="G986" s="4"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="5"/>
+      <c r="A987" s="6"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
@@ -9573,7 +9587,7 @@
       <c r="G987" s="4"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="5"/>
+      <c r="A988" s="6"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
@@ -9582,7 +9596,7 @@
       <c r="G988" s="4"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="5"/>
+      <c r="A989" s="6"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
@@ -9591,7 +9605,7 @@
       <c r="G989" s="4"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="5"/>
+      <c r="A990" s="6"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -9600,7 +9614,7 @@
       <c r="G990" s="4"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="5"/>
+      <c r="A991" s="6"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
@@ -9609,7 +9623,7 @@
       <c r="G991" s="4"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="5"/>
+      <c r="A992" s="6"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
@@ -9618,7 +9632,7 @@
       <c r="G992" s="4"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="5"/>
+      <c r="A993" s="6"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
@@ -9627,7 +9641,7 @@
       <c r="G993" s="4"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="5"/>
+      <c r="A994" s="6"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
@@ -9636,7 +9650,7 @@
       <c r="G994" s="4"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="5"/>
+      <c r="A995" s="6"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
@@ -9645,7 +9659,7 @@
       <c r="G995" s="4"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="5"/>
+      <c r="A996" s="6"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
@@ -9654,7 +9668,7 @@
       <c r="G996" s="4"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="5"/>
+      <c r="A997" s="6"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
@@ -9663,7 +9677,7 @@
       <c r="G997" s="4"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="5"/>
+      <c r="A998" s="6"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
@@ -9672,7 +9686,7 @@
       <c r="G998" s="4"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="5"/>
+      <c r="A999" s="6"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
@@ -9681,7 +9695,7 @@
       <c r="G999" s="4"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="5"/>
+      <c r="A1000" s="6"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
@@ -9690,7 +9704,7 @@
       <c r="G1000" s="4"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="5"/>
+      <c r="A1001" s="6"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
@@ -9699,7 +9713,7 @@
       <c r="G1001" s="4"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="5"/>
+      <c r="A1002" s="6"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
       <c r="D1002" s="4"/>
@@ -9708,7 +9722,7 @@
       <c r="G1002" s="4"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="5"/>
+      <c r="A1003" s="6"/>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="4"/>
@@ -9717,7 +9731,7 @@
       <c r="G1003" s="4"/>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="5"/>
+      <c r="A1004" s="6"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="4"/>
@@ -9726,7 +9740,7 @@
       <c r="G1004" s="4"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="5"/>
+      <c r="A1005" s="6"/>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="4"/>
@@ -9735,7 +9749,7 @@
       <c r="G1005" s="4"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="5"/>
+      <c r="A1006" s="6"/>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
       <c r="D1006" s="4"/>
@@ -9744,7 +9758,7 @@
       <c r="G1006" s="4"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="5"/>
+      <c r="A1007" s="6"/>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="4"/>
@@ -9753,7 +9767,7 @@
       <c r="G1007" s="4"/>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="5"/>
+      <c r="A1008" s="6"/>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
       <c r="D1008" s="4"/>
@@ -9762,7 +9776,7 @@
       <c r="G1008" s="4"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="5"/>
+      <c r="A1009" s="6"/>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
       <c r="D1009" s="4"/>
@@ -9771,7 +9785,7 @@
       <c r="G1009" s="4"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="5"/>
+      <c r="A1010" s="6"/>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
       <c r="D1010" s="4"/>
@@ -9780,7 +9794,7 @@
       <c r="G1010" s="4"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="5"/>
+      <c r="A1011" s="6"/>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
       <c r="D1011" s="4"/>
@@ -9789,7 +9803,7 @@
       <c r="G1011" s="4"/>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="5"/>
+      <c r="A1012" s="6"/>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
       <c r="D1012" s="4"/>
@@ -9798,7 +9812,7 @@
       <c r="G1012" s="4"/>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="5"/>
+      <c r="A1013" s="6"/>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
       <c r="D1013" s="4"/>
@@ -9807,7 +9821,7 @@
       <c r="G1013" s="4"/>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="5"/>
+      <c r="A1014" s="6"/>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
       <c r="D1014" s="4"/>
@@ -9816,7 +9830,7 @@
       <c r="G1014" s="4"/>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="5"/>
+      <c r="A1015" s="6"/>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
       <c r="D1015" s="4"/>
@@ -9825,7 +9839,7 @@
       <c r="G1015" s="4"/>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="5"/>
+      <c r="A1016" s="6"/>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
       <c r="D1016" s="4"/>
@@ -9834,7 +9848,7 @@
       <c r="G1016" s="4"/>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="5"/>
+      <c r="A1017" s="6"/>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
       <c r="D1017" s="4"/>
@@ -9843,7 +9857,7 @@
       <c r="G1017" s="4"/>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="5"/>
+      <c r="A1018" s="6"/>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
       <c r="D1018" s="4"/>
@@ -9852,7 +9866,7 @@
       <c r="G1018" s="4"/>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="5"/>
+      <c r="A1019" s="6"/>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
       <c r="D1019" s="4"/>

--- a/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
+++ b/judo-tatami-asm2rdbms/model/RDBMS_Data_Types_Postgres.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">DECIMAL</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:precision</t>
+    <t xml:space="preserve">#constraints:precision</t>
   </si>
   <si>
     <t xml:space="preserve">float</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">java.math.BigDecimal</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:scale</t>
+    <t xml:space="preserve">#constraints:scale</t>
   </si>
   <si>
     <t xml:space="preserve">java.lang.String</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">#contraints:maxLength</t>
+    <t xml:space="preserve">#constraints:maxLength</t>
   </si>
   <si>
     <t xml:space="preserve">boolean</t>
@@ -295,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -313,10 +313,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,14 +400,14 @@
   <dimension ref="A1:G1019"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="26.86"/>
   </cols>
   <sheetData>
@@ -769,7 +765,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="3" t="n">
@@ -858,10 +854,10 @@
         <v>33</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -993,7 +989,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1010,7 +1006,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1019,7 +1015,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1028,7 +1024,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1037,7 +1033,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1046,7 +1042,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1055,7 +1051,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1064,7 +1060,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1073,7 +1069,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1082,7 +1078,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1091,7 +1087,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1100,7 +1096,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1109,7 +1105,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1118,7 +1114,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1127,7 +1123,7 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
+      <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1136,7 +1132,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1145,7 +1141,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1154,7 +1150,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1163,7 +1159,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1172,7 +1168,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1181,7 +1177,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1190,7 +1186,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1199,7 +1195,7 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1208,7 +1204,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1217,7 +1213,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1226,7 +1222,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1235,7 +1231,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1244,7 +1240,7 @@
       <c r="G60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1253,7 +1249,7 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1262,7 +1258,7 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1271,7 +1267,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1280,7 +1276,7 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1289,7 +1285,7 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1298,7 +1294,7 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1307,7 +1303,7 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1316,7 +1312,7 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1325,7 +1321,7 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1334,7 +1330,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
+      <c r="A71" s="5"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1343,7 +1339,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1352,7 +1348,7 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
+      <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1361,7 +1357,7 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
+      <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1370,7 +1366,7 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
+      <c r="A75" s="5"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1379,7 +1375,7 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1388,7 +1384,7 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
+      <c r="A77" s="5"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1397,7 +1393,7 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
+      <c r="A78" s="5"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1406,7 +1402,7 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
+      <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1415,7 +1411,7 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
+      <c r="A80" s="5"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -1424,7 +1420,7 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1433,7 +1429,7 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6"/>
+      <c r="A82" s="5"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1442,7 +1438,7 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
+      <c r="A83" s="5"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -1451,7 +1447,7 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
+      <c r="A84" s="5"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -1460,7 +1456,7 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
+      <c r="A85" s="5"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1469,7 +1465,7 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -1478,7 +1474,7 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -1487,7 +1483,7 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1496,7 +1492,7 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
+      <c r="A89" s="5"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -1505,7 +1501,7 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
+      <c r="A90" s="5"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -1514,7 +1510,7 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
+      <c r="A91" s="5"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -1523,7 +1519,7 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -1532,7 +1528,7 @@
       <c r="G92" s="4"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -1541,7 +1537,7 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -1550,7 +1546,7 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
+      <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -1559,7 +1555,7 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -1568,7 +1564,7 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
+      <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -1577,7 +1573,7 @@
       <c r="G97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
+      <c r="A98" s="5"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -1586,7 +1582,7 @@
       <c r="G98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
+      <c r="A99" s="5"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -1595,7 +1591,7 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
+      <c r="A100" s="5"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -1604,7 +1600,7 @@
       <c r="G100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
+      <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -1613,7 +1609,7 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6"/>
+      <c r="A102" s="5"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -1622,7 +1618,7 @@
       <c r="G102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6"/>
+      <c r="A103" s="5"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -1631,7 +1627,7 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
+      <c r="A104" s="5"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -1640,7 +1636,7 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6"/>
+      <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -1649,7 +1645,7 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6"/>
+      <c r="A106" s="5"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -1658,7 +1654,7 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
+      <c r="A107" s="5"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -1667,7 +1663,7 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
+      <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -1676,7 +1672,7 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6"/>
+      <c r="A109" s="5"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -1685,7 +1681,7 @@
       <c r="G109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -1694,7 +1690,7 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6"/>
+      <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -1703,7 +1699,7 @@
       <c r="G111" s="4"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="6"/>
+      <c r="A112" s="5"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -1712,7 +1708,7 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6"/>
+      <c r="A113" s="5"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -1721,7 +1717,7 @@
       <c r="G113" s="4"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="6"/>
+      <c r="A114" s="5"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -1730,7 +1726,7 @@
       <c r="G114" s="4"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
+      <c r="A115" s="5"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -1739,7 +1735,7 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="6"/>
+      <c r="A116" s="5"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -1748,7 +1744,7 @@
       <c r="G116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="6"/>
+      <c r="A117" s="5"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -1757,7 +1753,7 @@
       <c r="G117" s="4"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="6"/>
+      <c r="A118" s="5"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -1766,7 +1762,7 @@
       <c r="G118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="6"/>
+      <c r="A119" s="5"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -1775,7 +1771,7 @@
       <c r="G119" s="4"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="6"/>
+      <c r="A120" s="5"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -1784,7 +1780,7 @@
       <c r="G120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="6"/>
+      <c r="A121" s="5"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -1793,7 +1789,7 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="6"/>
+      <c r="A122" s="5"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -1802,7 +1798,7 @@
       <c r="G122" s="4"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6"/>
+      <c r="A123" s="5"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -1811,7 +1807,7 @@
       <c r="G123" s="4"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6"/>
+      <c r="A124" s="5"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -1820,7 +1816,7 @@
       <c r="G124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="6"/>
+      <c r="A125" s="5"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -1829,7 +1825,7 @@
       <c r="G125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="6"/>
+      <c r="A126" s="5"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -1838,7 +1834,7 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="6"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -1847,7 +1843,7 @@
       <c r="G127" s="4"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="6"/>
+      <c r="A128" s="5"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -1856,7 +1852,7 @@
       <c r="G128" s="4"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -1865,7 +1861,7 @@
       <c r="G129" s="4"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="6"/>
+      <c r="A130" s="5"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -1874,7 +1870,7 @@
       <c r="G130" s="4"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="6"/>
+      <c r="A131" s="5"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -1883,7 +1879,7 @@
       <c r="G131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="6"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -1892,7 +1888,7 @@
       <c r="G132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="6"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -1901,7 +1897,7 @@
       <c r="G133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6"/>
+      <c r="A134" s="5"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -1910,7 +1906,7 @@
       <c r="G134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="6"/>
+      <c r="A135" s="5"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -1919,7 +1915,7 @@
       <c r="G135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="6"/>
+      <c r="A136" s="5"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -1928,7 +1924,7 @@
       <c r="G136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="6"/>
+      <c r="A137" s="5"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -1937,7 +1933,7 @@
       <c r="G137" s="4"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="6"/>
+      <c r="A138" s="5"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -1946,7 +1942,7 @@
       <c r="G138" s="4"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="6"/>
+      <c r="A139" s="5"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -1955,7 +1951,7 @@
       <c r="G139" s="4"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="6"/>
+      <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -1964,7 +1960,7 @@
       <c r="G140" s="4"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6"/>
+      <c r="A141" s="5"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -1973,7 +1969,7 @@
       <c r="G141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
+      <c r="A142" s="5"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -1982,7 +1978,7 @@
       <c r="G142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6"/>
+      <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -1991,7 +1987,7 @@
       <c r="G143" s="4"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="6"/>
+      <c r="A144" s="5"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -2000,7 +1996,7 @@
       <c r="G144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="6"/>
+      <c r="A145" s="5"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -2009,7 +2005,7 @@
       <c r="G145" s="4"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6"/>
+      <c r="A146" s="5"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -2018,7 +2014,7 @@
       <c r="G146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
+      <c r="A147" s="5"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -2027,7 +2023,7 @@
       <c r="G147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="6"/>
+      <c r="A148" s="5"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -2036,7 +2032,7 @@
       <c r="G148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="6"/>
+      <c r="A149" s="5"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -2045,7 +2041,7 @@
       <c r="G149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="6"/>
+      <c r="A150" s="5"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -2054,7 +2050,7 @@
       <c r="G150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="6"/>
+      <c r="A151" s="5"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -2063,7 +2059,7 @@
       <c r="G151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="6"/>
+      <c r="A152" s="5"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -2072,7 +2068,7 @@
       <c r="G152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="6"/>
+      <c r="A153" s="5"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -2081,7 +2077,7 @@
       <c r="G153" s="4"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="6"/>
+      <c r="A154" s="5"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -2090,7 +2086,7 @@
       <c r="G154" s="4"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6"/>
+      <c r="A155" s="5"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -2099,7 +2095,7 @@
       <c r="G155" s="4"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="6"/>
+      <c r="A156" s="5"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -2108,7 +2104,7 @@
       <c r="G156" s="4"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="6"/>
+      <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -2117,7 +2113,7 @@
       <c r="G157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="6"/>
+      <c r="A158" s="5"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -2126,7 +2122,7 @@
       <c r="G158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="6"/>
+      <c r="A159" s="5"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -2135,7 +2131,7 @@
       <c r="G159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
+      <c r="A160" s="5"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -2144,7 +2140,7 @@
       <c r="G160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="6"/>
+      <c r="A161" s="5"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -2153,7 +2149,7 @@
       <c r="G161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="6"/>
+      <c r="A162" s="5"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -2162,7 +2158,7 @@
       <c r="G162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="6"/>
+      <c r="A163" s="5"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -2171,7 +2167,7 @@
       <c r="G163" s="4"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="6"/>
+      <c r="A164" s="5"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -2180,7 +2176,7 @@
       <c r="G164" s="4"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="6"/>
+      <c r="A165" s="5"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -2189,7 +2185,7 @@
       <c r="G165" s="4"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="6"/>
+      <c r="A166" s="5"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -2198,7 +2194,7 @@
       <c r="G166" s="4"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="6"/>
+      <c r="A167" s="5"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -2207,7 +2203,7 @@
       <c r="G167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="6"/>
+      <c r="A168" s="5"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -2216,7 +2212,7 @@
       <c r="G168" s="4"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="6"/>
+      <c r="A169" s="5"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -2225,7 +2221,7 @@
       <c r="G169" s="4"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="6"/>
+      <c r="A170" s="5"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -2234,7 +2230,7 @@
       <c r="G170" s="4"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="6"/>
+      <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -2243,7 +2239,7 @@
       <c r="G171" s="4"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="6"/>
+      <c r="A172" s="5"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -2252,7 +2248,7 @@
       <c r="G172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6"/>
+      <c r="A173" s="5"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -2261,7 +2257,7 @@
       <c r="G173" s="4"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="6"/>
+      <c r="A174" s="5"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -2270,7 +2266,7 @@
       <c r="G174" s="4"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="6"/>
+      <c r="A175" s="5"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -2279,7 +2275,7 @@
       <c r="G175" s="4"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="6"/>
+      <c r="A176" s="5"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -2288,7 +2284,7 @@
       <c r="G176" s="4"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="6"/>
+      <c r="A177" s="5"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -2297,7 +2293,7 @@
       <c r="G177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="6"/>
+      <c r="A178" s="5"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -2306,7 +2302,7 @@
       <c r="G178" s="4"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="6"/>
+      <c r="A179" s="5"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -2315,7 +2311,7 @@
       <c r="G179" s="4"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="6"/>
+      <c r="A180" s="5"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -2324,7 +2320,7 @@
       <c r="G180" s="4"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="6"/>
+      <c r="A181" s="5"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -2333,7 +2329,7 @@
       <c r="G181" s="4"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="6"/>
+      <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -2342,7 +2338,7 @@
       <c r="G182" s="4"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="6"/>
+      <c r="A183" s="5"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -2351,7 +2347,7 @@
       <c r="G183" s="4"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="6"/>
+      <c r="A184" s="5"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -2360,7 +2356,7 @@
       <c r="G184" s="4"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="6"/>
+      <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -2369,7 +2365,7 @@
       <c r="G185" s="4"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="6"/>
+      <c r="A186" s="5"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -2378,7 +2374,7 @@
       <c r="G186" s="4"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="6"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -2387,7 +2383,7 @@
       <c r="G187" s="4"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="6"/>
+      <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -2396,7 +2392,7 @@
       <c r="G188" s="4"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6"/>
+      <c r="A189" s="5"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -2405,7 +2401,7 @@
       <c r="G189" s="4"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6"/>
+      <c r="A190" s="5"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -2414,7 +2410,7 @@
       <c r="G190" s="4"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="6"/>
+      <c r="A191" s="5"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -2423,7 +2419,7 @@
       <c r="G191" s="4"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="6"/>
+      <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -2432,7 +2428,7 @@
       <c r="G192" s="4"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="6"/>
+      <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -2441,7 +2437,7 @@
       <c r="G193" s="4"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="6"/>
+      <c r="A194" s="5"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -2450,7 +2446,7 @@
       <c r="G194" s="4"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="6"/>
+      <c r="A195" s="5"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -2459,7 +2455,7 @@
       <c r="G195" s="4"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="6"/>
+      <c r="A196" s="5"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -2468,7 +2464,7 @@
       <c r="G196" s="4"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="6"/>
+      <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -2477,7 +2473,7 @@
       <c r="G197" s="4"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="6"/>
+      <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -2486,7 +2482,7 @@
       <c r="G198" s="4"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="6"/>
+      <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -2495,7 +2491,7 @@
       <c r="G199" s="4"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="6"/>
+      <c r="A200" s="5"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -2504,7 +2500,7 @@
       <c r="G200" s="4"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="6"/>
+      <c r="A201" s="5"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -2513,7 +2509,7 @@
       <c r="G201" s="4"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="6"/>
+      <c r="A202" s="5"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -2522,7 +2518,7 @@
       <c r="G202" s="4"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="6"/>
+      <c r="A203" s="5"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -2531,7 +2527,7 @@
       <c r="G203" s="4"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="6"/>
+      <c r="A204" s="5"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -2540,7 +2536,7 @@
       <c r="G204" s="4"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="6"/>
+      <c r="A205" s="5"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -2549,7 +2545,7 @@
       <c r="G205" s="4"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="6"/>
+      <c r="A206" s="5"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -2558,7 +2554,7 @@
       <c r="G206" s="4"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6"/>
+      <c r="A207" s="5"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -2567,7 +2563,7 @@
       <c r="G207" s="4"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="6"/>
+      <c r="A208" s="5"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -2576,7 +2572,7 @@
       <c r="G208" s="4"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="6"/>
+      <c r="A209" s="5"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -2585,7 +2581,7 @@
       <c r="G209" s="4"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="6"/>
+      <c r="A210" s="5"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -2594,7 +2590,7 @@
       <c r="G210" s="4"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="6"/>
+      <c r="A211" s="5"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -2603,7 +2599,7 @@
       <c r="G211" s="4"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="6"/>
+      <c r="A212" s="5"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -2612,7 +2608,7 @@
       <c r="G212" s="4"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="6"/>
+      <c r="A213" s="5"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -2621,7 +2617,7 @@
       <c r="G213" s="4"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="6"/>
+      <c r="A214" s="5"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -2630,7 +2626,7 @@
       <c r="G214" s="4"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="6"/>
+      <c r="A215" s="5"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -2639,7 +2635,7 @@
       <c r="G215" s="4"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="6"/>
+      <c r="A216" s="5"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -2648,7 +2644,7 @@
       <c r="G216" s="4"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="6"/>
+      <c r="A217" s="5"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -2657,7 +2653,7 @@
       <c r="G217" s="4"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="6"/>
+      <c r="A218" s="5"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -2666,7 +2662,7 @@
       <c r="G218" s="4"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="6"/>
+      <c r="A219" s="5"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -2675,7 +2671,7 @@
       <c r="G219" s="4"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="6"/>
+      <c r="A220" s="5"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -2684,7 +2680,7 @@
       <c r="G220" s="4"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="6"/>
+      <c r="A221" s="5"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -2693,7 +2689,7 @@
       <c r="G221" s="4"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="6"/>
+      <c r="A222" s="5"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -2702,7 +2698,7 @@
       <c r="G222" s="4"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="6"/>
+      <c r="A223" s="5"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -2711,7 +2707,7 @@
       <c r="G223" s="4"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="6"/>
+      <c r="A224" s="5"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -2720,7 +2716,7 @@
       <c r="G224" s="4"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="6"/>
+      <c r="A225" s="5"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -2729,7 +2725,7 @@
       <c r="G225" s="4"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="6"/>
+      <c r="A226" s="5"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -2738,7 +2734,7 @@
       <c r="G226" s="4"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="6"/>
+      <c r="A227" s="5"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -2747,7 +2743,7 @@
       <c r="G227" s="4"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="6"/>
+      <c r="A228" s="5"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -2756,7 +2752,7 @@
       <c r="G228" s="4"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="6"/>
+      <c r="A229" s="5"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -2765,7 +2761,7 @@
       <c r="G229" s="4"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="6"/>
+      <c r="A230" s="5"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2774,7 +2770,7 @@
       <c r="G230" s="4"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="6"/>
+      <c r="A231" s="5"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2783,7 +2779,7 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="6"/>
+      <c r="A232" s="5"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2792,7 +2788,7 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="6"/>
+      <c r="A233" s="5"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2801,7 +2797,7 @@
       <c r="G233" s="4"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="6"/>
+      <c r="A234" s="5"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2810,7 +2806,7 @@
       <c r="G234" s="4"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="6"/>
+      <c r="A235" s="5"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2819,7 +2815,7 @@
       <c r="G235" s="4"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="6"/>
+      <c r="A236" s="5"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2828,7 +2824,7 @@
       <c r="G236" s="4"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="6"/>
+      <c r="A237" s="5"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2837,7 +2833,7 @@
       <c r="G237" s="4"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="6"/>
+      <c r="A238" s="5"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2846,7 +2842,7 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="6"/>
+      <c r="A239" s="5"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2855,7 +2851,7 @@
       <c r="G239" s="4"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="6"/>
+      <c r="A240" s="5"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2864,7 +2860,7 @@
       <c r="G240" s="4"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="6"/>
+      <c r="A241" s="5"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2873,7 +2869,7 @@
       <c r="G241" s="4"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="6"/>
+      <c r="A242" s="5"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -2882,7 +2878,7 @@
       <c r="G242" s="4"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="6"/>
+      <c r="A243" s="5"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -2891,7 +2887,7 @@
       <c r="G243" s="4"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="6"/>
+      <c r="A244" s="5"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -2900,7 +2896,7 @@
       <c r="G244" s="4"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="6"/>
+      <c r="A245" s="5"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -2909,7 +2905,7 @@
       <c r="G245" s="4"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="6"/>
+      <c r="A246" s="5"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -2918,7 +2914,7 @@
       <c r="G246" s="4"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="6"/>
+      <c r="A247" s="5"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -2927,7 +2923,7 @@
       <c r="G247" s="4"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="6"/>
+      <c r="A248" s="5"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -2936,7 +2932,7 @@
       <c r="G248" s="4"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="6"/>
+      <c r="A249" s="5"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -2945,7 +2941,7 @@
       <c r="G249" s="4"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="6"/>
+      <c r="A250" s="5"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -2954,7 +2950,7 @@
       <c r="G250" s="4"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="6"/>
+      <c r="A251" s="5"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -2963,7 +2959,7 @@
       <c r="G251" s="4"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="6"/>
+      <c r="A252" s="5"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -2972,7 +2968,7 @@
       <c r="G252" s="4"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="6"/>
+      <c r="A253" s="5"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -2981,7 +2977,7 @@
       <c r="G253" s="4"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="6"/>
+      <c r="A254" s="5"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -2990,7 +2986,7 @@
       <c r="G254" s="4"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="6"/>
+      <c r="A255" s="5"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -2999,7 +2995,7 @@
       <c r="G255" s="4"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="6"/>
+      <c r="A256" s="5"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -3008,7 +3004,7 @@
       <c r="G256" s="4"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="6"/>
+      <c r="A257" s="5"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -3017,7 +3013,7 @@
       <c r="G257" s="4"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="6"/>
+      <c r="A258" s="5"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -3026,7 +3022,7 @@
       <c r="G258" s="4"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="6"/>
+      <c r="A259" s="5"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -3035,7 +3031,7 @@
       <c r="G259" s="4"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="6"/>
+      <c r="A260" s="5"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -3044,7 +3040,7 @@
       <c r="G260" s="4"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6"/>
+      <c r="A261" s="5"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -3053,7 +3049,7 @@
       <c r="G261" s="4"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="6"/>
+      <c r="A262" s="5"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -3062,7 +3058,7 @@
       <c r="G262" s="4"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="6"/>
+      <c r="A263" s="5"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -3071,7 +3067,7 @@
       <c r="G263" s="4"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="6"/>
+      <c r="A264" s="5"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -3080,7 +3076,7 @@
       <c r="G264" s="4"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="6"/>
+      <c r="A265" s="5"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -3089,7 +3085,7 @@
       <c r="G265" s="4"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="6"/>
+      <c r="A266" s="5"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -3098,7 +3094,7 @@
       <c r="G266" s="4"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="6"/>
+      <c r="A267" s="5"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -3107,7 +3103,7 @@
       <c r="G267" s="4"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="6"/>
+      <c r="A268" s="5"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -3116,7 +3112,7 @@
       <c r="G268" s="4"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="6"/>
+      <c r="A269" s="5"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -3125,7 +3121,7 @@
       <c r="G269" s="4"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="6"/>
+      <c r="A270" s="5"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -3134,7 +3130,7 @@
       <c r="G270" s="4"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="6"/>
+      <c r="A271" s="5"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -3143,7 +3139,7 @@
       <c r="G271" s="4"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="6"/>
+      <c r="A272" s="5"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -3152,7 +3148,7 @@
       <c r="G272" s="4"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="6"/>
+      <c r="A273" s="5"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -3161,7 +3157,7 @@
       <c r="G273" s="4"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="6"/>
+      <c r="A274" s="5"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -3170,7 +3166,7 @@
       <c r="G274" s="4"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="6"/>
+      <c r="A275" s="5"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -3179,7 +3175,7 @@
       <c r="G275" s="4"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="6"/>
+      <c r="A276" s="5"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -3188,7 +3184,7 @@
       <c r="G276" s="4"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="6"/>
+      <c r="A277" s="5"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -3197,7 +3193,7 @@
       <c r="G277" s="4"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="6"/>
+      <c r="A278" s="5"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -3206,7 +3202,7 @@
       <c r="G278" s="4"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="6"/>
+      <c r="A279" s="5"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -3215,7 +3211,7 @@
       <c r="G279" s="4"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="6"/>
+      <c r="A280" s="5"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -3224,7 +3220,7 @@
       <c r="G280" s="4"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="6"/>
+      <c r="A281" s="5"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -3233,7 +3229,7 @@
       <c r="G281" s="4"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="6"/>
+      <c r="A282" s="5"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -3242,7 +3238,7 @@
       <c r="G282" s="4"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="6"/>
+      <c r="A283" s="5"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -3251,7 +3247,7 @@
       <c r="G283" s="4"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="6"/>
+      <c r="A284" s="5"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -3260,7 +3256,7 @@
       <c r="G284" s="4"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="6"/>
+      <c r="A285" s="5"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -3269,7 +3265,7 @@
       <c r="G285" s="4"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="6"/>
+      <c r="A286" s="5"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -3278,7 +3274,7 @@
       <c r="G286" s="4"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="6"/>
+      <c r="A287" s="5"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -3287,7 +3283,7 @@
       <c r="G287" s="4"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="6"/>
+      <c r="A288" s="5"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -3296,7 +3292,7 @@
       <c r="G288" s="4"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="6"/>
+      <c r="A289" s="5"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -3305,7 +3301,7 @@
       <c r="G289" s="4"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="6"/>
+      <c r="A290" s="5"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -3314,7 +3310,7 @@
       <c r="G290" s="4"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="6"/>
+      <c r="A291" s="5"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -3323,7 +3319,7 @@
       <c r="G291" s="4"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="6"/>
+      <c r="A292" s="5"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -3332,7 +3328,7 @@
       <c r="G292" s="4"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="6"/>
+      <c r="A293" s="5"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -3341,7 +3337,7 @@
       <c r="G293" s="4"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="6"/>
+      <c r="A294" s="5"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -3350,7 +3346,7 @@
       <c r="G294" s="4"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="6"/>
+      <c r="A295" s="5"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -3359,7 +3355,7 @@
       <c r="G295" s="4"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="6"/>
+      <c r="A296" s="5"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -3368,7 +3364,7 @@
       <c r="G296" s="4"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="6"/>
+      <c r="A297" s="5"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -3377,7 +3373,7 @@
       <c r="G297" s="4"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="6"/>
+      <c r="A298" s="5"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -3386,7 +3382,7 @@
       <c r="G298" s="4"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="6"/>
+      <c r="A299" s="5"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -3395,7 +3391,7 @@
       <c r="G299" s="4"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="6"/>
+      <c r="A300" s="5"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -3404,7 +3400,7 @@
       <c r="G300" s="4"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="6"/>
+      <c r="A301" s="5"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -3413,7 +3409,7 @@
       <c r="G301" s="4"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="6"/>
+      <c r="A302" s="5"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -3422,7 +3418,7 @@
       <c r="G302" s="4"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="6"/>
+      <c r="A303" s="5"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -3431,7 +3427,7 @@
       <c r="G303" s="4"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="6"/>
+      <c r="A304" s="5"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -3440,7 +3436,7 @@
       <c r="G304" s="4"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="6"/>
+      <c r="A305" s="5"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -3449,7 +3445,7 @@
       <c r="G305" s="4"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="6"/>
+      <c r="A306" s="5"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -3458,7 +3454,7 @@
       <c r="G306" s="4"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="6"/>
+      <c r="A307" s="5"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -3467,7 +3463,7 @@
       <c r="G307" s="4"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="6"/>
+      <c r="A308" s="5"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -3476,7 +3472,7 @@
       <c r="G308" s="4"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="6"/>
+      <c r="A309" s="5"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -3485,7 +3481,7 @@
       <c r="G309" s="4"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="6"/>
+      <c r="A310" s="5"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -3494,7 +3490,7 @@
       <c r="G310" s="4"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="6"/>
+      <c r="A311" s="5"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -3503,7 +3499,7 @@
       <c r="G311" s="4"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="6"/>
+      <c r="A312" s="5"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -3512,7 +3508,7 @@
       <c r="G312" s="4"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="6"/>
+      <c r="A313" s="5"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -3521,7 +3517,7 @@
       <c r="G313" s="4"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="6"/>
+      <c r="A314" s="5"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -3530,7 +3526,7 @@
       <c r="G314" s="4"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="6"/>
+      <c r="A315" s="5"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -3539,7 +3535,7 @@
       <c r="G315" s="4"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="6"/>
+      <c r="A316" s="5"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -3548,7 +3544,7 @@
       <c r="G316" s="4"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="6"/>
+      <c r="A317" s="5"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -3557,7 +3553,7 @@
       <c r="G317" s="4"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="6"/>
+      <c r="A318" s="5"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -3566,7 +3562,7 @@
       <c r="G318" s="4"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="6"/>
+      <c r="A319" s="5"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -3575,7 +3571,7 @@
       <c r="G319" s="4"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="6"/>
+      <c r="A320" s="5"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -3584,7 +3580,7 @@
       <c r="G320" s="4"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="6"/>
+      <c r="A321" s="5"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -3593,7 +3589,7 @@
       <c r="G321" s="4"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="6"/>
+      <c r="A322" s="5"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -3602,7 +3598,7 @@
       <c r="G322" s="4"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="6"/>
+      <c r="A323" s="5"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -3611,7 +3607,7 @@
       <c r="G323" s="4"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="6"/>
+      <c r="A324" s="5"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -3620,7 +3616,7 @@
       <c r="G324" s="4"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="6"/>
+      <c r="A325" s="5"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -3629,7 +3625,7 @@
       <c r="G325" s="4"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="6"/>
+      <c r="A326" s="5"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -3638,7 +3634,7 @@
       <c r="G326" s="4"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="6"/>
+      <c r="A327" s="5"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -3647,7 +3643,7 @@
       <c r="G327" s="4"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="6"/>
+      <c r="A328" s="5"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -3656,7 +3652,7 @@
       <c r="G328" s="4"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="6"/>
+      <c r="A329" s="5"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -3665,7 +3661,7 @@
       <c r="G329" s="4"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="6"/>
+      <c r="A330" s="5"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -3674,7 +3670,7 @@
       <c r="G330" s="4"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="6"/>
+      <c r="A331" s="5"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -3683,7 +3679,7 @@
       <c r="G331" s="4"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="6"/>
+      <c r="A332" s="5"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -3692,7 +3688,7 @@
       <c r="G332" s="4"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="6"/>
+      <c r="A333" s="5"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -3701,7 +3697,7 @@
       <c r="G333" s="4"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="6"/>
+      <c r="A334" s="5"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -3710,7 +3706,7 @@
       <c r="G334" s="4"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="6"/>
+      <c r="A335" s="5"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -3719,7 +3715,7 @@
       <c r="G335" s="4"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="6"/>
+      <c r="A336" s="5"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -3728,7 +3724,7 @@
       <c r="G336" s="4"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="6"/>
+      <c r="A337" s="5"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -3737,7 +3733,7 @@
       <c r="G337" s="4"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="6"/>
+      <c r="A338" s="5"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -3746,7 +3742,7 @@
       <c r="G338" s="4"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="6"/>
+      <c r="A339" s="5"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -3755,7 +3751,7 @@
       <c r="G339" s="4"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="6"/>
+      <c r="A340" s="5"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -3764,7 +3760,7 @@
       <c r="G340" s="4"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="6"/>
+      <c r="A341" s="5"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -3773,7 +3769,7 @@
       <c r="G341" s="4"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="6"/>
+      <c r="A342" s="5"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -3782,7 +3778,7 @@
       <c r="G342" s="4"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="6"/>
+      <c r="A343" s="5"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -3791,7 +3787,7 @@
       <c r="G343" s="4"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="6"/>
+      <c r="A344" s="5"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -3800,7 +3796,7 @@
       <c r="G344" s="4"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="6"/>
+      <c r="A345" s="5"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -3809,7 +3805,7 @@
       <c r="G345" s="4"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="6"/>
+      <c r="A346" s="5"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -3818,7 +3814,7 @@
       <c r="G346" s="4"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="6"/>
+      <c r="A347" s="5"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -3827,7 +3823,7 @@
       <c r="G347" s="4"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="6"/>
+      <c r="A348" s="5"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -3836,7 +3832,7 @@
       <c r="G348" s="4"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="6"/>
+      <c r="A349" s="5"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -3845,7 +3841,7 @@
       <c r="G349" s="4"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="6"/>
+      <c r="A350" s="5"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -3854,7 +3850,7 @@
       <c r="G350" s="4"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="6"/>
+      <c r="A351" s="5"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -3863,7 +3859,7 @@
       <c r="G351" s="4"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="6"/>
+      <c r="A352" s="5"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -3872,7 +3868,7 @@
       <c r="G352" s="4"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="6"/>
+      <c r="A353" s="5"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -3881,7 +3877,7 @@
       <c r="G353" s="4"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="6"/>
+      <c r="A354" s="5"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -3890,7 +3886,7 @@
       <c r="G354" s="4"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="6"/>
+      <c r="A355" s="5"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -3899,7 +3895,7 @@
       <c r="G355" s="4"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="6"/>
+      <c r="A356" s="5"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -3908,7 +3904,7 @@
       <c r="G356" s="4"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="6"/>
+      <c r="A357" s="5"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -3917,7 +3913,7 @@
       <c r="G357" s="4"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="6"/>
+      <c r="A358" s="5"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -3926,7 +3922,7 @@
       <c r="G358" s="4"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="6"/>
+      <c r="A359" s="5"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -3935,7 +3931,7 @@
       <c r="G359" s="4"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="6"/>
+      <c r="A360" s="5"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -3944,7 +3940,7 @@
       <c r="G360" s="4"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="6"/>
+      <c r="A361" s="5"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -3953,7 +3949,7 @@
       <c r="G361" s="4"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="6"/>
+      <c r="A362" s="5"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -3962,7 +3958,7 @@
       <c r="G362" s="4"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="6"/>
+      <c r="A363" s="5"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -3971,7 +3967,7 @@
       <c r="G363" s="4"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="6"/>
+      <c r="A364" s="5"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -3980,7 +3976,7 @@
       <c r="G364" s="4"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="6"/>
+      <c r="A365" s="5"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -3989,7 +3985,7 @@
       <c r="G365" s="4"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="6"/>
+      <c r="A366" s="5"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -3998,7 +3994,7 @@
       <c r="G366" s="4"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="6"/>
+      <c r="A367" s="5"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -4007,7 +4003,7 @@
       <c r="G367" s="4"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="6"/>
+      <c r="A368" s="5"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -4016,7 +4012,7 @@
       <c r="G368" s="4"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="6"/>
+      <c r="A369" s="5"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -4025,7 +4021,7 @@
       <c r="G369" s="4"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="6"/>
+      <c r="A370" s="5"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -4034,7 +4030,7 @@
       <c r="G370" s="4"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="6"/>
+      <c r="A371" s="5"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -4043,7 +4039,7 @@
       <c r="G371" s="4"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="6"/>
+      <c r="A372" s="5"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -4052,7 +4048,7 @@
       <c r="G372" s="4"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="6"/>
+      <c r="A373" s="5"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -4061,7 +4057,7 @@
       <c r="G373" s="4"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="6"/>
+      <c r="A374" s="5"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -4070,7 +4066,7 @@
       <c r="G374" s="4"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="6"/>
+      <c r="A375" s="5"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -4079,7 +4075,7 @@
       <c r="G375" s="4"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="6"/>
+      <c r="A376" s="5"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -4088,7 +4084,7 @@
       <c r="G376" s="4"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="6"/>
+      <c r="A377" s="5"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -4097,7 +4093,7 @@
       <c r="G377" s="4"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="6"/>
+      <c r="A378" s="5"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -4106,7 +4102,7 @@
       <c r="G378" s="4"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="6"/>
+      <c r="A379" s="5"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -4115,7 +4111,7 @@
       <c r="G379" s="4"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="6"/>
+      <c r="A380" s="5"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -4124,7 +4120,7 @@
       <c r="G380" s="4"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="6"/>
+      <c r="A381" s="5"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -4133,7 +4129,7 @@
       <c r="G381" s="4"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="6"/>
+      <c r="A382" s="5"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -4142,7 +4138,7 @@
       <c r="G382" s="4"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="6"/>
+      <c r="A383" s="5"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -4151,7 +4147,7 @@
       <c r="G383" s="4"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="6"/>
+      <c r="A384" s="5"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -4160,7 +4156,7 @@
       <c r="G384" s="4"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="6"/>
+      <c r="A385" s="5"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -4169,7 +4165,7 @@
       <c r="G385" s="4"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="6"/>
+      <c r="A386" s="5"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -4178,7 +4174,7 @@
       <c r="G386" s="4"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="6"/>
+      <c r="A387" s="5"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -4187,7 +4183,7 @@
       <c r="G387" s="4"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="6"/>
+      <c r="A388" s="5"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -4196,7 +4192,7 @@
       <c r="G388" s="4"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="6"/>
+      <c r="A389" s="5"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -4205,7 +4201,7 @@
       <c r="G389" s="4"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="6"/>
+      <c r="A390" s="5"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -4214,7 +4210,7 @@
       <c r="G390" s="4"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="6"/>
+      <c r="A391" s="5"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -4223,7 +4219,7 @@
       <c r="G391" s="4"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="6"/>
+      <c r="A392" s="5"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -4232,7 +4228,7 @@
       <c r="G392" s="4"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="6"/>
+      <c r="A393" s="5"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -4241,7 +4237,7 @@
       <c r="G393" s="4"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="6"/>
+      <c r="A394" s="5"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -4250,7 +4246,7 @@
       <c r="G394" s="4"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="6"/>
+      <c r="A395" s="5"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -4259,7 +4255,7 @@
       <c r="G395" s="4"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="6"/>
+      <c r="A396" s="5"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -4268,7 +4264,7 @@
       <c r="G396" s="4"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="6"/>
+      <c r="A397" s="5"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -4277,7 +4273,7 @@
       <c r="G397" s="4"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="6"/>
+      <c r="A398" s="5"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -4286,7 +4282,7 @@
       <c r="G398" s="4"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="6"/>
+      <c r="A399" s="5"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -4295,7 +4291,7 @@
       <c r="G399" s="4"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="6"/>
+      <c r="A400" s="5"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -4304,7 +4300,7 @@
       <c r="G400" s="4"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="6"/>
+      <c r="A401" s="5"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -4313,7 +4309,7 @@
       <c r="G401" s="4"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="6"/>
+      <c r="A402" s="5"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -4322,7 +4318,7 @@
       <c r="G402" s="4"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="6"/>
+      <c r="A403" s="5"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -4331,7 +4327,7 @@
       <c r="G403" s="4"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="6"/>
+      <c r="A404" s="5"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -4340,7 +4336,7 @@
       <c r="G404" s="4"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="6"/>
+      <c r="A405" s="5"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -4349,7 +4345,7 @@
       <c r="G405" s="4"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="6"/>
+      <c r="A406" s="5"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -4358,7 +4354,7 @@
       <c r="G406" s="4"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="6"/>
+      <c r="A407" s="5"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -4367,7 +4363,7 @@
       <c r="G407" s="4"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="6"/>
+      <c r="A408" s="5"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -4376,7 +4372,7 @@
       <c r="G408" s="4"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="6"/>
+      <c r="A409" s="5"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -4385,7 +4381,7 @@
       <c r="G409" s="4"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="6"/>
+      <c r="A410" s="5"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -4394,7 +4390,7 @@
       <c r="G410" s="4"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="6"/>
+      <c r="A411" s="5"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -4403,7 +4399,7 @@
       <c r="G411" s="4"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="6"/>
+      <c r="A412" s="5"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -4412,7 +4408,7 @@
       <c r="G412" s="4"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="6"/>
+      <c r="A413" s="5"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -4421,7 +4417,7 @@
       <c r="G413" s="4"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="6"/>
+      <c r="A414" s="5"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -4430,7 +4426,7 @@
       <c r="G414" s="4"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="6"/>
+      <c r="A415" s="5"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -4439,7 +4435,7 @@
       <c r="G415" s="4"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="6"/>
+      <c r="A416" s="5"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -4448,7 +4444,7 @@
       <c r="G416" s="4"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="6"/>
+      <c r="A417" s="5"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -4457,7 +4453,7 @@
       <c r="G417" s="4"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="6"/>
+      <c r="A418" s="5"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -4466,7 +4462,7 @@
       <c r="G418" s="4"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="6"/>
+      <c r="A419" s="5"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -4475,7 +4471,7 @@
       <c r="G419" s="4"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="6"/>
+      <c r="A420" s="5"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -4484,7 +4480,7 @@
       <c r="G420" s="4"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="6"/>
+      <c r="A421" s="5"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -4493,7 +4489,7 @@
       <c r="G421" s="4"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="6"/>
+      <c r="A422" s="5"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -4502,7 +4498,7 @@
       <c r="G422" s="4"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="6"/>
+      <c r="A423" s="5"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -4511,7 +4507,7 @@
       <c r="G423" s="4"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="6"/>
+      <c r="A424" s="5"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -4520,7 +4516,7 @@
       <c r="G424" s="4"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="6"/>
+      <c r="A425" s="5"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -4529,7 +4525,7 @@
       <c r="G425" s="4"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="6"/>
+      <c r="A426" s="5"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -4538,7 +4534,7 @@
       <c r="G426" s="4"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="6"/>
+      <c r="A427" s="5"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -4547,7 +4543,7 @@
       <c r="G427" s="4"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="6"/>
+      <c r="A428" s="5"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -4556,7 +4552,7 @@
       <c r="G428" s="4"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="6"/>
+      <c r="A429" s="5"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -4565,7 +4561,7 @@
       <c r="G429" s="4"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="6"/>
+      <c r="A430" s="5"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -4574,7 +4570,7 @@
       <c r="G430" s="4"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="6"/>
+      <c r="A431" s="5"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -4583,7 +4579,7 @@
       <c r="G431" s="4"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="6"/>
+      <c r="A432" s="5"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -4592,7 +4588,7 @@
       <c r="G432" s="4"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="6"/>
+      <c r="A433" s="5"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -4601,7 +4597,7 @@
       <c r="G433" s="4"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="6"/>
+      <c r="A434" s="5"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -4610,7 +4606,7 @@
       <c r="G434" s="4"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="6"/>
+      <c r="A435" s="5"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -4619,7 +4615,7 @@
       <c r="G435" s="4"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="6"/>
+      <c r="A436" s="5"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -4628,7 +4624,7 @@
       <c r="G436" s="4"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="6"/>
+      <c r="A437" s="5"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -4637,7 +4633,7 @@
       <c r="G437" s="4"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="6"/>
+      <c r="A438" s="5"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -4646,7 +4642,7 @@
       <c r="G438" s="4"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="6"/>
+      <c r="A439" s="5"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -4655,7 +4651,7 @@
       <c r="G439" s="4"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="6"/>
+      <c r="A440" s="5"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -4664,7 +4660,7 @@
       <c r="G440" s="4"/>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="6"/>
+      <c r="A441" s="5"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -4673,7 +4669,7 @@
       <c r="G441" s="4"/>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="6"/>
+      <c r="A442" s="5"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4682,7 +4678,7 @@
       <c r="G442" s="4"/>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="6"/>
+      <c r="A443" s="5"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4691,7 +4687,7 @@
       <c r="G443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="6"/>
+      <c r="A444" s="5"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -4700,7 +4696,7 @@
       <c r="G444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="6"/>
+      <c r="A445" s="5"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4709,7 +4705,7 @@
       <c r="G445" s="4"/>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="6"/>
+      <c r="A446" s="5"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4718,7 +4714,7 @@
       <c r="G446" s="4"/>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="6"/>
+      <c r="A447" s="5"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -4727,7 +4723,7 @@
       <c r="G447" s="4"/>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="6"/>
+      <c r="A448" s="5"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -4736,7 +4732,7 @@
       <c r="G448" s="4"/>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="6"/>
+      <c r="A449" s="5"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -4745,7 +4741,7 @@
       <c r="G449" s="4"/>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="6"/>
+      <c r="A450" s="5"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -4754,7 +4750,7 @@
       <c r="G450" s="4"/>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="6"/>
+      <c r="A451" s="5"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -4763,7 +4759,7 @@
       <c r="G451" s="4"/>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="6"/>
+      <c r="A452" s="5"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -4772,7 +4768,7 @@
       <c r="G452" s="4"/>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="6"/>
+      <c r="A453" s="5"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -4781,7 +4777,7 @@
       <c r="G453" s="4"/>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="6"/>
+      <c r="A454" s="5"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -4790,7 +4786,7 @@
       <c r="G454" s="4"/>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="6"/>
+      <c r="A455" s="5"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -4799,7 +4795,7 @@
       <c r="G455" s="4"/>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="6"/>
+      <c r="A456" s="5"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -4808,7 +4804,7 @@
       <c r="G456" s="4"/>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="6"/>
+      <c r="A457" s="5"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -4817,7 +4813,7 @@
       <c r="G457" s="4"/>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="6"/>
+      <c r="A458" s="5"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -4826,7 +4822,7 @@
       <c r="G458" s="4"/>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="6"/>
+      <c r="A459" s="5"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -4835,7 +4831,7 @@
       <c r="G459" s="4"/>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="6"/>
+      <c r="A460" s="5"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -4844,7 +4840,7 @@
       <c r="G460" s="4"/>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="6"/>
+      <c r="A461" s="5"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -4853,7 +4849,7 @@
       <c r="G461" s="4"/>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="6"/>
+      <c r="A462" s="5"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -4862,7 +4858,7 @@
       <c r="G462" s="4"/>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="6"/>
+      <c r="A463" s="5"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -4871,7 +4867,7 @@
       <c r="G463" s="4"/>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="6"/>
+      <c r="A464" s="5"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -4880,7 +4876,7 @@
       <c r="G464" s="4"/>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="6"/>
+      <c r="A465" s="5"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -4889,7 +4885,7 @@
       <c r="G465" s="4"/>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="6"/>
+      <c r="A466" s="5"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4898,7 +4894,7 @@
       <c r="G466" s="4"/>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="6"/>
+      <c r="A467" s="5"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -4907,7 +4903,7 @@
       <c r="G467" s="4"/>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="6"/>
+      <c r="A468" s="5"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -4916,7 +4912,7 @@
       <c r="G468" s="4"/>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="6"/>
+      <c r="A469" s="5"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -4925,7 +4921,7 @@
       <c r="G469" s="4"/>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="6"/>
+      <c r="A470" s="5"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -4934,7 +4930,7 @@
       <c r="G470" s="4"/>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="6"/>
+      <c r="A471" s="5"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -4943,7 +4939,7 @@
       <c r="G471" s="4"/>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="6"/>
+      <c r="A472" s="5"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -4952,7 +4948,7 @@
       <c r="G472" s="4"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="6"/>
+      <c r="A473" s="5"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -4961,7 +4957,7 @@
       <c r="G473" s="4"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="6"/>
+      <c r="A474" s="5"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -4970,7 +4966,7 @@
       <c r="G474" s="4"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="6"/>
+      <c r="A475" s="5"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -4979,7 +4975,7 @@
       <c r="G475" s="4"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="6"/>
+      <c r="A476" s="5"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -4988,7 +4984,7 @@
       <c r="G476" s="4"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="6"/>
+      <c r="A477" s="5"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -4997,7 +4993,7 @@
       <c r="G477" s="4"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="6"/>
+      <c r="A478" s="5"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -5006,7 +5002,7 @@
       <c r="G478" s="4"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="6"/>
+      <c r="A479" s="5"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -5015,7 +5011,7 @@
       <c r="G479" s="4"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="6"/>
+      <c r="A480" s="5"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -5024,7 +5020,7 @@
       <c r="G480" s="4"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="6"/>
+      <c r="A481" s="5"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -5033,7 +5029,7 @@
       <c r="G481" s="4"/>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="6"/>
+      <c r="A482" s="5"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -5042,7 +5038,7 @@
       <c r="G482" s="4"/>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="6"/>
+      <c r="A483" s="5"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -5051,7 +5047,7 @@
       <c r="G483" s="4"/>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="6"/>
+      <c r="A484" s="5"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -5060,7 +5056,7 @@
       <c r="G484" s="4"/>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="6"/>
+      <c r="A485" s="5"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -5069,7 +5065,7 @@
       <c r="G485" s="4"/>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="6"/>
+      <c r="A486" s="5"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -5078,7 +5074,7 @@
       <c r="G486" s="4"/>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="6"/>
+      <c r="A487" s="5"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -5087,7 +5083,7 @@
       <c r="G487" s="4"/>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="6"/>
+      <c r="A488" s="5"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -5096,7 +5092,7 @@
       <c r="G488" s="4"/>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="6"/>
+      <c r="A489" s="5"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -5105,7 +5101,7 @@
       <c r="G489" s="4"/>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="6"/>
+      <c r="A490" s="5"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -5114,7 +5110,7 @@
       <c r="G490" s="4"/>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="6"/>
+      <c r="A491" s="5"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -5123,7 +5119,7 @@
       <c r="G491" s="4"/>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="6"/>
+      <c r="A492" s="5"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -5132,7 +5128,7 @@
       <c r="G492" s="4"/>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="6"/>
+      <c r="A493" s="5"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -5141,7 +5137,7 @@
       <c r="G493" s="4"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="6"/>
+      <c r="A494" s="5"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -5150,7 +5146,7 @@
       <c r="G494" s="4"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="6"/>
+      <c r="A495" s="5"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -5159,7 +5155,7 @@
       <c r="G495" s="4"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="6"/>
+      <c r="A496" s="5"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -5168,7 +5164,7 @@
       <c r="G496" s="4"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="6"/>
+      <c r="A497" s="5"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -5177,7 +5173,7 @@
       <c r="G497" s="4"/>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="6"/>
+      <c r="A498" s="5"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -5186,7 +5182,7 @@
       <c r="G498" s="4"/>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="6"/>
+      <c r="A499" s="5"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -5195,7 +5191,7 @@
       <c r="G499" s="4"/>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="6"/>
+      <c r="A500" s="5"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -5204,7 +5200,7 @@
       <c r="G500" s="4"/>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="6"/>
+      <c r="A501" s="5"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -5213,7 +5209,7 @@
       <c r="G501" s="4"/>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="6"/>
+      <c r="A502" s="5"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -5222,7 +5218,7 @@
       <c r="G502" s="4"/>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="6"/>
+      <c r="A503" s="5"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -5231,7 +5227,7 @@
       <c r="G503" s="4"/>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="6"/>
+      <c r="A504" s="5"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -5240,7 +5236,7 @@
       <c r="G504" s="4"/>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="6"/>
+      <c r="A505" s="5"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -5249,7 +5245,7 @@
       <c r="G505" s="4"/>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="6"/>
+      <c r="A506" s="5"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -5258,7 +5254,7 @@
       <c r="G506" s="4"/>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="6"/>
+      <c r="A507" s="5"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -5267,7 +5263,7 @@
       <c r="G507" s="4"/>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="6"/>
+      <c r="A508" s="5"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -5276,7 +5272,7 @@
       <c r="G508" s="4"/>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="6"/>
+      <c r="A509" s="5"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -5285,7 +5281,7 @@
       <c r="G509" s="4"/>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="6"/>
+      <c r="A510" s="5"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -5294,7 +5290,7 @@
       <c r="G510" s="4"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="6"/>
+      <c r="A511" s="5"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -5303,7 +5299,7 @@
       <c r="G511" s="4"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="6"/>
+      <c r="A512" s="5"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -5312,7 +5308,7 @@
       <c r="G512" s="4"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="6"/>
+      <c r="A513" s="5"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -5321,7 +5317,7 @@
       <c r="G513" s="4"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="6"/>
+      <c r="A514" s="5"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -5330,7 +5326,7 @@
       <c r="G514" s="4"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="6"/>
+      <c r="A515" s="5"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -5339,7 +5335,7 @@
       <c r="G515" s="4"/>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="6"/>
+      <c r="A516" s="5"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -5348,7 +5344,7 @@
       <c r="G516" s="4"/>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="6"/>
+      <c r="A517" s="5"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -5357,7 +5353,7 @@
       <c r="G517" s="4"/>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="6"/>
+      <c r="A518" s="5"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -5366,7 +5362,7 @@
       <c r="G518" s="4"/>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="6"/>
+      <c r="A519" s="5"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -5375,7 +5371,7 @@
       <c r="G519" s="4"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="6"/>
+      <c r="A520" s="5"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -5384,7 +5380,7 @@
       <c r="G520" s="4"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="6"/>
+      <c r="A521" s="5"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -5393,7 +5389,7 @@
       <c r="G521" s="4"/>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="6"/>
+      <c r="A522" s="5"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -5402,7 +5398,7 @@
       <c r="G522" s="4"/>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="6"/>
+      <c r="A523" s="5"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -5411,7 +5407,7 @@
       <c r="G523" s="4"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="6"/>
+      <c r="A524" s="5"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -5420,7 +5416,7 @@
       <c r="G524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="6"/>
+      <c r="A525" s="5"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -5429,7 +5425,7 @@
       <c r="G525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="6"/>
+      <c r="A526" s="5"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -5438,7 +5434,7 @@
       <c r="G526" s="4"/>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="6"/>
+      <c r="A527" s="5"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -5447,7 +5443,7 @@
       <c r="G527" s="4"/>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="6"/>
+      <c r="A528" s="5"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -5456,7 +5452,7 @@
       <c r="G528" s="4"/>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="6"/>
+      <c r="A529" s="5"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -5465,7 +5461,7 @@
       <c r="G529" s="4"/>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="6"/>
+      <c r="A530" s="5"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -5474,7 +5470,7 @@
       <c r="G530" s="4"/>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="6"/>
+      <c r="A531" s="5"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -5483,7 +5479,7 @@
       <c r="G531" s="4"/>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="6"/>
+      <c r="A532" s="5"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -5492,7 +5488,7 @@
       <c r="G532" s="4"/>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="6"/>
+      <c r="A533" s="5"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -5501,7 +5497,7 @@
       <c r="G533" s="4"/>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="6"/>
+      <c r="A534" s="5"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -5510,7 +5506,7 @@
       <c r="G534" s="4"/>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="6"/>
+      <c r="A535" s="5"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -5519,7 +5515,7 @@
       <c r="G535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="6"/>
+      <c r="A536" s="5"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -5528,7 +5524,7 @@
       <c r="G536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="6"/>
+      <c r="A537" s="5"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -5537,7 +5533,7 @@
       <c r="G537" s="4"/>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="6"/>
+      <c r="A538" s="5"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -5546,7 +5542,7 @@
       <c r="G538" s="4"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="6"/>
+      <c r="A539" s="5"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -5555,7 +5551,7 @@
       <c r="G539" s="4"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="6"/>
+      <c r="A540" s="5"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -5564,7 +5560,7 @@
       <c r="G540" s="4"/>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="6"/>
+      <c r="A541" s="5"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -5573,7 +5569,7 @@
       <c r="G541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="6"/>
+      <c r="A542" s="5"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -5582,7 +5578,7 @@
       <c r="G542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="6"/>
+      <c r="A543" s="5"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -5591,7 +5587,7 @@
       <c r="G543" s="4"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="6"/>
+      <c r="A544" s="5"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -5600,7 +5596,7 @@
       <c r="G544" s="4"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="6"/>
+      <c r="A545" s="5"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -5609,7 +5605,7 @@
       <c r="G545" s="4"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="6"/>
+      <c r="A546" s="5"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -5618,7 +5614,7 @@
       <c r="G546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="6"/>
+      <c r="A547" s="5"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -5627,7 +5623,7 @@
       <c r="G547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="6"/>
+      <c r="A548" s="5"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -5636,7 +5632,7 @@
       <c r="G548" s="4"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="6"/>
+      <c r="A549" s="5"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -5645,7 +5641,7 @@
       <c r="G549" s="4"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="6"/>
+      <c r="A550" s="5"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -5654,7 +5650,7 @@
       <c r="G550" s="4"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="6"/>
+      <c r="A551" s="5"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -5663,7 +5659,7 @@
       <c r="G551" s="4"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="6"/>
+      <c r="A552" s="5"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -5672,7 +5668,7 @@
       <c r="G552" s="4"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="6"/>
+      <c r="A553" s="5"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -5681,7 +5677,7 @@
       <c r="G553" s="4"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="6"/>
+      <c r="A554" s="5"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -5690,7 +5686,7 @@
       <c r="G554" s="4"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="6"/>
+      <c r="A555" s="5"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -5699,7 +5695,7 @@
       <c r="G555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="6"/>
+      <c r="A556" s="5"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -5708,7 +5704,7 @@
       <c r="G556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="6"/>
+      <c r="A557" s="5"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -5717,7 +5713,7 @@
       <c r="G557" s="4"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="6"/>
+      <c r="A558" s="5"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -5726,7 +5722,7 @@
       <c r="G558" s="4"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="6"/>
+      <c r="A559" s="5"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -5735,7 +5731,7 @@
       <c r="G559" s="4"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="6"/>
+      <c r="A560" s="5"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -5744,7 +5740,7 @@
       <c r="G560" s="4"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="6"/>
+      <c r="A561" s="5"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -5753,7 +5749,7 @@
       <c r="G561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="6"/>
+      <c r="A562" s="5"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -5762,7 +5758,7 @@
       <c r="G562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="6"/>
+      <c r="A563" s="5"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -5771,7 +5767,7 @@
       <c r="G563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="6"/>
+      <c r="A564" s="5"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -5780,7 +5776,7 @@
       <c r="G564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="6"/>
+      <c r="A565" s="5"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -5789,7 +5785,7 @@
       <c r="G565" s="4"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="6"/>
+      <c r="A566" s="5"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -5798,7 +5794,7 @@
       <c r="G566" s="4"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="6"/>
+      <c r="A567" s="5"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -5807,7 +5803,7 @@
       <c r="G567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="6"/>
+      <c r="A568" s="5"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -5816,7 +5812,7 @@
       <c r="G568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="6"/>
+      <c r="A569" s="5"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -5825,7 +5821,7 @@
       <c r="G569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="6"/>
+      <c r="A570" s="5"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -5834,7 +5830,7 @@
       <c r="G570" s="4"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="6"/>
+      <c r="A571" s="5"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -5843,7 +5839,7 @@
       <c r="G571" s="4"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="6"/>
+      <c r="A572" s="5"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -5852,7 +5848,7 @@
       <c r="G572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="6"/>
+      <c r="A573" s="5"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -5861,7 +5857,7 @@
       <c r="G573" s="4"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="6"/>
+      <c r="A574" s="5"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -5870,7 +5866,7 @@
       <c r="G574" s="4"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="6"/>
+      <c r="A575" s="5"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -5879,7 +5875,7 @@
       <c r="G575" s="4"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="6"/>
+      <c r="A576" s="5"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -5888,7 +5884,7 @@
       <c r="G576" s="4"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="6"/>
+      <c r="A577" s="5"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5897,7 +5893,7 @@
       <c r="G577" s="4"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="6"/>
+      <c r="A578" s="5"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -5906,7 +5902,7 @@
       <c r="G578" s="4"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="6"/>
+      <c r="A579" s="5"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5915,7 +5911,7 @@
       <c r="G579" s="4"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="6"/>
+      <c r="A580" s="5"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -5924,7 +5920,7 @@
       <c r="G580" s="4"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="6"/>
+      <c r="A581" s="5"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -5933,7 +5929,7 @@
       <c r="G581" s="4"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="6"/>
+      <c r="A582" s="5"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -5942,7 +5938,7 @@
       <c r="G582" s="4"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="6"/>
+      <c r="A583" s="5"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -5951,7 +5947,7 @@
       <c r="G583" s="4"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="6"/>
+      <c r="A584" s="5"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -5960,7 +5956,7 @@
       <c r="G584" s="4"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="6"/>
+      <c r="A585" s="5"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -5969,7 +5965,7 @@
       <c r="G585" s="4"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="6"/>
+      <c r="A586" s="5"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -5978,7 +5974,7 @@
       <c r="G586" s="4"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="6"/>
+      <c r="A587" s="5"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -5987,7 +5983,7 @@
       <c r="G587" s="4"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="6"/>
+      <c r="A588" s="5"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -5996,7 +5992,7 @@
       <c r="G588" s="4"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="6"/>
+      <c r="A589" s="5"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -6005,7 +6001,7 @@
       <c r="G589" s="4"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="6"/>
+      <c r="A590" s="5"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -6014,7 +6010,7 @@
       <c r="G590" s="4"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="6"/>
+      <c r="A591" s="5"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -6023,7 +6019,7 @@
       <c r="G591" s="4"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="6"/>
+      <c r="A592" s="5"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -6032,7 +6028,7 @@
       <c r="G592" s="4"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="6"/>
+      <c r="A593" s="5"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -6041,7 +6037,7 @@
       <c r="G593" s="4"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="6"/>
+      <c r="A594" s="5"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -6050,7 +6046,7 @@
       <c r="G594" s="4"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="6"/>
+      <c r="A595" s="5"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -6059,7 +6055,7 @@
       <c r="G595" s="4"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="6"/>
+      <c r="A596" s="5"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -6068,7 +6064,7 @@
       <c r="G596" s="4"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="6"/>
+      <c r="A597" s="5"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -6077,7 +6073,7 @@
       <c r="G597" s="4"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="6"/>
+      <c r="A598" s="5"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -6086,7 +6082,7 @@
       <c r="G598" s="4"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="6"/>
+      <c r="A599" s="5"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -6095,7 +6091,7 @@
       <c r="G599" s="4"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="6"/>
+      <c r="A600" s="5"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -6104,7 +6100,7 @@
       <c r="G600" s="4"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="6"/>
+      <c r="A601" s="5"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -6113,7 +6109,7 @@
       <c r="G601" s="4"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="6"/>
+      <c r="A602" s="5"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -6122,7 +6118,7 @@
       <c r="G602" s="4"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="6"/>
+      <c r="A603" s="5"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -6131,7 +6127,7 @@
       <c r="G603" s="4"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="6"/>
+      <c r="A604" s="5"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -6140,7 +6136,7 @@
       <c r="G604" s="4"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="6"/>
+      <c r="A605" s="5"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -6149,7 +6145,7 @@
       <c r="G605" s="4"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="6"/>
+      <c r="A606" s="5"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -6158,7 +6154,7 @@
       <c r="G606" s="4"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="6"/>
+      <c r="A607" s="5"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -6167,7 +6163,7 @@
       <c r="G607" s="4"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="6"/>
+      <c r="A608" s="5"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -6176,7 +6172,7 @@
       <c r="G608" s="4"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="6"/>
+      <c r="A609" s="5"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -6185,7 +6181,7 @@
       <c r="G609" s="4"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="6"/>
+      <c r="A610" s="5"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -6194,7 +6190,7 @@
       <c r="G610" s="4"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="6"/>
+      <c r="A611" s="5"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -6203,7 +6199,7 @@
       <c r="G611" s="4"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="6"/>
+      <c r="A612" s="5"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -6212,7 +6208,7 @@
       <c r="G612" s="4"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="6"/>
+      <c r="A613" s="5"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -6221,7 +6217,7 @@
       <c r="G613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="6"/>
+      <c r="A614" s="5"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -6230,7 +6226,7 @@
       <c r="G614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="6"/>
+      <c r="A615" s="5"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -6239,7 +6235,7 @@
       <c r="G615" s="4"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="6"/>
+      <c r="A616" s="5"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -6248,7 +6244,7 @@
       <c r="G616" s="4"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="6"/>
+      <c r="A617" s="5"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -6257,7 +6253,7 @@
       <c r="G617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="6"/>
+      <c r="A618" s="5"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -6266,7 +6262,7 @@
       <c r="G618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="6"/>
+      <c r="A619" s="5"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -6275,7 +6271,7 @@
       <c r="G619" s="4"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="6"/>
+      <c r="A620" s="5"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -6284,7 +6280,7 @@
       <c r="G620" s="4"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="6"/>
+      <c r="A621" s="5"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -6293,7 +6289,7 @@
       <c r="G621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="6"/>
+      <c r="A622" s="5"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -6302,7 +6298,7 @@
       <c r="G622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="6"/>
+      <c r="A623" s="5"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -6311,7 +6307,7 @@
       <c r="G623" s="4"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="6"/>
+      <c r="A624" s="5"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -6320,7 +6316,7 @@
       <c r="G624" s="4"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="6"/>
+      <c r="A625" s="5"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -6329,7 +6325,7 @@
       <c r="G625" s="4"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="6"/>
+      <c r="A626" s="5"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -6338,7 +6334,7 @@
       <c r="G626" s="4"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="6"/>
+      <c r="A627" s="5"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -6347,7 +6343,7 @@
       <c r="G627" s="4"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="6"/>
+      <c r="A628" s="5"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -6356,7 +6352,7 @@
       <c r="G628" s="4"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="6"/>
+      <c r="A629" s="5"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -6365,7 +6361,7 @@
       <c r="G629" s="4"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="6"/>
+      <c r="A630" s="5"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -6374,7 +6370,7 @@
       <c r="G630" s="4"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="6"/>
+      <c r="A631" s="5"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -6383,7 +6379,7 @@
       <c r="G631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="6"/>
+      <c r="A632" s="5"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -6392,7 +6388,7 @@
       <c r="G632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="6"/>
+      <c r="A633" s="5"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -6401,7 +6397,7 @@
       <c r="G633" s="4"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="6"/>
+      <c r="A634" s="5"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -6410,7 +6406,7 @@
       <c r="G634" s="4"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="6"/>
+      <c r="A635" s="5"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -6419,7 +6415,7 @@
       <c r="G635" s="4"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="6"/>
+      <c r="A636" s="5"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -6428,7 +6424,7 @@
       <c r="G636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="6"/>
+      <c r="A637" s="5"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -6437,7 +6433,7 @@
       <c r="G637" s="4"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="6"/>
+      <c r="A638" s="5"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -6446,7 +6442,7 @@
       <c r="G638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="6"/>
+      <c r="A639" s="5"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -6455,7 +6451,7 @@
       <c r="G639" s="4"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="6"/>
+      <c r="A640" s="5"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -6464,7 +6460,7 @@
       <c r="G640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="6"/>
+      <c r="A641" s="5"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -6473,7 +6469,7 @@
       <c r="G641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="6"/>
+      <c r="A642" s="5"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -6482,7 +6478,7 @@
       <c r="G642" s="4"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="6"/>
+      <c r="A643" s="5"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -6491,7 +6487,7 @@
       <c r="G643" s="4"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="6"/>
+      <c r="A644" s="5"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -6500,7 +6496,7 @@
       <c r="G644" s="4"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="6"/>
+      <c r="A645" s="5"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -6509,7 +6505,7 @@
       <c r="G645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="6"/>
+      <c r="A646" s="5"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -6518,7 +6514,7 @@
       <c r="G646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="6"/>
+      <c r="A647" s="5"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -6527,7 +6523,7 @@
       <c r="G647" s="4"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="6"/>
+      <c r="A648" s="5"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -6536,7 +6532,7 @@
       <c r="G648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="6"/>
+      <c r="A649" s="5"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -6545,7 +6541,7 @@
       <c r="G649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="6"/>
+      <c r="A650" s="5"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -6554,7 +6550,7 @@
       <c r="G650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="6"/>
+      <c r="A651" s="5"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -6563,7 +6559,7 @@
       <c r="G651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="6"/>
+      <c r="A652" s="5"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -6572,7 +6568,7 @@
       <c r="G652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="6"/>
+      <c r="A653" s="5"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -6581,7 +6577,7 @@
       <c r="G653" s="4"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="6"/>
+      <c r="A654" s="5"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -6590,7 +6586,7 @@
       <c r="G654" s="4"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="6"/>
+      <c r="A655" s="5"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -6599,7 +6595,7 @@
       <c r="G655" s="4"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="6"/>
+      <c r="A656" s="5"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -6608,7 +6604,7 @@
       <c r="G656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="6"/>
+      <c r="A657" s="5"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -6617,7 +6613,7 @@
       <c r="G657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="6"/>
+      <c r="A658" s="5"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -6626,7 +6622,7 @@
       <c r="G658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="6"/>
+      <c r="A659" s="5"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -6635,7 +6631,7 @@
       <c r="G659" s="4"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="6"/>
+      <c r="A660" s="5"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -6644,7 +6640,7 @@
       <c r="G660" s="4"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="6"/>
+      <c r="A661" s="5"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -6653,7 +6649,7 @@
       <c r="G661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="6"/>
+      <c r="A662" s="5"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -6662,7 +6658,7 @@
       <c r="G662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="6"/>
+      <c r="A663" s="5"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -6671,7 +6667,7 @@
       <c r="G663" s="4"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="6"/>
+      <c r="A664" s="5"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -6680,7 +6676,7 @@
       <c r="G664" s="4"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="6"/>
+      <c r="A665" s="5"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -6689,7 +6685,7 @@
       <c r="G665" s="4"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="6"/>
+      <c r="A666" s="5"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -6698,7 +6694,7 @@
       <c r="G666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="6"/>
+      <c r="A667" s="5"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -6707,7 +6703,7 @@
       <c r="G667" s="4"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="6"/>
+      <c r="A668" s="5"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -6716,7 +6712,7 @@
       <c r="G668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="6"/>
+      <c r="A669" s="5"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -6725,7 +6721,7 @@
       <c r="G669" s="4"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="6"/>
+      <c r="A670" s="5"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -6734,7 +6730,7 @@
       <c r="G670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="6"/>
+      <c r="A671" s="5"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -6743,7 +6739,7 @@
       <c r="G671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="6"/>
+      <c r="A672" s="5"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -6752,7 +6748,7 @@
       <c r="G672" s="4"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="6"/>
+      <c r="A673" s="5"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -6761,7 +6757,7 @@
       <c r="G673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="6"/>
+      <c r="A674" s="5"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -6770,7 +6766,7 @@
       <c r="G674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="6"/>
+      <c r="A675" s="5"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -6779,7 +6775,7 @@
       <c r="G675" s="4"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="6"/>
+      <c r="A676" s="5"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -6788,7 +6784,7 @@
       <c r="G676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="6"/>
+      <c r="A677" s="5"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -6797,7 +6793,7 @@
       <c r="G677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="6"/>
+      <c r="A678" s="5"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -6806,7 +6802,7 @@
       <c r="G678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="6"/>
+      <c r="A679" s="5"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -6815,7 +6811,7 @@
       <c r="G679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="6"/>
+      <c r="A680" s="5"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -6824,7 +6820,7 @@
       <c r="G680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="6"/>
+      <c r="A681" s="5"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -6833,7 +6829,7 @@
       <c r="G681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="6"/>
+      <c r="A682" s="5"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -6842,7 +6838,7 @@
       <c r="G682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="6"/>
+      <c r="A683" s="5"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -6851,7 +6847,7 @@
       <c r="G683" s="4"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="6"/>
+      <c r="A684" s="5"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -6860,7 +6856,7 @@
       <c r="G684" s="4"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="6"/>
+      <c r="A685" s="5"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -6869,7 +6865,7 @@
       <c r="G685" s="4"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="6"/>
+      <c r="A686" s="5"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -6878,7 +6874,7 @@
       <c r="G686" s="4"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="6"/>
+      <c r="A687" s="5"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -6887,7 +6883,7 @@
       <c r="G687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="6"/>
+      <c r="A688" s="5"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -6896,7 +6892,7 @@
       <c r="G688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="6"/>
+      <c r="A689" s="5"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -6905,7 +6901,7 @@
       <c r="G689" s="4"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="6"/>
+      <c r="A690" s="5"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -6914,7 +6910,7 @@
       <c r="G690" s="4"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="6"/>
+      <c r="A691" s="5"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -6923,7 +6919,7 @@
       <c r="G691" s="4"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="6"/>
+      <c r="A692" s="5"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -6932,7 +6928,7 @@
       <c r="G692" s="4"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="6"/>
+      <c r="A693" s="5"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -6941,7 +6937,7 @@
       <c r="G693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="6"/>
+      <c r="A694" s="5"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -6950,7 +6946,7 @@
       <c r="G694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="6"/>
+      <c r="A695" s="5"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -6959,7 +6955,7 @@
       <c r="G695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="6"/>
+      <c r="A696" s="5"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -6968,7 +6964,7 @@
       <c r="G696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="6"/>
+      <c r="A697" s="5"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -6977,7 +6973,7 @@
       <c r="G697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="6"/>
+      <c r="A698" s="5"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -6986,7 +6982,7 @@
       <c r="G698" s="4"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="6"/>
+      <c r="A699" s="5"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -6995,7 +6991,7 @@
       <c r="G699" s="4"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="6"/>
+      <c r="A700" s="5"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -7004,7 +7000,7 @@
       <c r="G700" s="4"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="6"/>
+      <c r="A701" s="5"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -7013,7 +7009,7 @@
       <c r="G701" s="4"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="6"/>
+      <c r="A702" s="5"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -7022,7 +7018,7 @@
       <c r="G702" s="4"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="6"/>
+      <c r="A703" s="5"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -7031,7 +7027,7 @@
       <c r="G703" s="4"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="6"/>
+      <c r="A704" s="5"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -7040,7 +7036,7 @@
       <c r="G704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="6"/>
+      <c r="A705" s="5"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -7049,7 +7045,7 @@
       <c r="G705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="6"/>
+      <c r="A706" s="5"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -7058,7 +7054,7 @@
       <c r="G706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="6"/>
+      <c r="A707" s="5"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -7067,7 +7063,7 @@
       <c r="G707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="6"/>
+      <c r="A708" s="5"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -7076,7 +7072,7 @@
       <c r="G708" s="4"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="6"/>
+      <c r="A709" s="5"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -7085,7 +7081,7 @@
       <c r="G709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="6"/>
+      <c r="A710" s="5"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -7094,7 +7090,7 @@
       <c r="G710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="6"/>
+      <c r="A711" s="5"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -7103,7 +7099,7 @@
       <c r="G711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="6"/>
+      <c r="A712" s="5"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -7112,7 +7108,7 @@
       <c r="G712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="6"/>
+      <c r="A713" s="5"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -7121,7 +7117,7 @@
       <c r="G713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="6"/>
+      <c r="A714" s="5"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -7130,7 +7126,7 @@
       <c r="G714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="6"/>
+      <c r="A715" s="5"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -7139,7 +7135,7 @@
       <c r="G715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="6"/>
+      <c r="A716" s="5"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -7148,7 +7144,7 @@
       <c r="G716" s="4"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="6"/>
+      <c r="A717" s="5"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -7157,7 +7153,7 @@
       <c r="G717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="6"/>
+      <c r="A718" s="5"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -7166,7 +7162,7 @@
       <c r="G718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="6"/>
+      <c r="A719" s="5"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -7175,7 +7171,7 @@
       <c r="G719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="6"/>
+      <c r="A720" s="5"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -7184,7 +7180,7 @@
       <c r="G720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="6"/>
+      <c r="A721" s="5"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -7193,7 +7189,7 @@
       <c r="G721" s="4"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="6"/>
+      <c r="A722" s="5"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -7202,7 +7198,7 @@
       <c r="G722" s="4"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="6"/>
+      <c r="A723" s="5"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -7211,7 +7207,7 @@
       <c r="G723" s="4"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="6"/>
+      <c r="A724" s="5"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -7220,7 +7216,7 @@
       <c r="G724" s="4"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="6"/>
+      <c r="A725" s="5"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -7229,7 +7225,7 @@
       <c r="G725" s="4"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="6"/>
+      <c r="A726" s="5"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -7238,7 +7234,7 @@
       <c r="G726" s="4"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="6"/>
+      <c r="A727" s="5"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -7247,7 +7243,7 @@
       <c r="G727" s="4"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="6"/>
+      <c r="A728" s="5"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -7256,7 +7252,7 @@
       <c r="G728" s="4"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="6"/>
+      <c r="A729" s="5"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -7265,7 +7261,7 @@
       <c r="G729" s="4"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="6"/>
+      <c r="A730" s="5"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -7274,7 +7270,7 @@
       <c r="G730" s="4"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="6"/>
+      <c r="A731" s="5"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -7283,7 +7279,7 @@
       <c r="G731" s="4"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="6"/>
+      <c r="A732" s="5"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -7292,7 +7288,7 @@
       <c r="G732" s="4"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="6"/>
+      <c r="A733" s="5"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -7301,7 +7297,7 @@
       <c r="G733" s="4"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="6"/>
+      <c r="A734" s="5"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -7310,7 +7306,7 @@
       <c r="G734" s="4"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="6"/>
+      <c r="A735" s="5"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -7319,7 +7315,7 @@
       <c r="G735" s="4"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="6"/>
+      <c r="A736" s="5"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -7328,7 +7324,7 @@
       <c r="G736" s="4"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="6"/>
+      <c r="A737" s="5"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -7337,7 +7333,7 @@
       <c r="G737" s="4"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="6"/>
+      <c r="A738" s="5"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -7346,7 +7342,7 @@
       <c r="G738" s="4"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="6"/>
+      <c r="A739" s="5"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -7355,7 +7351,7 @@
       <c r="G739" s="4"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="6"/>
+      <c r="A740" s="5"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -7364,7 +7360,7 @@
       <c r="G740" s="4"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="6"/>
+      <c r="A741" s="5"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -7373,7 +7369,7 @@
       <c r="G741" s="4"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="6"/>
+      <c r="A742" s="5"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -7382,7 +7378,7 @@
       <c r="G742" s="4"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="6"/>
+      <c r="A743" s="5"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -7391,7 +7387,7 @@
       <c r="G743" s="4"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="6"/>
+      <c r="A744" s="5"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -7400,7 +7396,7 @@
       <c r="G744" s="4"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="6"/>
+      <c r="A745" s="5"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -7409,7 +7405,7 @@
       <c r="G745" s="4"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="6"/>
+      <c r="A746" s="5"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -7418,7 +7414,7 @@
       <c r="G746" s="4"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="6"/>
+      <c r="A747" s="5"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -7427,7 +7423,7 @@
       <c r="G747" s="4"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="6"/>
+      <c r="A748" s="5"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -7436,7 +7432,7 @@
       <c r="G748" s="4"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="6"/>
+      <c r="A749" s="5"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -7445,7 +7441,7 @@
       <c r="G749" s="4"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="6"/>
+      <c r="A750" s="5"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -7454,7 +7450,7 @@
       <c r="G750" s="4"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="6"/>
+      <c r="A751" s="5"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -7463,7 +7459,7 @@
       <c r="G751" s="4"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="6"/>
+      <c r="A752" s="5"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -7472,7 +7468,7 @@
       <c r="G752" s="4"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="6"/>
+      <c r="A753" s="5"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -7481,7 +7477,7 @@
       <c r="G753" s="4"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="6"/>
+      <c r="A754" s="5"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -7490,7 +7486,7 @@
       <c r="G754" s="4"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="6"/>
+      <c r="A755" s="5"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -7499,7 +7495,7 @@
       <c r="G755" s="4"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="6"/>
+      <c r="A756" s="5"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -7508,7 +7504,7 @@
       <c r="G756" s="4"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="6"/>
+      <c r="A757" s="5"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -7517,7 +7513,7 @@
       <c r="G757" s="4"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="6"/>
+      <c r="A758" s="5"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -7526,7 +7522,7 @@
       <c r="G758" s="4"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="6"/>
+      <c r="A759" s="5"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -7535,7 +7531,7 @@
       <c r="G759" s="4"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="6"/>
+      <c r="A760" s="5"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -7544,7 +7540,7 @@
       <c r="G760" s="4"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="6"/>
+      <c r="A761" s="5"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -7553,7 +7549,7 @@
       <c r="G761" s="4"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="6"/>
+      <c r="A762" s="5"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -7562,7 +7558,7 @@
       <c r="G762" s="4"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="6"/>
+      <c r="A763" s="5"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -7571,7 +7567,7 @@
       <c r="G763" s="4"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="6"/>
+      <c r="A764" s="5"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -7580,7 +7576,7 @@
       <c r="G764" s="4"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="6"/>
+      <c r="A765" s="5"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -7589,7 +7585,7 @@
       <c r="G765" s="4"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="6"/>
+      <c r="A766" s="5"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -7598,7 +7594,7 @@
       <c r="G766" s="4"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="6"/>
+      <c r="A767" s="5"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -7607,7 +7603,7 @@
       <c r="G767" s="4"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="6"/>
+      <c r="A768" s="5"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -7616,7 +7612,7 @@
       <c r="G768" s="4"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="6"/>
+      <c r="A769" s="5"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -7625,7 +7621,7 @@
       <c r="G769" s="4"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="6"/>
+      <c r="A770" s="5"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -7634,7 +7630,7 @@
       <c r="G770" s="4"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="6"/>
+      <c r="A771" s="5"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -7643,7 +7639,7 @@
       <c r="G771" s="4"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="6"/>
+      <c r="A772" s="5"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -7652,7 +7648,7 @@
       <c r="G772" s="4"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="6"/>
+      <c r="A773" s="5"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -7661,7 +7657,7 @@
       <c r="G773" s="4"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="6"/>
+      <c r="A774" s="5"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -7670,7 +7666,7 @@
       <c r="G774" s="4"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="6"/>
+      <c r="A775" s="5"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -7679,7 +7675,7 @@
       <c r="G775" s="4"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="6"/>
+      <c r="A776" s="5"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -7688,7 +7684,7 @@
       <c r="G776" s="4"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="6"/>
+      <c r="A777" s="5"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -7697,7 +7693,7 @@
       <c r="G777" s="4"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="6"/>
+      <c r="A778" s="5"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -7706,7 +7702,7 @@
       <c r="G778" s="4"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="6"/>
+      <c r="A779" s="5"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -7715,7 +7711,7 @@
       <c r="G779" s="4"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="6"/>
+      <c r="A780" s="5"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -7724,7 +7720,7 @@
       <c r="G780" s="4"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="6"/>
+      <c r="A781" s="5"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -7733,7 +7729,7 @@
       <c r="G781" s="4"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="6"/>
+      <c r="A782" s="5"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -7742,7 +7738,7 @@
       <c r="G782" s="4"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="6"/>
+      <c r="A783" s="5"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -7751,7 +7747,7 @@
       <c r="G783" s="4"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="6"/>
+      <c r="A784" s="5"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -7760,7 +7756,7 @@
       <c r="G784" s="4"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="6"/>
+      <c r="A785" s="5"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -7769,7 +7765,7 @@
       <c r="G785" s="4"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="6"/>
+      <c r="A786" s="5"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -7778,7 +7774,7 @@
       <c r="G786" s="4"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="6"/>
+      <c r="A787" s="5"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -7787,7 +7783,7 @@
       <c r="G787" s="4"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="6"/>
+      <c r="A788" s="5"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -7796,7 +7792,7 @@
       <c r="G788" s="4"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="6"/>
+      <c r="A789" s="5"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -7805,7 +7801,7 @@
       <c r="G789" s="4"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="6"/>
+      <c r="A790" s="5"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -7814,7 +7810,7 @@
       <c r="G790" s="4"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="6"/>
+      <c r="A791" s="5"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -7823,7 +7819,7 @@
       <c r="G791" s="4"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="6"/>
+      <c r="A792" s="5"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -7832,7 +7828,7 @@
       <c r="G792" s="4"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="6"/>
+      <c r="A793" s="5"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -7841,7 +7837,7 @@
       <c r="G793" s="4"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="6"/>
+      <c r="A794" s="5"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -7850,7 +7846,7 @@
       <c r="G794" s="4"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="6"/>
+      <c r="A795" s="5"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -7859,7 +7855,7 @@
       <c r="G795" s="4"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="6"/>
+      <c r="A796" s="5"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -7868,7 +7864,7 @@
       <c r="G796" s="4"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="6"/>
+      <c r="A797" s="5"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -7877,7 +7873,7 @@
       <c r="G797" s="4"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="6"/>
+      <c r="A798" s="5"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -7886,7 +7882,7 @@
       <c r="G798" s="4"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="6"/>
+      <c r="A799" s="5"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -7895,7 +7891,7 @@
       <c r="G799" s="4"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="6"/>
+      <c r="A800" s="5"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -7904,7 +7900,7 @@
       <c r="G800" s="4"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="6"/>
+      <c r="A801" s="5"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -7913,7 +7909,7 @@
       <c r="G801" s="4"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="6"/>
+      <c r="A802" s="5"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -7922,7 +7918,7 @@
       <c r="G802" s="4"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="6"/>
+      <c r="A803" s="5"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -7931,7 +7927,7 @@
       <c r="G803" s="4"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="6"/>
+      <c r="A804" s="5"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -7940,7 +7936,7 @@
       <c r="G804" s="4"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="6"/>
+      <c r="A805" s="5"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -7949,7 +7945,7 @@
       <c r="G805" s="4"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="6"/>
+      <c r="A806" s="5"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -7958,7 +7954,7 @@
       <c r="G806" s="4"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="6"/>
+      <c r="A807" s="5"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -7967,7 +7963,7 @@
       <c r="G807" s="4"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="6"/>
+      <c r="A808" s="5"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -7976,7 +7972,7 @@
       <c r="G808" s="4"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="6"/>
+      <c r="A809" s="5"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -7985,7 +7981,7 @@
       <c r="G809" s="4"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="6"/>
+      <c r="A810" s="5"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -7994,7 +7990,7 @@
       <c r="G810" s="4"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="6"/>
+      <c r="A811" s="5"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -8003,7 +7999,7 @@
       <c r="G811" s="4"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="6"/>
+      <c r="A812" s="5"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -8012,7 +8008,7 @@
       <c r="G812" s="4"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="6"/>
+      <c r="A813" s="5"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -8021,7 +8017,7 @@
       <c r="G813" s="4"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="6"/>
+      <c r="A814" s="5"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -8030,7 +8026,7 @@
       <c r="G814" s="4"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="6"/>
+      <c r="A815" s="5"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -8039,7 +8035,7 @@
       <c r="G815" s="4"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="6"/>
+      <c r="A816" s="5"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -8048,7 +8044,7 @@
       <c r="G816" s="4"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="6"/>
+      <c r="A817" s="5"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -8057,7 +8053,7 @@
       <c r="G817" s="4"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="6"/>
+      <c r="A818" s="5"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -8066,7 +8062,7 @@
       <c r="G818" s="4"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="6"/>
+      <c r="A819" s="5"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -8075,7 +8071,7 @@
       <c r="G819" s="4"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="6"/>
+      <c r="A820" s="5"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -8084,7 +8080,7 @@
       <c r="G820" s="4"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="6"/>
+      <c r="A821" s="5"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -8093,7 +8089,7 @@
       <c r="G821" s="4"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="6"/>
+      <c r="A822" s="5"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -8102,7 +8098,7 @@
       <c r="G822" s="4"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="6"/>
+      <c r="A823" s="5"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -8111,7 +8107,7 @@
       <c r="G823" s="4"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="6"/>
+      <c r="A824" s="5"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -8120,7 +8116,7 @@
       <c r="G824" s="4"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="6"/>
+      <c r="A825" s="5"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -8129,7 +8125,7 @@
       <c r="G825" s="4"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="6"/>
+      <c r="A826" s="5"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -8138,7 +8134,7 @@
       <c r="G826" s="4"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="6"/>
+      <c r="A827" s="5"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -8147,7 +8143,7 @@
       <c r="G827" s="4"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="6"/>
+      <c r="A828" s="5"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -8156,7 +8152,7 @@
       <c r="G828" s="4"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="6"/>
+      <c r="A829" s="5"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -8165,7 +8161,7 @@
       <c r="G829" s="4"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="6"/>
+      <c r="A830" s="5"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -8174,7 +8170,7 @@
       <c r="G830" s="4"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="6"/>
+      <c r="A831" s="5"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -8183,7 +8179,7 @@
       <c r="G831" s="4"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="6"/>
+      <c r="A832" s="5"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -8192,7 +8188,7 @@
       <c r="G832" s="4"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="6"/>
+      <c r="A833" s="5"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -8201,7 +8197,7 @@
       <c r="G833" s="4"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="6"/>
+      <c r="A834" s="5"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -8210,7 +8206,7 @@
       <c r="G834" s="4"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="6"/>
+      <c r="A835" s="5"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -8219,7 +8215,7 @@
       <c r="G835" s="4"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="6"/>
+      <c r="A836" s="5"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -8228,7 +8224,7 @@
       <c r="G836" s="4"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="6"/>
+      <c r="A837" s="5"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -8237,7 +8233,7 @@
       <c r="G837" s="4"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="6"/>
+      <c r="A838" s="5"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -8246,7 +8242,7 @@
       <c r="G838" s="4"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="6"/>
+      <c r="A839" s="5"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -8255,7 +8251,7 @@
       <c r="G839" s="4"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="6"/>
+      <c r="A840" s="5"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -8264,7 +8260,7 @@
       <c r="G840" s="4"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="6"/>
+      <c r="A841" s="5"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -8273,7 +8269,7 @@
       <c r="G841" s="4"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="6"/>
+      <c r="A842" s="5"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -8282,7 +8278,7 @@
       <c r="G842" s="4"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="6"/>
+      <c r="A843" s="5"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -8291,7 +8287,7 @@
       <c r="G843" s="4"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="6"/>
+      <c r="A844" s="5"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -8300,7 +8296,7 @@
       <c r="G844" s="4"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="6"/>
+      <c r="A845" s="5"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -8309,7 +8305,7 @@
       <c r="G845" s="4"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="6"/>
+      <c r="A846" s="5"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -8318,7 +8314,7 @@
       <c r="G846" s="4"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="6"/>
+      <c r="A847" s="5"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -8327,7 +8323,7 @@
       <c r="G847" s="4"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="6"/>
+      <c r="A848" s="5"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -8336,7 +8332,7 @@
       <c r="G848" s="4"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="6"/>
+      <c r="A849" s="5"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -8345,7 +8341,7 @@
       <c r="G849" s="4"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="6"/>
+      <c r="A850" s="5"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -8354,7 +8350,7 @@
       <c r="G850" s="4"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="6"/>
+      <c r="A851" s="5"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -8363,7 +8359,7 @@
       <c r="G851" s="4"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="6"/>
+      <c r="A852" s="5"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -8372,7 +8368,7 @@
       <c r="G852" s="4"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="6"/>
+      <c r="A853" s="5"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -8381,7 +8377,7 @@
       <c r="G853" s="4"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="6"/>
+      <c r="A854" s="5"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -8390,7 +8386,7 @@
       <c r="G854" s="4"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="6"/>
+      <c r="A855" s="5"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -8399,7 +8395,7 @@
       <c r="G855" s="4"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="6"/>
+      <c r="A856" s="5"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -8408,7 +8404,7 @@
       <c r="G856" s="4"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="6"/>
+      <c r="A857" s="5"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -8417,7 +8413,7 @@
       <c r="G857" s="4"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="6"/>
+      <c r="A858" s="5"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -8426,7 +8422,7 @@
       <c r="G858" s="4"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="6"/>
+      <c r="A859" s="5"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -8435,7 +8431,7 @@
       <c r="G859" s="4"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="6"/>
+      <c r="A860" s="5"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -8444,7 +8440,7 @@
       <c r="G860" s="4"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="6"/>
+      <c r="A861" s="5"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -8453,7 +8449,7 @@
       <c r="G861" s="4"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="6"/>
+      <c r="A862" s="5"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -8462,7 +8458,7 @@
       <c r="G862" s="4"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="6"/>
+      <c r="A863" s="5"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -8471,7 +8467,7 @@
       <c r="G863" s="4"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="6"/>
+      <c r="A864" s="5"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -8480,7 +8476,7 @@
       <c r="G864" s="4"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="6"/>
+      <c r="A865" s="5"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -8489,7 +8485,7 @@
       <c r="G865" s="4"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="6"/>
+      <c r="A866" s="5"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -8498,7 +8494,7 @@
       <c r="G866" s="4"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="6"/>
+      <c r="A867" s="5"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -8507,7 +8503,7 @@
       <c r="G867" s="4"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="6"/>
+      <c r="A868" s="5"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -8516,7 +8512,7 @@
       <c r="G868" s="4"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="6"/>
+      <c r="A869" s="5"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -8525,7 +8521,7 @@
       <c r="G869" s="4"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="6"/>
+      <c r="A870" s="5"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -8534,7 +8530,7 @@
       <c r="G870" s="4"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="6"/>
+      <c r="A871" s="5"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -8543,7 +8539,7 @@
       <c r="G871" s="4"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="6"/>
+      <c r="A872" s="5"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -8552,7 +8548,7 @@
       <c r="G872" s="4"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="6"/>
+      <c r="A873" s="5"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -8561,7 +8557,7 @@
       <c r="G873" s="4"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="6"/>
+      <c r="A874" s="5"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -8570,7 +8566,7 @@
       <c r="G874" s="4"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="6"/>
+      <c r="A875" s="5"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -8579,7 +8575,7 @@
       <c r="G875" s="4"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="6"/>
+      <c r="A876" s="5"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -8588,7 +8584,7 @@
       <c r="G876" s="4"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="6"/>
+      <c r="A877" s="5"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -8597,7 +8593,7 @@
       <c r="G877" s="4"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="6"/>
+      <c r="A878" s="5"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -8606,7 +8602,7 @@
       <c r="G878" s="4"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="6"/>
+      <c r="A879" s="5"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -8615,7 +8611,7 @@
       <c r="G879" s="4"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="6"/>
+      <c r="A880" s="5"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -8624,7 +8620,7 @@
       <c r="G880" s="4"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="6"/>
+      <c r="A881" s="5"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -8633,7 +8629,7 @@
       <c r="G881" s="4"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="6"/>
+      <c r="A882" s="5"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -8642,7 +8638,7 @@
       <c r="G882" s="4"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="6"/>
+      <c r="A883" s="5"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -8651,7 +8647,7 @@
       <c r="G883" s="4"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="6"/>
+      <c r="A884" s="5"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -8660,7 +8656,7 @@
       <c r="G884" s="4"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="6"/>
+      <c r="A885" s="5"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -8669,7 +8665,7 @@
       <c r="G885" s="4"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="6"/>
+      <c r="A886" s="5"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -8678,7 +8674,7 @@
       <c r="G886" s="4"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="6"/>
+      <c r="A887" s="5"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -8687,7 +8683,7 @@
       <c r="G887" s="4"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="6"/>
+      <c r="A888" s="5"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -8696,7 +8692,7 @@
       <c r="G888" s="4"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="6"/>
+      <c r="A889" s="5"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -8705,7 +8701,7 @@
       <c r="G889" s="4"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="6"/>
+      <c r="A890" s="5"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -8714,7 +8710,7 @@
       <c r="G890" s="4"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="6"/>
+      <c r="A891" s="5"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -8723,7 +8719,7 @@
       <c r="G891" s="4"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="6"/>
+      <c r="A892" s="5"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -8732,7 +8728,7 @@
       <c r="G892" s="4"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="6"/>
+      <c r="A893" s="5"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -8741,7 +8737,7 @@
       <c r="G893" s="4"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="6"/>
+      <c r="A894" s="5"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -8750,7 +8746,7 @@
       <c r="G894" s="4"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="6"/>
+      <c r="A895" s="5"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -8759,7 +8755,7 @@
       <c r="G895" s="4"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="6"/>
+      <c r="A896" s="5"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -8768,7 +8764,7 @@
       <c r="G896" s="4"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="6"/>
+      <c r="A897" s="5"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -8777,7 +8773,7 @@
       <c r="G897" s="4"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="6"/>
+      <c r="A898" s="5"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -8786,7 +8782,7 @@
       <c r="G898" s="4"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="6"/>
+      <c r="A899" s="5"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -8795,7 +8791,7 @@
       <c r="G899" s="4"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="6"/>
+      <c r="A900" s="5"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -8804,7 +8800,7 @@
       <c r="G900" s="4"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="6"/>
+      <c r="A901" s="5"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -8813,7 +8809,7 @@
       <c r="G901" s="4"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="6"/>
+      <c r="A902" s="5"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -8822,7 +8818,7 @@
       <c r="G902" s="4"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="6"/>
+      <c r="A903" s="5"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -8831,7 +8827,7 @@
       <c r="G903" s="4"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="6"/>
+      <c r="A904" s="5"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -8840,7 +8836,7 @@
       <c r="G904" s="4"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="6"/>
+      <c r="A905" s="5"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -8849,7 +8845,7 @@
       <c r="G905" s="4"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="6"/>
+      <c r="A906" s="5"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -8858,7 +8854,7 @@
       <c r="G906" s="4"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="6"/>
+      <c r="A907" s="5"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -8867,7 +8863,7 @@
       <c r="G907" s="4"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="6"/>
+      <c r="A908" s="5"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -8876,7 +8872,7 @@
       <c r="G908" s="4"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="6"/>
+      <c r="A909" s="5"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -8885,7 +8881,7 @@
       <c r="G909" s="4"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="6"/>
+      <c r="A910" s="5"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -8894,7 +8890,7 @@
       <c r="G910" s="4"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="6"/>
+      <c r="A911" s="5"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -8903,7 +8899,7 @@
       <c r="G911" s="4"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="6"/>
+      <c r="A912" s="5"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -8912,7 +8908,7 @@
       <c r="G912" s="4"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="6"/>
+      <c r="A913" s="5"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -8921,7 +8917,7 @@
       <c r="G913" s="4"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="6"/>
+      <c r="A914" s="5"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -8930,7 +8926,7 @@
       <c r="G914" s="4"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="6"/>
+      <c r="A915" s="5"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -8939,7 +8935,7 @@
       <c r="G915" s="4"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="6"/>
+      <c r="A916" s="5"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -8948,7 +8944,7 @@
       <c r="G916" s="4"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="6"/>
+      <c r="A917" s="5"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -8957,7 +8953,7 @@
       <c r="G917" s="4"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="6"/>
+      <c r="A918" s="5"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -8966,7 +8962,7 @@
       <c r="G918" s="4"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="6"/>
+      <c r="A919" s="5"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -8975,7 +8971,7 @@
       <c r="G919" s="4"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="6"/>
+      <c r="A920" s="5"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -8984,7 +8980,7 @@
       <c r="G920" s="4"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="6"/>
+      <c r="A921" s="5"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -8993,7 +8989,7 @@
       <c r="G921" s="4"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="6"/>
+      <c r="A922" s="5"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -9002,7 +8998,7 @@
       <c r="G922" s="4"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="6"/>
+      <c r="A923" s="5"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -9011,7 +9007,7 @@
       <c r="G923" s="4"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="6"/>
+      <c r="A924" s="5"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -9020,7 +9016,7 @@
       <c r="G924" s="4"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="6"/>
+      <c r="A925" s="5"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -9029,7 +9025,7 @@
       <c r="G925" s="4"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="6"/>
+      <c r="A926" s="5"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -9038,7 +9034,7 @@
       <c r="G926" s="4"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="6"/>
+      <c r="A927" s="5"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -9047,7 +9043,7 @@
       <c r="G927" s="4"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="6"/>
+      <c r="A928" s="5"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -9056,7 +9052,7 @@
       <c r="G928" s="4"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="6"/>
+      <c r="A929" s="5"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -9065,7 +9061,7 @@
       <c r="G929" s="4"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="6"/>
+      <c r="A930" s="5"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -9074,7 +9070,7 @@
       <c r="G930" s="4"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="6"/>
+      <c r="A931" s="5"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -9083,7 +9079,7 @@
       <c r="G931" s="4"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="6"/>
+      <c r="A932" s="5"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -9092,7 +9088,7 @@
       <c r="G932" s="4"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="6"/>
+      <c r="A933" s="5"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -9101,7 +9097,7 @@
       <c r="G933" s="4"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="6"/>
+      <c r="A934" s="5"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -9110,7 +9106,7 @@
       <c r="G934" s="4"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="6"/>
+      <c r="A935" s="5"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -9119,7 +9115,7 @@
       <c r="G935" s="4"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="6"/>
+      <c r="A936" s="5"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -9128,7 +9124,7 @@
       <c r="G936" s="4"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="6"/>
+      <c r="A937" s="5"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
@@ -9137,7 +9133,7 @@
       <c r="G937" s="4"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="6"/>
+      <c r="A938" s="5"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
@@ -9146,7 +9142,7 @@
       <c r="G938" s="4"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="6"/>
+      <c r="A939" s="5"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
@@ -9155,7 +9151,7 @@
       <c r="G939" s="4"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="6"/>
+      <c r="A940" s="5"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
@@ -9164,7 +9160,7 @@
       <c r="G940" s="4"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="6"/>
+      <c r="A941" s="5"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
@@ -9173,7 +9169,7 @@
       <c r="G941" s="4"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="6"/>
+      <c r="A942" s="5"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
@@ -9182,7 +9178,7 @@
       <c r="G942" s="4"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="6"/>
+      <c r="A943" s="5"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
@@ -9191,7 +9187,7 @@
       <c r="G943" s="4"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="6"/>
+      <c r="A944" s="5"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
@@ -9200,7 +9196,7 @@
       <c r="G944" s="4"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="6"/>
+      <c r="A945" s="5"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
@@ -9209,7 +9205,7 @@
       <c r="G945" s="4"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="6"/>
+      <c r="A946" s="5"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
@@ -9218,7 +9214,7 @@
       <c r="G946" s="4"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="6"/>
+      <c r="A947" s="5"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
@@ -9227,7 +9223,7 @@
       <c r="G947" s="4"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="6"/>
+      <c r="A948" s="5"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
@@ -9236,7 +9232,7 @@
       <c r="G948" s="4"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="6"/>
+      <c r="A949" s="5"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
@@ -9245,7 +9241,7 @@
       <c r="G949" s="4"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="6"/>
+      <c r="A950" s="5"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
@@ -9254,7 +9250,7 @@
       <c r="G950" s="4"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="6"/>
+      <c r="A951" s="5"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
@@ -9263,7 +9259,7 @@
       <c r="G951" s="4"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="6"/>
+      <c r="A952" s="5"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
@@ -9272,7 +9268,7 @@
       <c r="G952" s="4"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="6"/>
+      <c r="A953" s="5"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
@@ -9281,7 +9277,7 @@
       <c r="G953" s="4"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="6"/>
+      <c r="A954" s="5"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
@@ -9290,7 +9286,7 @@
       <c r="G954" s="4"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="6"/>
+      <c r="A955" s="5"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -9299,7 +9295,7 @@
       <c r="G955" s="4"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="6"/>
+      <c r="A956" s="5"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
@@ -9308,7 +9304,7 @@
       <c r="G956" s="4"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="6"/>
+      <c r="A957" s="5"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -9317,7 +9313,7 @@
       <c r="G957" s="4"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="6"/>
+      <c r="A958" s="5"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
@@ -9326,7 +9322,7 @@
       <c r="G958" s="4"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="6"/>
+      <c r="A959" s="5"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
@@ -9335,7 +9331,7 @@
       <c r="G959" s="4"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="6"/>
+      <c r="A960" s="5"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
@@ -9344,7 +9340,7 @@
       <c r="G960" s="4"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="6"/>
+      <c r="A961" s="5"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
@@ -9353,7 +9349,7 @@
       <c r="G961" s="4"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="6"/>
+      <c r="A962" s="5"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
@@ -9362,7 +9358,7 @@
       <c r="G962" s="4"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="6"/>
+      <c r="A963" s="5"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
@@ -9371,7 +9367,7 @@
       <c r="G963" s="4"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="6"/>
+      <c r="A964" s="5"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
@@ -9380,7 +9376,7 @@
       <c r="G964" s="4"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="6"/>
+      <c r="A965" s="5"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
@@ -9389,7 +9385,7 @@
       <c r="G965" s="4"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="6"/>
+      <c r="A966" s="5"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
@@ -9398,7 +9394,7 @@
       <c r="G966" s="4"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="6"/>
+      <c r="A967" s="5"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
@@ -9407,7 +9403,7 @@
       <c r="G967" s="4"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="6"/>
+      <c r="A968" s="5"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
@@ -9416,7 +9412,7 @@
       <c r="G968" s="4"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="6"/>
+      <c r="A969" s="5"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
@@ -9425,7 +9421,7 @@
       <c r="G969" s="4"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="6"/>
+      <c r="A970" s="5"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
@@ -9434,7 +9430,7 @@
       <c r="G970" s="4"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="6"/>
+      <c r="A971" s="5"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
@@ -9443,7 +9439,7 @@
       <c r="G971" s="4"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="6"/>
+      <c r="A972" s="5"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
@@ -9452,7 +9448,7 @@
       <c r="G972" s="4"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="6"/>
+      <c r="A973" s="5"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
@@ -9461,7 +9457,7 @@
       <c r="G973" s="4"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="6"/>
+      <c r="A974" s="5"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
@@ -9470,7 +9466,7 @@
       <c r="G974" s="4"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="6"/>
+      <c r="A975" s="5"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
@@ -9479,7 +9475,7 @@
       <c r="G975" s="4"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="6"/>
+      <c r="A976" s="5"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
@@ -9488,7 +9484,7 @@
       <c r="G976" s="4"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="6"/>
+      <c r="A977" s="5"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
@@ -9497,7 +9493,7 @@
       <c r="G977" s="4"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="6"/>
+      <c r="A978" s="5"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
@@ -9506,7 +9502,7 @@
       <c r="G978" s="4"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="6"/>
+      <c r="A979" s="5"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
@@ -9515,7 +9511,7 @@
       <c r="G979" s="4"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="6"/>
+      <c r="A980" s="5"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
@@ -9524,7 +9520,7 @@
       <c r="G980" s="4"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="6"/>
+      <c r="A981" s="5"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
@@ -9533,7 +9529,7 @@
       <c r="G981" s="4"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="6"/>
+      <c r="A982" s="5"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
@@ -9542,7 +9538,7 @@
       <c r="G982" s="4"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="6"/>
+      <c r="A983" s="5"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
@@ -9551,7 +9547,7 @@
       <c r="G983" s="4"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="6"/>
+      <c r="A984" s="5"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
@@ -9560,7 +9556,7 @@
       <c r="G984" s="4"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="6"/>
+      <c r="A985" s="5"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
@@ -9569,7 +9565,7 @@
       <c r="G985" s="4"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="6"/>
+      <c r="A986" s="5"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
@@ -9578,7 +9574,7 @@
       <c r="G986" s="4"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="6"/>
+      <c r="A987" s="5"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
@@ -9587,7 +9583,7 @@
       <c r="G987" s="4"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="6"/>
+      <c r="A988" s="5"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
@@ -9596,7 +9592,7 @@
       <c r="G988" s="4"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="6"/>
+      <c r="A989" s="5"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
@@ -9605,7 +9601,7 @@
       <c r="G989" s="4"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="6"/>
+      <c r="A990" s="5"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -9614,7 +9610,7 @@
       <c r="G990" s="4"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="6"/>
+      <c r="A991" s="5"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
@@ -9623,7 +9619,7 @@
       <c r="G991" s="4"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="6"/>
+      <c r="A992" s="5"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
@@ -9632,7 +9628,7 @@
       <c r="G992" s="4"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="6"/>
+      <c r="A993" s="5"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
@@ -9641,7 +9637,7 @@
       <c r="G993" s="4"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="6"/>
+      <c r="A994" s="5"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
@@ -9650,7 +9646,7 @@
       <c r="G994" s="4"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="6"/>
+      <c r="A995" s="5"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
@@ -9659,7 +9655,7 @@
       <c r="G995" s="4"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="6"/>
+      <c r="A996" s="5"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
@@ -9668,7 +9664,7 @@
       <c r="G996" s="4"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="6"/>
+      <c r="A997" s="5"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
@@ -9677,7 +9673,7 @@
       <c r="G997" s="4"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="6"/>
+      <c r="A998" s="5"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
@@ -9686,7 +9682,7 @@
       <c r="G998" s="4"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="6"/>
+      <c r="A999" s="5"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
@@ -9695,7 +9691,7 @@
       <c r="G999" s="4"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="6"/>
+      <c r="A1000" s="5"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
@@ -9704,7 +9700,7 @@
       <c r="G1000" s="4"/>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="6"/>
+      <c r="A1001" s="5"/>
       <c r="B1001" s="4"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
@@ -9713,7 +9709,7 @@
       <c r="G1001" s="4"/>
     </row>
     <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="6"/>
+      <c r="A1002" s="5"/>
       <c r="B1002" s="4"/>
       <c r="C1002" s="4"/>
       <c r="D1002" s="4"/>
@@ -9722,7 +9718,7 @@
       <c r="G1002" s="4"/>
     </row>
     <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="6"/>
+      <c r="A1003" s="5"/>
       <c r="B1003" s="4"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="4"/>
@@ -9731,7 +9727,7 @@
       <c r="G1003" s="4"/>
     </row>
     <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="6"/>
+      <c r="A1004" s="5"/>
       <c r="B1004" s="4"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="4"/>
@@ -9740,7 +9736,7 @@
       <c r="G1004" s="4"/>
     </row>
     <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1005" s="6"/>
+      <c r="A1005" s="5"/>
       <c r="B1005" s="4"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="4"/>
@@ -9749,7 +9745,7 @@
       <c r="G1005" s="4"/>
     </row>
     <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1006" s="6"/>
+      <c r="A1006" s="5"/>
       <c r="B1006" s="4"/>
       <c r="C1006" s="4"/>
       <c r="D1006" s="4"/>
@@ -9758,7 +9754,7 @@
       <c r="G1006" s="4"/>
     </row>
     <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1007" s="6"/>
+      <c r="A1007" s="5"/>
       <c r="B1007" s="4"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="4"/>
@@ -9767,7 +9763,7 @@
       <c r="G1007" s="4"/>
     </row>
     <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1008" s="6"/>
+      <c r="A1008" s="5"/>
       <c r="B1008" s="4"/>
       <c r="C1008" s="4"/>
       <c r="D1008" s="4"/>
@@ -9776,7 +9772,7 @@
       <c r="G1008" s="4"/>
     </row>
     <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1009" s="6"/>
+      <c r="A1009" s="5"/>
       <c r="B1009" s="4"/>
       <c r="C1009" s="4"/>
       <c r="D1009" s="4"/>
@@ -9785,7 +9781,7 @@
       <c r="G1009" s="4"/>
     </row>
     <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1010" s="6"/>
+      <c r="A1010" s="5"/>
       <c r="B1010" s="4"/>
       <c r="C1010" s="4"/>
       <c r="D1010" s="4"/>
@@ -9794,7 +9790,7 @@
       <c r="G1010" s="4"/>
     </row>
     <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1011" s="6"/>
+      <c r="A1011" s="5"/>
       <c r="B1011" s="4"/>
       <c r="C1011" s="4"/>
       <c r="D1011" s="4"/>
@@ -9803,7 +9799,7 @@
       <c r="G1011" s="4"/>
     </row>
     <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1012" s="6"/>
+      <c r="A1012" s="5"/>
       <c r="B1012" s="4"/>
       <c r="C1012" s="4"/>
       <c r="D1012" s="4"/>
@@ -9812,7 +9808,7 @@
       <c r="G1012" s="4"/>
     </row>
     <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1013" s="6"/>
+      <c r="A1013" s="5"/>
       <c r="B1013" s="4"/>
       <c r="C1013" s="4"/>
       <c r="D1013" s="4"/>
@@ -9821,7 +9817,7 @@
       <c r="G1013" s="4"/>
     </row>
     <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1014" s="6"/>
+      <c r="A1014" s="5"/>
       <c r="B1014" s="4"/>
       <c r="C1014" s="4"/>
       <c r="D1014" s="4"/>
@@ -9830,7 +9826,7 @@
       <c r="G1014" s="4"/>
     </row>
     <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1015" s="6"/>
+      <c r="A1015" s="5"/>
       <c r="B1015" s="4"/>
       <c r="C1015" s="4"/>
       <c r="D1015" s="4"/>
@@ -9839,7 +9835,7 @@
       <c r="G1015" s="4"/>
     </row>
     <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1016" s="6"/>
+      <c r="A1016" s="5"/>
       <c r="B1016" s="4"/>
       <c r="C1016" s="4"/>
       <c r="D1016" s="4"/>
@@ -9848,7 +9844,7 @@
       <c r="G1016" s="4"/>
     </row>
     <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1017" s="6"/>
+      <c r="A1017" s="5"/>
       <c r="B1017" s="4"/>
       <c r="C1017" s="4"/>
       <c r="D1017" s="4"/>
@@ -9857,7 +9853,7 @@
       <c r="G1017" s="4"/>
     </row>
     <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1018" s="6"/>
+      <c r="A1018" s="5"/>
       <c r="B1018" s="4"/>
       <c r="C1018" s="4"/>
       <c r="D1018" s="4"/>
@@ -9866,7 +9862,7 @@
       <c r="G1018" s="4"/>
     </row>
     <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1019" s="6"/>
+      <c r="A1019" s="5"/>
       <c r="B1019" s="4"/>
       <c r="C1019" s="4"/>
       <c r="D1019" s="4"/>
